--- a/BackTest/2019-10-13 BackTest PPT.xlsx
+++ b/BackTest/2019-10-13 BackTest PPT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>580.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>17</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
       <c r="L13" t="n">
         <v>580.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>581</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>581.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>19</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L16" t="n">
         <v>581.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>19</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>45.45454545454545</v>
+      </c>
       <c r="L17" t="n">
         <v>581.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>20</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>581.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>25</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.14285714285714</v>
+      </c>
       <c r="L19" t="n">
         <v>582.3</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L20" t="n">
         <v>582.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>34</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="L21" t="n">
         <v>583.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>35</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>584.3</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>36</v>
       </c>
       <c r="K23" t="n">
-        <v>16.66666666666666</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L23" t="n">
         <v>584.8</v>
@@ -1466,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>585.2</v>
@@ -1515,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="K25" t="n">
-        <v>22.22222222222222</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L25" t="n">
         <v>585.9</v>
@@ -1564,7 +1586,7 @@
         <v>43</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L26" t="n">
         <v>586.1</v>
@@ -1613,7 +1635,7 @@
         <v>48</v>
       </c>
       <c r="K27" t="n">
-        <v>18.18181818181818</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>586.8</v>
@@ -1662,7 +1684,7 @@
         <v>49</v>
       </c>
       <c r="K28" t="n">
-        <v>26.82926829268293</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L28" t="n">
         <v>587.5</v>
@@ -1711,7 +1733,7 @@
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L29" t="n">
         <v>587.8</v>
@@ -1760,7 +1782,7 @@
         <v>54</v>
       </c>
       <c r="K30" t="n">
-        <v>16.27906976744186</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>588</v>
@@ -1809,7 +1831,7 @@
         <v>58</v>
       </c>
       <c r="K31" t="n">
-        <v>16.27906976744186</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L31" t="n">
         <v>588</v>
@@ -1860,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="K32" t="n">
-        <v>26.53061224489796</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L32" t="n">
         <v>588.5</v>
@@ -1911,7 +1933,7 @@
         <v>64</v>
       </c>
       <c r="K33" t="n">
-        <v>23.40425531914894</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L33" t="n">
         <v>589.1</v>
@@ -1962,7 +1984,7 @@
         <v>64</v>
       </c>
       <c r="K34" t="n">
-        <v>23.40425531914894</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L34" t="n">
         <v>589.8</v>
@@ -2013,7 +2035,7 @@
         <v>69</v>
       </c>
       <c r="K35" t="n">
-        <v>36</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L35" t="n">
         <v>590.9</v>
@@ -2064,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="K36" t="n">
-        <v>38.46153846153847</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L36" t="n">
         <v>592.7</v>
@@ -2115,7 +2137,7 @@
         <v>75</v>
       </c>
       <c r="K37" t="n">
-        <v>42.85714285714285</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L37" t="n">
         <v>594.4</v>
@@ -2166,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="K38" t="n">
-        <v>45.45454545454545</v>
+        <v>68</v>
       </c>
       <c r="L38" t="n">
         <v>596.2</v>
@@ -2217,7 +2239,7 @@
         <v>78</v>
       </c>
       <c r="K39" t="n">
-        <v>43.39622641509434</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
         <v>598.2</v>
@@ -2268,7 +2290,7 @@
         <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>600.8</v>
@@ -2319,7 +2341,7 @@
         <v>83</v>
       </c>
       <c r="K41" t="n">
-        <v>38.77551020408163</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L41" t="n">
         <v>602.7</v>
@@ -2370,7 +2392,7 @@
         <v>83</v>
       </c>
       <c r="K42" t="n">
-        <v>37.5</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L42" t="n">
         <v>604</v>
@@ -2421,7 +2443,7 @@
         <v>85</v>
       </c>
       <c r="K43" t="n">
-        <v>42.85714285714285</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L43" t="n">
         <v>605.5</v>
@@ -2472,7 +2494,7 @@
         <v>87</v>
       </c>
       <c r="K44" t="n">
-        <v>48</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>607.2</v>
@@ -2523,7 +2545,7 @@
         <v>87</v>
       </c>
       <c r="K45" t="n">
-        <v>46.93877551020408</v>
+        <v>62.5</v>
       </c>
       <c r="L45" t="n">
         <v>608.4</v>
@@ -2574,7 +2596,7 @@
         <v>98</v>
       </c>
       <c r="K46" t="n">
-        <v>70.90909090909091</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L46" t="n">
         <v>610.5</v>
@@ -2625,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>69.23076923076923</v>
+        <v>76</v>
       </c>
       <c r="L47" t="n">
         <v>612.4</v>
@@ -2676,7 +2698,7 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>72.54901960784314</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L48" t="n">
         <v>614.3</v>
@@ -2727,7 +2749,7 @@
         <v>101</v>
       </c>
       <c r="K49" t="n">
-        <v>68.62745098039215</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L49" t="n">
         <v>615.8</v>
@@ -2778,7 +2800,7 @@
         <v>111</v>
       </c>
       <c r="K50" t="n">
-        <v>50.87719298245614</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L50" t="n">
         <v>616.1</v>
@@ -2829,7 +2851,7 @@
         <v>112</v>
       </c>
       <c r="K51" t="n">
-        <v>44.44444444444444</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L51" t="n">
         <v>616.6</v>
@@ -2880,7 +2902,7 @@
         <v>114</v>
       </c>
       <c r="K52" t="n">
-        <v>32</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L52" t="n">
         <v>616.9</v>
@@ -2931,7 +2953,7 @@
         <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>39.28571428571428</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L53" t="n">
         <v>617.6</v>
@@ -2982,7 +3004,7 @@
         <v>121</v>
       </c>
       <c r="K54" t="n">
-        <v>40.35087719298245</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L54" t="n">
         <v>618.2</v>
@@ -3033,7 +3055,7 @@
         <v>123</v>
       </c>
       <c r="K55" t="n">
-        <v>37.03703703703704</v>
+        <v>-12</v>
       </c>
       <c r="L55" t="n">
         <v>619</v>
@@ -3084,7 +3106,7 @@
         <v>142</v>
       </c>
       <c r="K56" t="n">
-        <v>52.11267605633802</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>620.6</v>
@@ -3135,7 +3157,7 @@
         <v>152</v>
       </c>
       <c r="K57" t="n">
-        <v>29.87012987012987</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L57" t="n">
         <v>621</v>
@@ -3186,7 +3208,7 @@
         <v>156</v>
       </c>
       <c r="K58" t="n">
-        <v>23.45679012345679</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L58" t="n">
         <v>621</v>
@@ -3237,7 +3259,7 @@
         <v>161</v>
       </c>
       <c r="K59" t="n">
-        <v>13.25301204819277</v>
+        <v>12</v>
       </c>
       <c r="L59" t="n">
         <v>620.6</v>
@@ -3288,7 +3310,7 @@
         <v>185</v>
       </c>
       <c r="K60" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.28767123287671</v>
       </c>
       <c r="L60" t="n">
         <v>618.8</v>
@@ -3339,7 +3361,7 @@
         <v>203</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="L61" t="n">
         <v>618.9</v>
@@ -3390,7 +3412,7 @@
         <v>203</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L62" t="n">
         <v>619.2</v>
@@ -3441,7 +3463,7 @@
         <v>203</v>
       </c>
       <c r="K63" t="n">
-        <v>3.389830508474576</v>
+        <v>-4.878048780487805</v>
       </c>
       <c r="L63" t="n">
         <v>618.9</v>
@@ -3492,7 +3514,7 @@
         <v>203</v>
       </c>
       <c r="K64" t="n">
-        <v>1.724137931034483</v>
+        <v>-7.5</v>
       </c>
       <c r="L64" t="n">
         <v>618.5</v>
@@ -3543,7 +3565,7 @@
         <v>204</v>
       </c>
       <c r="K65" t="n">
-        <v>2.564102564102564</v>
+        <v>-38.70967741935484</v>
       </c>
       <c r="L65" t="n">
         <v>618</v>
@@ -3594,7 +3616,7 @@
         <v>205</v>
       </c>
       <c r="K66" t="n">
-        <v>-6.542056074766355</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L66" t="n">
         <v>615.7</v>
@@ -3645,7 +3667,7 @@
         <v>210</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.72727272727273</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L67" t="n">
         <v>613.9</v>
@@ -3696,7 +3718,7 @@
         <v>211</v>
       </c>
       <c r="K68" t="n">
-        <v>-13.51351351351351</v>
+        <v>-20</v>
       </c>
       <c r="L68" t="n">
         <v>612.4</v>
@@ -3747,7 +3769,7 @@
         <v>212</v>
       </c>
       <c r="K69" t="n">
-        <v>-13.51351351351351</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L69" t="n">
         <v>611.3</v>
@@ -3798,7 +3820,7 @@
         <v>212</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.95049504950495</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L70" t="n">
         <v>612.6</v>
@@ -3849,7 +3871,7 @@
         <v>212</v>
       </c>
       <c r="K71" t="n">
-        <v>-4</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L71" t="n">
         <v>612.1</v>
@@ -3900,7 +3922,7 @@
         <v>213</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.01010101010101</v>
+        <v>-40</v>
       </c>
       <c r="L72" t="n">
         <v>611.7</v>
@@ -3951,7 +3973,7 @@
         <v>214</v>
       </c>
       <c r="K73" t="n">
-        <v>-8.51063829787234</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L73" t="n">
         <v>611.2</v>
@@ -4002,7 +4024,7 @@
         <v>218</v>
       </c>
       <c r="K74" t="n">
-        <v>-13.4020618556701</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L74" t="n">
         <v>610.3</v>
@@ -4053,7 +4075,7 @@
         <v>218</v>
       </c>
       <c r="K75" t="n">
-        <v>-15.78947368421053</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L75" t="n">
         <v>609.3</v>
@@ -4104,7 +4126,7 @@
         <v>225</v>
       </c>
       <c r="K76" t="n">
-        <v>-32.53012048192771</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L76" t="n">
         <v>608.9</v>
@@ -4155,7 +4177,7 @@
         <v>230</v>
       </c>
       <c r="K77" t="n">
-        <v>-28.2051282051282</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L77" t="n">
         <v>608.5</v>
@@ -4206,7 +4228,7 @@
         <v>233</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.48051948051948</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L78" t="n">
         <v>608.5</v>
@@ -4257,7 +4279,7 @@
         <v>236</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.33333333333334</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L79" t="n">
         <v>608.3</v>
@@ -4308,7 +4330,7 @@
         <v>238</v>
       </c>
       <c r="K80" t="n">
-        <v>24.52830188679245</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>608.3</v>
@@ -4359,7 +4381,7 @@
         <v>240</v>
       </c>
       <c r="K81" t="n">
-        <v>-18.91891891891892</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L81" t="n">
         <v>608.1</v>
@@ -4410,7 +4432,7 @@
         <v>242</v>
       </c>
       <c r="K82" t="n">
-        <v>-12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>608</v>
@@ -4461,7 +4483,7 @@
         <v>243</v>
       </c>
       <c r="K83" t="n">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="L83" t="n">
         <v>607.9</v>
@@ -4512,7 +4534,7 @@
         <v>245</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.04761904761905</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L84" t="n">
         <v>608</v>
@@ -4563,7 +4585,7 @@
         <v>251</v>
       </c>
       <c r="K85" t="n">
-        <v>-31.91489361702128</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L85" t="n">
         <v>607.5</v>
@@ -4614,7 +4636,7 @@
         <v>256</v>
       </c>
       <c r="K86" t="n">
-        <v>-21.56862745098039</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L86" t="n">
         <v>606.8</v>
@@ -4665,7 +4687,7 @@
         <v>256</v>
       </c>
       <c r="K87" t="n">
-        <v>-13.04347826086956</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L87" t="n">
         <v>606.6</v>
@@ -4716,7 +4738,7 @@
         <v>257</v>
       </c>
       <c r="K88" t="n">
-        <v>-13.04347826086956</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>606</v>
@@ -4767,7 +4789,7 @@
         <v>261</v>
       </c>
       <c r="K89" t="n">
-        <v>-18.36734693877551</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L89" t="n">
         <v>605.3</v>
@@ -4818,7 +4840,7 @@
         <v>262</v>
       </c>
       <c r="K90" t="n">
-        <v>-16</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L90" t="n">
         <v>604.5</v>
@@ -4869,7 +4891,7 @@
         <v>262</v>
       </c>
       <c r="K91" t="n">
-        <v>-16</v>
+        <v>-40</v>
       </c>
       <c r="L91" t="n">
         <v>603.9</v>
@@ -4920,7 +4942,7 @@
         <v>266</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.433962264150944</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L92" t="n">
         <v>603.5</v>
@@ -4971,7 +4993,7 @@
         <v>266</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.692307692307693</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L93" t="n">
         <v>603.2</v>
@@ -5022,7 +5044,7 @@
         <v>267</v>
       </c>
       <c r="K94" t="n">
-        <v>-2.040816326530612</v>
+        <v>25</v>
       </c>
       <c r="L94" t="n">
         <v>603</v>
@@ -5073,7 +5095,7 @@
         <v>271</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.433962264150944</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>603</v>
@@ -5124,7 +5146,7 @@
         <v>274</v>
       </c>
       <c r="K96" t="n">
-        <v>-18.36734693877551</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>602.8</v>
@@ -5226,7 +5248,7 @@
         <v>287</v>
       </c>
       <c r="K98" t="n">
-        <v>-37.03703703703704</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L98" t="n">
         <v>601.1</v>
@@ -5277,7 +5299,7 @@
         <v>297</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.47540983606557</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>601.1</v>
@@ -5328,7 +5350,7 @@
         <v>299</v>
       </c>
       <c r="K100" t="n">
-        <v>-18.0327868852459</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L100" t="n">
         <v>600.8</v>
@@ -5379,7 +5401,7 @@
         <v>307</v>
       </c>
       <c r="K101" t="n">
-        <v>-25.37313432835821</v>
+        <v>-36.58536585365854</v>
       </c>
       <c r="L101" t="n">
         <v>599.7</v>
@@ -5430,7 +5452,7 @@
         <v>308</v>
       </c>
       <c r="K102" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>598.3</v>
@@ -5481,7 +5503,7 @@
         <v>315</v>
       </c>
       <c r="K103" t="n">
-        <v>-13.88888888888889</v>
+        <v>-12.5</v>
       </c>
       <c r="L103" t="n">
         <v>597.6</v>
@@ -5532,7 +5554,7 @@
         <v>315</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.42857142857143</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L104" t="n">
         <v>597</v>
@@ -5583,7 +5605,7 @@
         <v>315</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.125</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L105" t="n">
         <v>596.8</v>
@@ -5634,7 +5656,7 @@
         <v>315</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.86440677966102</v>
+        <v>-10</v>
       </c>
       <c r="L106" t="n">
         <v>596.3</v>
@@ -5685,7 +5707,7 @@
         <v>322</v>
       </c>
       <c r="K107" t="n">
-        <v>-21.21212121212121</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>595.2</v>
@@ -5736,7 +5758,7 @@
         <v>330</v>
       </c>
       <c r="K108" t="n">
-        <v>-6.849315068493151</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L108" t="n">
         <v>596.1</v>
@@ -5787,7 +5809,7 @@
         <v>331</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L109" t="n">
         <v>596.1</v>
@@ -5838,7 +5860,7 @@
         <v>331</v>
       </c>
       <c r="K110" t="n">
-        <v>-1.449275362318841</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L110" t="n">
         <v>596.3</v>
@@ -5889,7 +5911,7 @@
         <v>331</v>
       </c>
       <c r="K111" t="n">
-        <v>-1.449275362318841</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L111" t="n">
         <v>597.3</v>
@@ -5940,7 +5962,7 @@
         <v>331</v>
       </c>
       <c r="K112" t="n">
-        <v>-7.692307692307693</v>
+        <v>12.5</v>
       </c>
       <c r="L112" t="n">
         <v>598.2</v>
@@ -5991,7 +6013,7 @@
         <v>331</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.692307692307693</v>
+        <v>12.5</v>
       </c>
       <c r="L113" t="n">
         <v>598.4</v>
@@ -6042,7 +6064,7 @@
         <v>331</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.25</v>
+        <v>12.5</v>
       </c>
       <c r="L114" t="n">
         <v>598.6</v>
@@ -6093,7 +6115,7 @@
         <v>331</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L115" t="n">
         <v>598.8</v>
@@ -6144,7 +6166,7 @@
         <v>333</v>
       </c>
       <c r="K116" t="n">
-        <v>-1.694915254237288</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>599.2</v>
@@ -6195,7 +6217,7 @@
         <v>335</v>
       </c>
       <c r="K117" t="n">
-        <v>-3.333333333333333</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>600.1</v>
@@ -6246,7 +6268,7 @@
         <v>341</v>
       </c>
       <c r="K118" t="n">
-        <v>7.407407407407407</v>
+        <v>-60</v>
       </c>
       <c r="L118" t="n">
         <v>599.6</v>
@@ -6297,7 +6319,7 @@
         <v>341</v>
       </c>
       <c r="K119" t="n">
-        <v>-13.63636363636363</v>
+        <v>-60</v>
       </c>
       <c r="L119" t="n">
         <v>599</v>
@@ -6348,7 +6370,7 @@
         <v>342</v>
       </c>
       <c r="K120" t="n">
-        <v>-6.976744186046512</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L120" t="n">
         <v>598.5</v>
@@ -6399,7 +6421,7 @@
         <v>343</v>
       </c>
       <c r="K121" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>598.1</v>
@@ -6450,7 +6472,7 @@
         <v>343</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>597.7</v>
@@ -6501,7 +6523,7 @@
         <v>343</v>
       </c>
       <c r="K123" t="n">
-        <v>-7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>597.3</v>
@@ -6552,7 +6574,7 @@
         <v>345</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>597.1</v>
@@ -6603,7 +6625,7 @@
         <v>345</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L125" t="n">
         <v>596.9</v>
@@ -6654,7 +6676,7 @@
         <v>345</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>596.5</v>
@@ -6705,7 +6727,7 @@
         <v>351</v>
       </c>
       <c r="K127" t="n">
-        <v>3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>595.7</v>
@@ -6756,7 +6778,7 @@
         <v>356</v>
       </c>
       <c r="K128" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>596</v>
@@ -6807,7 +6829,7 @@
         <v>356</v>
       </c>
       <c r="K129" t="n">
-        <v>-12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>596.3</v>
@@ -6858,7 +6880,7 @@
         <v>356</v>
       </c>
       <c r="K130" t="n">
-        <v>-12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L130" t="n">
         <v>596.5</v>
@@ -6909,7 +6931,7 @@
         <v>360</v>
       </c>
       <c r="K131" t="n">
-        <v>3.448275862068965</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L131" t="n">
         <v>597</v>
@@ -6960,7 +6982,7 @@
         <v>360</v>
       </c>
       <c r="K132" t="n">
-        <v>3.448275862068965</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L132" t="n">
         <v>597.5</v>
@@ -7011,7 +7033,7 @@
         <v>361</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L133" t="n">
         <v>597.9</v>
@@ -7062,7 +7084,7 @@
         <v>375</v>
       </c>
       <c r="K134" t="n">
-        <v>31.81818181818182</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L134" t="n">
         <v>599.5</v>
@@ -7113,7 +7135,7 @@
         <v>384</v>
       </c>
       <c r="K135" t="n">
-        <v>9.433962264150944</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L135" t="n">
         <v>600.2</v>
@@ -7164,7 +7186,7 @@
         <v>384</v>
       </c>
       <c r="K136" t="n">
-        <v>5.88235294117647</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L136" t="n">
         <v>600.9</v>
@@ -7215,7 +7237,7 @@
         <v>385</v>
       </c>
       <c r="K137" t="n">
-        <v>8</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L137" t="n">
         <v>602.1</v>
@@ -7266,7 +7288,7 @@
         <v>385</v>
       </c>
       <c r="K138" t="n">
-        <v>22.72727272727273</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L138" t="n">
         <v>602.8</v>
@@ -7317,7 +7339,7 @@
         <v>395</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L139" t="n">
         <v>602.5</v>
@@ -7368,7 +7390,7 @@
         <v>399</v>
       </c>
       <c r="K140" t="n">
-        <v>5.263157894736842</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L140" t="n">
         <v>602.6</v>
@@ -7419,7 +7441,7 @@
         <v>405</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.451612903225806</v>
+        <v>-20</v>
       </c>
       <c r="L141" t="n">
         <v>601.7</v>
@@ -7470,7 +7492,7 @@
         <v>405</v>
       </c>
       <c r="K142" t="n">
-        <v>-6.451612903225806</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L142" t="n">
         <v>600.8</v>
@@ -7521,7 +7543,7 @@
         <v>406</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.936507936507936</v>
+        <v>-74.19354838709677</v>
       </c>
       <c r="L143" t="n">
         <v>599.9</v>
@@ -7572,7 +7594,7 @@
         <v>406</v>
       </c>
       <c r="K144" t="n">
-        <v>-11.47540983606557</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L144" t="n">
         <v>597.6</v>
@@ -7623,7 +7645,7 @@
         <v>407</v>
       </c>
       <c r="K145" t="n">
-        <v>-9.67741935483871</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L145" t="n">
         <v>596.3</v>
@@ -7674,7 +7696,7 @@
         <v>408</v>
       </c>
       <c r="K146" t="n">
-        <v>-11.11111111111111</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L146" t="n">
         <v>594.9</v>
@@ -7725,7 +7747,7 @@
         <v>411</v>
       </c>
       <c r="K147" t="n">
-        <v>3.333333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L147" t="n">
         <v>593.9</v>
@@ -7776,7 +7798,7 @@
         <v>411</v>
       </c>
       <c r="K148" t="n">
-        <v>-5.454545454545454</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>592.9</v>
@@ -7827,7 +7849,7 @@
         <v>412</v>
       </c>
       <c r="K149" t="n">
-        <v>-3.571428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L149" t="n">
         <v>593</v>
@@ -7878,7 +7900,7 @@
         <v>412</v>
       </c>
       <c r="K150" t="n">
-        <v>-3.571428571428571</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L150" t="n">
         <v>592.7</v>
@@ -7929,7 +7951,7 @@
         <v>413</v>
       </c>
       <c r="K151" t="n">
-        <v>-13.20754716981132</v>
+        <v>25</v>
       </c>
       <c r="L151" t="n">
         <v>592.9</v>
@@ -7980,7 +8002,7 @@
         <v>416</v>
       </c>
       <c r="K152" t="n">
-        <v>-17.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>592.8</v>
@@ -8031,7 +8053,7 @@
         <v>420</v>
       </c>
       <c r="K153" t="n">
-        <v>-8.474576271186439</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L153" t="n">
         <v>593.2</v>
@@ -8082,7 +8104,7 @@
         <v>424</v>
       </c>
       <c r="K154" t="n">
-        <v>-46.93877551020408</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L154" t="n">
         <v>593.2</v>
@@ -8133,7 +8155,7 @@
         <v>424</v>
       </c>
       <c r="K155" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>593.1</v>
@@ -8184,7 +8206,7 @@
         <v>426</v>
       </c>
       <c r="K156" t="n">
-        <v>-38.09523809523809</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>592.9</v>
@@ -8235,7 +8257,7 @@
         <v>426</v>
       </c>
       <c r="K157" t="n">
-        <v>-36.58536585365854</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>592.4</v>
@@ -8286,7 +8308,7 @@
         <v>428</v>
       </c>
       <c r="K158" t="n">
-        <v>-30.23255813953488</v>
+        <v>-25</v>
       </c>
       <c r="L158" t="n">
         <v>592.1</v>
@@ -8337,7 +8359,7 @@
         <v>430</v>
       </c>
       <c r="K159" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L159" t="n">
         <v>591.9</v>
@@ -8388,7 +8410,7 @@
         <v>431</v>
       </c>
       <c r="K160" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>591.8</v>
@@ -8439,7 +8461,7 @@
         <v>437</v>
       </c>
       <c r="K161" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>591.2</v>
@@ -8490,7 +8512,7 @@
         <v>444</v>
       </c>
       <c r="K162" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>591.6</v>
@@ -8541,7 +8563,7 @@
         <v>444</v>
       </c>
       <c r="K163" t="n">
-        <v>10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
         <v>591.6</v>
@@ -8592,7 +8614,7 @@
         <v>444</v>
       </c>
       <c r="K164" t="n">
-        <v>10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>592</v>
@@ -8643,7 +8665,7 @@
         <v>447</v>
       </c>
       <c r="K165" t="n">
-        <v>15</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>592.7</v>
@@ -8694,7 +8716,7 @@
         <v>455</v>
       </c>
       <c r="K166" t="n">
-        <v>31.91489361702128</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L166" t="n">
         <v>594.4</v>
@@ -8745,7 +8767,7 @@
         <v>467</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L167" t="n">
         <v>594.9</v>
@@ -8796,7 +8818,7 @@
         <v>468</v>
       </c>
       <c r="K168" t="n">
-        <v>1.754385964912281</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L168" t="n">
         <v>595.3</v>
@@ -8847,7 +8869,7 @@
         <v>469</v>
       </c>
       <c r="K169" t="n">
-        <v>-1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>595.4</v>
@@ -8898,7 +8920,7 @@
         <v>472</v>
       </c>
       <c r="K170" t="n">
-        <v>-6.666666666666667</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L170" t="n">
         <v>595.1</v>
@@ -8949,7 +8971,7 @@
         <v>473</v>
       </c>
       <c r="K171" t="n">
-        <v>-6.666666666666667</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L171" t="n">
         <v>595.3</v>
@@ -9000,7 +9022,7 @@
         <v>485</v>
       </c>
       <c r="K172" t="n">
-        <v>15.94202898550724</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L172" t="n">
         <v>596</v>
@@ -9051,7 +9073,7 @@
         <v>488</v>
       </c>
       <c r="K173" t="n">
-        <v>14.70588235294118</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L173" t="n">
         <v>597</v>
@@ -9102,7 +9124,7 @@
         <v>495</v>
       </c>
       <c r="K174" t="n">
-        <v>29.57746478873239</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L174" t="n">
         <v>598.7</v>
@@ -9153,7 +9175,7 @@
         <v>500</v>
       </c>
       <c r="K175" t="n">
-        <v>34.21052631578947</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L175" t="n">
         <v>600.6</v>
@@ -9204,7 +9226,7 @@
         <v>513</v>
       </c>
       <c r="K176" t="n">
-        <v>17.24137931034483</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L176" t="n">
         <v>600.4</v>
@@ -9255,7 +9277,7 @@
         <v>526</v>
       </c>
       <c r="K177" t="n">
-        <v>28</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L177" t="n">
         <v>602.7</v>
@@ -9306,7 +9328,7 @@
         <v>527</v>
       </c>
       <c r="K178" t="n">
-        <v>25.25252525252525</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L178" t="n">
         <v>604.8</v>
@@ -9357,7 +9379,7 @@
         <v>528</v>
       </c>
       <c r="K179" t="n">
-        <v>22.44897959183674</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L179" t="n">
         <v>606.9</v>
@@ -9408,7 +9430,7 @@
         <v>530</v>
       </c>
       <c r="K180" t="n">
-        <v>23.23232323232323</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L180" t="n">
         <v>609.5</v>
@@ -9459,7 +9481,7 @@
         <v>530</v>
       </c>
       <c r="K181" t="n">
-        <v>31.18279569892473</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>612.2</v>
@@ -9510,7 +9532,7 @@
         <v>531</v>
       </c>
       <c r="K182" t="n">
-        <v>26.4367816091954</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L182" t="n">
         <v>613.8</v>
@@ -9561,7 +9583,7 @@
         <v>531</v>
       </c>
       <c r="K183" t="n">
-        <v>26.4367816091954</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>615.1</v>
@@ -9612,7 +9634,7 @@
         <v>531</v>
       </c>
       <c r="K184" t="n">
-        <v>26.4367816091954</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L184" t="n">
         <v>615.7</v>
@@ -9663,7 +9685,7 @@
         <v>531</v>
       </c>
       <c r="K185" t="n">
-        <v>23.80952380952381</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L185" t="n">
         <v>615.8</v>
@@ -9714,7 +9736,7 @@
         <v>531</v>
       </c>
       <c r="K186" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L186" t="n">
         <v>617.2</v>
@@ -9765,7 +9787,7 @@
         <v>531</v>
       </c>
       <c r="K187" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L187" t="n">
         <v>617.3</v>
@@ -9816,7 +9838,7 @@
         <v>531</v>
       </c>
       <c r="K188" t="n">
-        <v>36.50793650793651</v>
+        <v>100</v>
       </c>
       <c r="L188" t="n">
         <v>617.5</v>
@@ -9867,7 +9889,7 @@
         <v>535</v>
       </c>
       <c r="K189" t="n">
-        <v>30.3030303030303</v>
+        <v>-60</v>
       </c>
       <c r="L189" t="n">
         <v>617.4</v>
@@ -9918,7 +9940,7 @@
         <v>535</v>
       </c>
       <c r="K190" t="n">
-        <v>36.50793650793651</v>
+        <v>-60</v>
       </c>
       <c r="L190" t="n">
         <v>617.1</v>
@@ -9969,7 +9991,7 @@
         <v>543</v>
       </c>
       <c r="K191" t="n">
-        <v>22.85714285714286</v>
+        <v>-100</v>
       </c>
       <c r="L191" t="n">
         <v>616</v>
@@ -10020,7 +10042,7 @@
         <v>548</v>
       </c>
       <c r="K192" t="n">
-        <v>14.28571428571428</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L192" t="n">
         <v>615.3</v>
@@ -10071,7 +10093,7 @@
         <v>548</v>
       </c>
       <c r="K193" t="n">
-        <v>10</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L193" t="n">
         <v>614.6</v>
@@ -10122,7 +10144,7 @@
         <v>555</v>
       </c>
       <c r="K194" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>614.6</v>
@@ -10173,7 +10195,7 @@
         <v>555</v>
       </c>
       <c r="K195" t="n">
-        <v>1.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>614.6</v>
@@ -10224,7 +10246,7 @@
         <v>555</v>
       </c>
       <c r="K196" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>614.6</v>
@@ -10275,7 +10297,7 @@
         <v>555</v>
       </c>
       <c r="K197" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>614.6</v>
@@ -10326,7 +10348,7 @@
         <v>559</v>
       </c>
       <c r="K198" t="n">
-        <v>18.75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>615</v>
@@ -10377,7 +10399,7 @@
         <v>561</v>
       </c>
       <c r="K199" t="n">
-        <v>27.27272727272727</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L199" t="n">
         <v>616</v>
@@ -10428,7 +10450,7 @@
         <v>562</v>
       </c>
       <c r="K200" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L200" t="n">
         <v>617.1</v>
@@ -10479,7 +10501,7 @@
         <v>565</v>
       </c>
       <c r="K201" t="n">
-        <v>31.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>619.3</v>
@@ -10530,7 +10552,7 @@
         <v>569</v>
       </c>
       <c r="K202" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>621.4</v>
@@ -10581,7 +10603,7 @@
         <v>572</v>
       </c>
       <c r="K203" t="n">
-        <v>41.46341463414634</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>623.8</v>
@@ -10632,7 +10654,7 @@
         <v>573</v>
       </c>
       <c r="K204" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>625.6</v>
@@ -10683,7 +10705,7 @@
         <v>581</v>
       </c>
       <c r="K205" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>628.2</v>
@@ -10734,7 +10756,7 @@
         <v>589</v>
       </c>
       <c r="K206" t="n">
-        <v>58.62068965517241</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>631.6</v>
@@ -10785,7 +10807,7 @@
         <v>591</v>
       </c>
       <c r="K207" t="n">
-        <v>53.33333333333334</v>
+        <v>87.5</v>
       </c>
       <c r="L207" t="n">
         <v>634.8</v>
@@ -10836,7 +10858,7 @@
         <v>603</v>
       </c>
       <c r="K208" t="n">
-        <v>27.77777777777778</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>636.4</v>
@@ -10887,7 +10909,7 @@
         <v>617</v>
       </c>
       <c r="K209" t="n">
-        <v>12.19512195121951</v>
+        <v>-1.818181818181818</v>
       </c>
       <c r="L209" t="n">
         <v>636.4</v>
@@ -10938,7 +10960,7 @@
         <v>621</v>
       </c>
       <c r="K210" t="n">
-        <v>16.27906976744186</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>636.7</v>
@@ -10989,7 +11011,7 @@
         <v>651</v>
       </c>
       <c r="K211" t="n">
-        <v>48.14814814814815</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L211" t="n">
         <v>639.7</v>
@@ -11040,7 +11062,7 @@
         <v>668</v>
       </c>
       <c r="K212" t="n">
-        <v>25</v>
+        <v>6.25</v>
       </c>
       <c r="L212" t="n">
         <v>640.6</v>
@@ -11091,7 +11113,7 @@
         <v>683</v>
       </c>
       <c r="K213" t="n">
-        <v>33.33333333333333</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L213" t="n">
         <v>642.7</v>
@@ -11142,7 +11164,7 @@
         <v>685</v>
       </c>
       <c r="K214" t="n">
-        <v>30.76923076923077</v>
+        <v>13.46153846153846</v>
       </c>
       <c r="L214" t="n">
         <v>644.9</v>
@@ -11193,7 +11215,7 @@
         <v>687</v>
       </c>
       <c r="K215" t="n">
-        <v>31.81818181818182</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="L215" t="n">
         <v>646.5</v>
@@ -11244,7 +11266,7 @@
         <v>692</v>
       </c>
       <c r="K216" t="n">
-        <v>34.3065693430657</v>
+        <v>14.85148514851485</v>
       </c>
       <c r="L216" t="n">
         <v>647.8</v>
@@ -11295,7 +11317,7 @@
         <v>692</v>
       </c>
       <c r="K217" t="n">
-        <v>34.3065693430657</v>
+        <v>30.3370786516854</v>
       </c>
       <c r="L217" t="n">
         <v>649.3</v>
@@ -11346,7 +11368,7 @@
         <v>698</v>
       </c>
       <c r="K218" t="n">
-        <v>26.61870503597122</v>
+        <v>43.20987654320987</v>
       </c>
       <c r="L218" t="n">
         <v>651.4</v>
@@ -11397,7 +11419,7 @@
         <v>702</v>
       </c>
       <c r="K219" t="n">
-        <v>21.98581560283688</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>654.5</v>
@@ -11448,7 +11470,7 @@
         <v>703</v>
       </c>
       <c r="K220" t="n">
-        <v>21.98581560283688</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L220" t="n">
         <v>657.3</v>
@@ -11499,7 +11521,7 @@
         <v>703</v>
       </c>
       <c r="K221" t="n">
-        <v>20.28985507246377</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L221" t="n">
         <v>657.1</v>
@@ -11550,7 +11572,7 @@
         <v>710</v>
       </c>
       <c r="K222" t="n">
-        <v>21.98581560283688</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L222" t="n">
         <v>659.3</v>
@@ -11601,7 +11623,7 @@
         <v>717</v>
       </c>
       <c r="K223" t="n">
-        <v>24.13793103448276</v>
+        <v>37.5</v>
       </c>
       <c r="L223" t="n">
         <v>660.7</v>
@@ -11652,7 +11674,7 @@
         <v>717</v>
       </c>
       <c r="K224" t="n">
-        <v>23.61111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L224" t="n">
         <v>661.9</v>
@@ -11703,7 +11725,7 @@
         <v>724</v>
       </c>
       <c r="K225" t="n">
-        <v>13.28671328671329</v>
+        <v>-6.25</v>
       </c>
       <c r="L225" t="n">
         <v>662.2</v>
@@ -11754,7 +11776,7 @@
         <v>728</v>
       </c>
       <c r="K226" t="n">
-        <v>5.035971223021583</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>661.6</v>
@@ -11805,7 +11827,7 @@
         <v>729</v>
       </c>
       <c r="K227" t="n">
-        <v>5.797101449275362</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L227" t="n">
         <v>660.9</v>
@@ -11856,7 +11878,7 @@
         <v>738</v>
       </c>
       <c r="K228" t="n">
-        <v>8.148148148148149</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L228" t="n">
         <v>659.9</v>
@@ -11907,7 +11929,7 @@
         <v>739</v>
       </c>
       <c r="K229" t="n">
-        <v>19.67213114754098</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L229" t="n">
         <v>659.2</v>
@@ -11958,7 +11980,7 @@
         <v>749</v>
       </c>
       <c r="K230" t="n">
-        <v>23.4375</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L230" t="n">
         <v>659.4</v>
@@ -12009,7 +12031,7 @@
         <v>758</v>
       </c>
       <c r="K231" t="n">
-        <v>8.411214953271028</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L231" t="n">
         <v>660.5</v>
@@ -12060,7 +12082,7 @@
         <v>758</v>
       </c>
       <c r="K232" t="n">
-        <v>28.88888888888889</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L232" t="n">
         <v>660.9</v>
@@ -12111,7 +12133,7 @@
         <v>759</v>
       </c>
       <c r="K233" t="n">
-        <v>13.1578947368421</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L233" t="n">
         <v>660.5</v>
@@ -12162,7 +12184,7 @@
         <v>761</v>
       </c>
       <c r="K234" t="n">
-        <v>7.894736842105263</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L234" t="n">
         <v>659.9</v>
@@ -12213,7 +12235,7 @@
         <v>761</v>
       </c>
       <c r="K235" t="n">
-        <v>5.405405405405405</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L235" t="n">
         <v>660</v>
@@ -12264,7 +12286,7 @@
         <v>764</v>
       </c>
       <c r="K236" t="n">
-        <v>-5.555555555555555</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L236" t="n">
         <v>660.2</v>
@@ -12315,7 +12337,7 @@
         <v>768</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L237" t="n">
         <v>660.9</v>
@@ -12366,7 +12388,7 @@
         <v>771</v>
       </c>
       <c r="K238" t="n">
-        <v>4.10958904109589</v>
+        <v>43.75</v>
       </c>
       <c r="L238" t="n">
         <v>662.2</v>
@@ -12417,7 +12439,7 @@
         <v>771</v>
       </c>
       <c r="K239" t="n">
-        <v>10.14492753623188</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L239" t="n">
         <v>663.6</v>
@@ -12468,7 +12490,7 @@
         <v>774</v>
       </c>
       <c r="K240" t="n">
-        <v>4.225352112676056</v>
+        <v>-50</v>
       </c>
       <c r="L240" t="n">
         <v>663.7</v>
@@ -12519,7 +12541,7 @@
         <v>775</v>
       </c>
       <c r="K241" t="n">
-        <v>2.777777777777778</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L241" t="n">
         <v>662.8</v>
@@ -12570,7 +12592,7 @@
         <v>780</v>
       </c>
       <c r="K242" t="n">
-        <v>-14.28571428571428</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L242" t="n">
         <v>661.4</v>
@@ -12621,7 +12643,7 @@
         <v>788</v>
       </c>
       <c r="K243" t="n">
-        <v>-12.67605633802817</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L243" t="n">
         <v>660.9</v>
@@ -12672,7 +12694,7 @@
         <v>792</v>
       </c>
       <c r="K244" t="n">
-        <v>-17.33333333333334</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L244" t="n">
         <v>660.2</v>
@@ -12723,7 +12745,7 @@
         <v>792</v>
       </c>
       <c r="K245" t="n">
-        <v>-8.823529411764707</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L245" t="n">
         <v>659.5</v>
@@ -12774,7 +12796,7 @@
         <v>796</v>
       </c>
       <c r="K246" t="n">
-        <v>-8.823529411764707</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L246" t="n">
         <v>658.7</v>
@@ -12825,7 +12847,7 @@
         <v>798</v>
       </c>
       <c r="K247" t="n">
-        <v>-10.14492753623188</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L247" t="n">
         <v>657.3</v>
@@ -12876,7 +12898,7 @@
         <v>801</v>
       </c>
       <c r="K248" t="n">
-        <v>7.936507936507936</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L248" t="n">
         <v>656.5</v>
@@ -12927,7 +12949,7 @@
         <v>806</v>
       </c>
       <c r="K249" t="n">
-        <v>1.492537313432836</v>
+        <v>-31.25</v>
       </c>
       <c r="L249" t="n">
         <v>655.2</v>
@@ -12978,7 +13000,7 @@
         <v>806</v>
       </c>
       <c r="K250" t="n">
-        <v>-15.78947368421053</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L250" t="n">
         <v>654.2</v>
@@ -13029,7 +13051,7 @@
         <v>806</v>
       </c>
       <c r="K251" t="n">
-        <v>-37.5</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L251" t="n">
         <v>653.3</v>
@@ -13080,7 +13102,7 @@
         <v>812</v>
       </c>
       <c r="K252" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L252" t="n">
         <v>653.5</v>
@@ -13131,7 +13153,7 @@
         <v>825</v>
       </c>
       <c r="K253" t="n">
-        <v>-36.36363636363637</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L253" t="n">
         <v>651.6</v>
@@ -13182,7 +13204,7 @@
         <v>828</v>
       </c>
       <c r="K254" t="n">
-        <v>-28.35820895522388</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>650.4</v>
@@ -13233,7 +13255,7 @@
         <v>831</v>
       </c>
       <c r="K255" t="n">
-        <v>-22.85714285714286</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L255" t="n">
         <v>649.5</v>
@@ -13284,7 +13306,7 @@
         <v>834</v>
       </c>
       <c r="K256" t="n">
-        <v>-22.85714285714286</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L256" t="n">
         <v>648.7</v>
@@ -13335,7 +13357,7 @@
         <v>835</v>
       </c>
       <c r="K257" t="n">
-        <v>-31.34328358208955</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L257" t="n">
         <v>648</v>
@@ -13386,7 +13408,7 @@
         <v>848</v>
       </c>
       <c r="K258" t="n">
-        <v>-6.493506493506493</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L258" t="n">
         <v>648.3</v>
@@ -13437,7 +13459,7 @@
         <v>854</v>
       </c>
       <c r="K259" t="n">
-        <v>-13.25301204819277</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>648.5</v>
@@ -13488,7 +13510,7 @@
         <v>861</v>
       </c>
       <c r="K260" t="n">
-        <v>-1.149425287356322</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L260" t="n">
         <v>649.4</v>
@@ -13539,7 +13561,7 @@
         <v>867</v>
       </c>
       <c r="K261" t="n">
-        <v>6.521739130434782</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="L261" t="n">
         <v>650.9</v>
@@ -13590,7 +13612,7 @@
         <v>869</v>
       </c>
       <c r="K262" t="n">
-        <v>14.60674157303371</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L262" t="n">
         <v>652</v>
@@ -13641,7 +13663,7 @@
         <v>870</v>
       </c>
       <c r="K263" t="n">
-        <v>4.878048780487805</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="L263" t="n">
         <v>654.3</v>
@@ -13692,7 +13714,7 @@
         <v>871</v>
       </c>
       <c r="K264" t="n">
-        <v>11.39240506329114</v>
+        <v>45</v>
       </c>
       <c r="L264" t="n">
         <v>656.4</v>
@@ -13743,7 +13765,7 @@
         <v>879</v>
       </c>
       <c r="K265" t="n">
-        <v>1.149425287356322</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="L265" t="n">
         <v>657.4</v>
@@ -13794,7 +13816,7 @@
         <v>883</v>
       </c>
       <c r="K266" t="n">
-        <v>10.3448275862069</v>
+        <v>37.5</v>
       </c>
       <c r="L266" t="n">
         <v>659.1</v>
@@ -13845,7 +13867,7 @@
         <v>886</v>
       </c>
       <c r="K267" t="n">
-        <v>15.90909090909091</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L267" t="n">
         <v>661.2</v>
@@ -13896,7 +13918,7 @@
         <v>895</v>
       </c>
       <c r="K268" t="n">
-        <v>2.127659574468085</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L268" t="n">
         <v>661.1</v>
@@ -13947,7 +13969,7 @@
         <v>899</v>
       </c>
       <c r="K269" t="n">
-        <v>3.225806451612903</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L269" t="n">
         <v>661.2</v>
@@ -13998,7 +14020,7 @@
         <v>900</v>
       </c>
       <c r="K270" t="n">
-        <v>4.25531914893617</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>660.7</v>
@@ -14049,7 +14071,7 @@
         <v>903</v>
       </c>
       <c r="K271" t="n">
-        <v>1.030927835051546</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L271" t="n">
         <v>659.3</v>
@@ -14100,7 +14122,7 @@
         <v>907</v>
       </c>
       <c r="K272" t="n">
-        <v>-9.473684210526317</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L272" t="n">
         <v>657.3</v>
@@ -14151,7 +14173,7 @@
         <v>911</v>
       </c>
       <c r="K273" t="n">
-        <v>9.302325581395349</v>
+        <v>-40</v>
       </c>
       <c r="L273" t="n">
         <v>655.8</v>
@@ -14202,7 +14224,7 @@
         <v>911</v>
       </c>
       <c r="K274" t="n">
-        <v>6.024096385542169</v>
+        <v>-25</v>
       </c>
       <c r="L274" t="n">
         <v>654.2</v>
@@ -14253,7 +14275,7 @@
         <v>911</v>
       </c>
       <c r="K275" t="n">
-        <v>2.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L275" t="n">
         <v>653.4</v>
@@ -14304,7 +14326,7 @@
         <v>916</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L276" t="n">
         <v>651.7</v>
@@ -14355,7 +14377,7 @@
         <v>916</v>
       </c>
       <c r="K277" t="n">
-        <v>1.234567901234568</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L277" t="n">
         <v>649.7</v>
@@ -14406,7 +14428,7 @@
         <v>916</v>
       </c>
       <c r="K278" t="n">
-        <v>-17.64705882352941</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L278" t="n">
         <v>648.6</v>
@@ -14457,7 +14479,7 @@
         <v>919</v>
       </c>
       <c r="K279" t="n">
-        <v>-4.615384615384616</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L279" t="n">
         <v>648.2</v>
@@ -14508,7 +14530,7 @@
         <v>922</v>
       </c>
       <c r="K280" t="n">
-        <v>-21.31147540983606</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L280" t="n">
         <v>647.4</v>
@@ -14559,7 +14581,7 @@
         <v>927</v>
       </c>
       <c r="K281" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="L281" t="n">
         <v>646.4</v>
@@ -14610,7 +14632,7 @@
         <v>935</v>
       </c>
       <c r="K282" t="n">
-        <v>-27.27272727272727</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L282" t="n">
         <v>646.6</v>
@@ -14661,7 +14683,7 @@
         <v>935</v>
       </c>
       <c r="K283" t="n">
-        <v>-26.15384615384616</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L283" t="n">
         <v>646.4</v>
@@ -14712,7 +14734,7 @@
         <v>946</v>
       </c>
       <c r="K284" t="n">
-        <v>-9.333333333333334</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L284" t="n">
         <v>647.3</v>
@@ -14763,7 +14785,7 @@
         <v>947</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L285" t="n">
         <v>648.1</v>
@@ -14814,7 +14836,7 @@
         <v>948</v>
       </c>
       <c r="K286" t="n">
-        <v>-4.615384615384616</v>
+        <v>43.75</v>
       </c>
       <c r="L286" t="n">
         <v>649.5</v>
@@ -14865,7 +14887,7 @@
         <v>948</v>
       </c>
       <c r="K287" t="n">
-        <v>-9.67741935483871</v>
+        <v>43.75</v>
       </c>
       <c r="L287" t="n">
         <v>650.9</v>
@@ -14916,7 +14938,7 @@
         <v>952</v>
       </c>
       <c r="K288" t="n">
-        <v>12.28070175438596</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L288" t="n">
         <v>652.7</v>
@@ -14967,7 +14989,7 @@
         <v>955</v>
       </c>
       <c r="K289" t="n">
-        <v>14.28571428571428</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L289" t="n">
         <v>653.9</v>
@@ -15018,7 +15040,7 @@
         <v>959</v>
       </c>
       <c r="K290" t="n">
-        <v>18.64406779661017</v>
+        <v>75</v>
       </c>
       <c r="L290" t="n">
         <v>655.8</v>
@@ -15069,7 +15091,7 @@
         <v>963</v>
       </c>
       <c r="K291" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L291" t="n">
         <v>657.8</v>
@@ -15120,7 +15142,7 @@
         <v>984</v>
       </c>
       <c r="K292" t="n">
-        <v>-9.090909090909092</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L292" t="n">
         <v>656.9</v>
@@ -15171,7 +15193,7 @@
         <v>1006</v>
       </c>
       <c r="K293" t="n">
-        <v>11.57894736842105</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>658.2</v>
@@ -15222,7 +15244,7 @@
         <v>1015</v>
       </c>
       <c r="K294" t="n">
-        <v>1.923076923076923</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L294" t="n">
         <v>657.5</v>
@@ -15273,7 +15295,7 @@
         <v>1017</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L295" t="n">
         <v>656.7</v>
@@ -15324,7 +15346,7 @@
         <v>1020</v>
       </c>
       <c r="K296" t="n">
-        <v>1.923076923076923</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L296" t="n">
         <v>655.5</v>
@@ -15375,7 +15397,7 @@
         <v>1021</v>
       </c>
       <c r="K297" t="n">
-        <v>2.857142857142857</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L297" t="n">
         <v>654.4</v>
@@ -15426,7 +15448,7 @@
         <v>1028</v>
       </c>
       <c r="K298" t="n">
-        <v>-3.571428571428571</v>
+        <v>-26.02739726027397</v>
       </c>
       <c r="L298" t="n">
         <v>652.2</v>
@@ -15477,7 +15499,7 @@
         <v>1030</v>
       </c>
       <c r="K299" t="n">
-        <v>-8.108108108108109</v>
+        <v>-35.2112676056338</v>
       </c>
       <c r="L299" t="n">
         <v>650.1</v>
@@ -15528,7 +15550,7 @@
         <v>1038</v>
       </c>
       <c r="K300" t="n">
-        <v>-12.06896551724138</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L300" t="n">
         <v>646.8</v>
@@ -15579,7 +15601,7 @@
         <v>1048</v>
       </c>
       <c r="K301" t="n">
-        <v>0.8264462809917356</v>
+        <v>3.125</v>
       </c>
       <c r="L301" t="n">
         <v>644.9</v>
@@ -15630,7 +15652,7 @@
         <v>1048</v>
       </c>
       <c r="K302" t="n">
-        <v>-6.194690265486726</v>
+        <v>-47.61904761904761</v>
       </c>
       <c r="L302" t="n">
         <v>645.1</v>
@@ -15681,7 +15703,7 @@
         <v>1051</v>
       </c>
       <c r="K303" t="n">
-        <v>-8.620689655172415</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L303" t="n">
         <v>642.8</v>
@@ -15732,7 +15754,7 @@
         <v>1056</v>
       </c>
       <c r="K304" t="n">
-        <v>-23.63636363636364</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L304" t="n">
         <v>640.9</v>
@@ -15783,7 +15805,7 @@
         <v>1056</v>
       </c>
       <c r="K305" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L305" t="n">
         <v>639.2</v>
@@ -15834,7 +15856,7 @@
         <v>1057</v>
       </c>
       <c r="K306" t="n">
-        <v>-22.93577981651376</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L306" t="n">
         <v>637.9</v>
@@ -15885,7 +15907,7 @@
         <v>1057</v>
       </c>
       <c r="K307" t="n">
-        <v>-22.93577981651376</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L307" t="n">
         <v>636.5</v>
@@ -15936,7 +15958,7 @@
         <v>1066</v>
       </c>
       <c r="K308" t="n">
-        <v>-17.5438596491228</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L308" t="n">
         <v>636.7</v>
@@ -15987,7 +16009,7 @@
         <v>1067</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.28571428571428</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="L309" t="n">
         <v>637.2</v>
@@ -16038,7 +16060,7 @@
         <v>1067</v>
       </c>
       <c r="K310" t="n">
-        <v>-18.51851851851852</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L310" t="n">
         <v>638.5</v>
@@ -16089,7 +16111,7 @@
         <v>1077</v>
       </c>
       <c r="K311" t="n">
-        <v>-22.80701754385965</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L311" t="n">
         <v>637.8</v>
@@ -16140,7 +16162,7 @@
         <v>1079</v>
       </c>
       <c r="K312" t="n">
-        <v>-3.157894736842105</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L312" t="n">
         <v>637.3</v>
@@ -16191,7 +16213,7 @@
         <v>1081</v>
       </c>
       <c r="K313" t="n">
-        <v>-36</v>
+        <v>4</v>
       </c>
       <c r="L313" t="n">
         <v>636.9</v>
@@ -16242,7 +16264,7 @@
         <v>1081</v>
       </c>
       <c r="K314" t="n">
-        <v>-27.27272727272727</v>
+        <v>4</v>
       </c>
       <c r="L314" t="n">
         <v>637</v>
@@ -16293,7 +16315,7 @@
         <v>1081</v>
       </c>
       <c r="K315" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>637.1</v>
@@ -16344,7 +16366,7 @@
         <v>1082</v>
       </c>
       <c r="K316" t="n">
-        <v>-22.58064516129032</v>
+        <v>-4</v>
       </c>
       <c r="L316" t="n">
         <v>637</v>
@@ -16395,7 +16417,7 @@
         <v>1082</v>
       </c>
       <c r="K317" t="n">
-        <v>-24.59016393442623</v>
+        <v>-62.5</v>
       </c>
       <c r="L317" t="n">
         <v>636.9</v>
@@ -16446,7 +16468,7 @@
         <v>1083</v>
       </c>
       <c r="K318" t="n">
-        <v>-16.36363636363636</v>
+        <v>-75</v>
       </c>
       <c r="L318" t="n">
         <v>635.8</v>
@@ -16497,7 +16519,7 @@
         <v>1088</v>
       </c>
       <c r="K319" t="n">
-        <v>-20.68965517241379</v>
+        <v>-80.95238095238095</v>
       </c>
       <c r="L319" t="n">
         <v>634.1</v>
@@ -16548,7 +16570,7 @@
         <v>1095</v>
       </c>
       <c r="K320" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>633.1</v>
@@ -16599,7 +16621,7 @@
         <v>1098</v>
       </c>
       <c r="K321" t="n">
-        <v>-20</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L321" t="n">
         <v>632.8</v>
@@ -16650,7 +16672,7 @@
         <v>1100</v>
       </c>
       <c r="K322" t="n">
-        <v>-15.38461538461539</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L322" t="n">
         <v>632.5</v>
@@ -16701,7 +16723,7 @@
         <v>1101</v>
       </c>
       <c r="K323" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>632.5</v>
@@ -16752,7 +16774,7 @@
         <v>1107</v>
       </c>
       <c r="K324" t="n">
-        <v>13.72549019607843</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L324" t="n">
         <v>633.1</v>
@@ -16803,7 +16825,7 @@
         <v>1109</v>
       </c>
       <c r="K325" t="n">
-        <v>9.433962264150944</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L325" t="n">
         <v>633.5</v>
@@ -16854,7 +16876,7 @@
         <v>1109</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307693</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L326" t="n">
         <v>634</v>
@@ -16905,7 +16927,7 @@
         <v>1110</v>
       </c>
       <c r="K327" t="n">
-        <v>9.433962264150944</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L327" t="n">
         <v>634.6</v>
@@ -16956,7 +16978,7 @@
         <v>1110</v>
       </c>
       <c r="K328" t="n">
-        <v>-9.090909090909092</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L328" t="n">
         <v>635.3</v>
@@ -17007,7 +17029,7 @@
         <v>1111</v>
       </c>
       <c r="K329" t="n">
-        <v>-13.63636363636363</v>
+        <v>25</v>
       </c>
       <c r="L329" t="n">
         <v>636.4</v>
@@ -17058,7 +17080,7 @@
         <v>1112</v>
       </c>
       <c r="K330" t="n">
-        <v>-15.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L330" t="n">
         <v>636.7</v>
@@ -17109,7 +17131,7 @@
         <v>1121</v>
       </c>
       <c r="K331" t="n">
-        <v>-13.63636363636363</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L331" t="n">
         <v>636.4</v>
@@ -17160,7 +17182,7 @@
         <v>1123</v>
       </c>
       <c r="K332" t="n">
-        <v>-13.63636363636363</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L332" t="n">
         <v>636.1</v>
@@ -17211,7 +17233,7 @@
         <v>1128</v>
       </c>
       <c r="K333" t="n">
-        <v>2.127659574468085</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L333" t="n">
         <v>636.2</v>
@@ -17262,7 +17284,7 @@
         <v>1129</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>635.6</v>
@@ -17313,7 +17335,7 @@
         <v>1130</v>
       </c>
       <c r="K335" t="n">
-        <v>2.040816326530612</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L335" t="n">
         <v>635.3</v>
@@ -17364,7 +17386,7 @@
         <v>1132</v>
       </c>
       <c r="K336" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L336" t="n">
         <v>635.2</v>
@@ -17415,7 +17437,7 @@
         <v>1132</v>
       </c>
       <c r="K337" t="n">
-        <v>8</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L337" t="n">
         <v>635</v>
@@ -17466,7 +17488,7 @@
         <v>1133</v>
       </c>
       <c r="K338" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>634.9</v>
@@ -17517,7 +17539,7 @@
         <v>1135</v>
       </c>
       <c r="K339" t="n">
-        <v>27.65957446808511</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L339" t="n">
         <v>635.1</v>
@@ -17568,7 +17590,7 @@
         <v>1140</v>
       </c>
       <c r="K340" t="n">
-        <v>2.222222222222222</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L340" t="n">
         <v>634.9</v>
@@ -17619,7 +17641,7 @@
         <v>1146</v>
       </c>
       <c r="K341" t="n">
-        <v>20.83333333333334</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L341" t="n">
         <v>636.2</v>
@@ -17670,7 +17692,7 @@
         <v>1146</v>
       </c>
       <c r="K342" t="n">
-        <v>17.39130434782609</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>637.3</v>
@@ -17721,7 +17743,7 @@
         <v>1148</v>
       </c>
       <c r="K343" t="n">
-        <v>19.14893617021277</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L343" t="n">
         <v>638.1</v>
@@ -17772,7 +17794,7 @@
         <v>1150</v>
       </c>
       <c r="K344" t="n">
-        <v>11.62790697674419</v>
+        <v>50</v>
       </c>
       <c r="L344" t="n">
         <v>639.2</v>
@@ -17823,7 +17845,7 @@
         <v>1159</v>
       </c>
       <c r="K345" t="n">
-        <v>-4</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L345" t="n">
         <v>639.3</v>
@@ -17874,7 +17896,7 @@
         <v>1167</v>
       </c>
       <c r="K346" t="n">
-        <v>10.3448275862069</v>
+        <v>20</v>
       </c>
       <c r="L346" t="n">
         <v>640</v>
@@ -17925,7 +17947,7 @@
         <v>1168</v>
       </c>
       <c r="K347" t="n">
-        <v>6.896551724137931</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L347" t="n">
         <v>640.6</v>
@@ -17976,7 +17998,7 @@
         <v>1170</v>
       </c>
       <c r="K348" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L348" t="n">
         <v>641.3</v>
@@ -18027,7 +18049,7 @@
         <v>1170</v>
       </c>
       <c r="K349" t="n">
-        <v>11.86440677966102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>641.8</v>
@@ -18078,7 +18100,7 @@
         <v>1177</v>
       </c>
       <c r="K350" t="n">
-        <v>1.538461538461539</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L350" t="n">
         <v>642.1</v>
@@ -18129,7 +18151,7 @@
         <v>1182</v>
       </c>
       <c r="K351" t="n">
-        <v>24.59016393442623</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L351" t="n">
         <v>642.3</v>
@@ -18180,7 +18202,7 @@
         <v>1185</v>
       </c>
       <c r="K352" t="n">
-        <v>16.12903225806452</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L352" t="n">
         <v>642.2</v>
@@ -18231,7 +18253,7 @@
         <v>1190</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L353" t="n">
         <v>641.4</v>
@@ -18282,7 +18304,7 @@
         <v>1190</v>
       </c>
       <c r="K354" t="n">
-        <v>1.639344262295082</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L354" t="n">
         <v>640.4</v>
@@ -18333,7 +18355,7 @@
         <v>1193</v>
       </c>
       <c r="K355" t="n">
-        <v>4.761904761904762</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L355" t="n">
         <v>640.6</v>
@@ -18384,7 +18406,7 @@
         <v>1197</v>
       </c>
       <c r="K356" t="n">
-        <v>-4.615384615384616</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L356" t="n">
         <v>639.6</v>
@@ -18435,7 +18457,7 @@
         <v>1201</v>
       </c>
       <c r="K357" t="n">
-        <v>1.449275362318841</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L357" t="n">
         <v>639.1</v>
@@ -18486,7 +18508,7 @@
         <v>1201</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L358" t="n">
         <v>638.4</v>
@@ -18537,7 +18559,7 @@
         <v>1201</v>
       </c>
       <c r="K359" t="n">
-        <v>-3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>637.7</v>
@@ -18588,7 +18610,7 @@
         <v>1201</v>
       </c>
       <c r="K360" t="n">
-        <v>4.918032786885246</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L360" t="n">
         <v>637.7</v>
@@ -18639,7 +18661,7 @@
         <v>1206</v>
       </c>
       <c r="K361" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>636.7</v>
@@ -18690,7 +18712,7 @@
         <v>1210</v>
       </c>
       <c r="K362" t="n">
-        <v>-6.25</v>
+        <v>10</v>
       </c>
       <c r="L362" t="n">
         <v>636.4</v>
@@ -18741,7 +18763,7 @@
         <v>1210</v>
       </c>
       <c r="K363" t="n">
-        <v>-9.67741935483871</v>
+        <v>10</v>
       </c>
       <c r="L363" t="n">
         <v>636.6</v>
@@ -18792,7 +18814,7 @@
         <v>1215</v>
       </c>
       <c r="K364" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L364" t="n">
         <v>636.3</v>
@@ -18843,7 +18865,7 @@
         <v>1221</v>
       </c>
       <c r="K365" t="n">
-        <v>3.225806451612903</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L365" t="n">
         <v>636.3</v>
@@ -18894,7 +18916,7 @@
         <v>1221</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>636.7</v>
@@ -18945,7 +18967,7 @@
         <v>1226</v>
       </c>
       <c r="K367" t="n">
-        <v>-17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L367" t="n">
         <v>636.2</v>
@@ -18996,7 +19018,7 @@
         <v>1227</v>
       </c>
       <c r="K368" t="n">
-        <v>-22.80701754385965</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L368" t="n">
         <v>635.6</v>
@@ -19047,7 +19069,7 @@
         <v>1228</v>
       </c>
       <c r="K369" t="n">
-        <v>-24.13793103448276</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L369" t="n">
         <v>634.9</v>
@@ -19098,7 +19120,7 @@
         <v>1232</v>
       </c>
       <c r="K370" t="n">
-        <v>-5.454545454545454</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L370" t="n">
         <v>634.6</v>
@@ -19149,7 +19171,7 @@
         <v>1232</v>
       </c>
       <c r="K371" t="n">
-        <v>-16</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L371" t="n">
         <v>634.8</v>
@@ -19200,7 +19222,7 @@
         <v>1233</v>
       </c>
       <c r="K372" t="n">
-        <v>-12.5</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L372" t="n">
         <v>634.5</v>
@@ -19251,7 +19273,7 @@
         <v>1236</v>
       </c>
       <c r="K373" t="n">
-        <v>-8.695652173913043</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L373" t="n">
         <v>633.9</v>
@@ -19302,7 +19324,7 @@
         <v>1240</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L374" t="n">
         <v>634.2</v>
@@ -19353,7 +19375,7 @@
         <v>1246</v>
       </c>
       <c r="K375" t="n">
-        <v>-16.9811320754717</v>
+        <v>-36</v>
       </c>
       <c r="L375" t="n">
         <v>633.3</v>
@@ -19404,7 +19426,7 @@
         <v>1250</v>
       </c>
       <c r="K376" t="n">
-        <v>-1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>632.8</v>
@@ -19455,7 +19477,7 @@
         <v>1251</v>
       </c>
       <c r="K377" t="n">
-        <v>-8</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L377" t="n">
         <v>632.9</v>
@@ -19506,7 +19528,7 @@
         <v>1256</v>
       </c>
       <c r="K378" t="n">
-        <v>-16.36363636363636</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L378" t="n">
         <v>632.6</v>
@@ -19557,7 +19579,7 @@
         <v>1257</v>
       </c>
       <c r="K379" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L379" t="n">
         <v>632.5</v>
@@ -19608,7 +19630,7 @@
         <v>1262</v>
       </c>
       <c r="K380" t="n">
-        <v>-4.918032786885246</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>632.5</v>
@@ -19659,7 +19681,7 @@
         <v>1263</v>
       </c>
       <c r="K381" t="n">
-        <v>1.754385964912281</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>632.4</v>
@@ -19710,7 +19732,7 @@
         <v>1268</v>
       </c>
       <c r="K382" t="n">
-        <v>-13.79310344827586</v>
+        <v>-6.25</v>
       </c>
       <c r="L382" t="n">
         <v>631.9</v>
@@ -19761,7 +19783,7 @@
         <v>1268</v>
       </c>
       <c r="K383" t="n">
-        <v>-13.79310344827586</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L383" t="n">
         <v>631.7</v>
@@ -19812,7 +19834,7 @@
         <v>1268</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.660377358490567</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>631.1</v>
@@ -19863,7 +19885,7 @@
         <v>1273</v>
       </c>
       <c r="K385" t="n">
-        <v>-7.692307692307693</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L385" t="n">
         <v>631.6</v>
@@ -19914,7 +19936,7 @@
         <v>1275</v>
       </c>
       <c r="K386" t="n">
-        <v>-11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L386" t="n">
         <v>631.5</v>
@@ -19965,7 +19987,7 @@
         <v>1279</v>
       </c>
       <c r="K387" t="n">
-        <v>-9.433962264150944</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L387" t="n">
         <v>630.9</v>
@@ -20016,7 +20038,7 @@
         <v>1279</v>
       </c>
       <c r="K388" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L388" t="n">
         <v>630.8</v>
@@ -20067,7 +20089,7 @@
         <v>1287</v>
       </c>
       <c r="K389" t="n">
-        <v>-18.64406779661017</v>
+        <v>-60</v>
       </c>
       <c r="L389" t="n">
         <v>629.8</v>
@@ -20118,7 +20140,7 @@
         <v>1291</v>
       </c>
       <c r="K390" t="n">
-        <v>-18.64406779661017</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L390" t="n">
         <v>628.7</v>
@@ -20169,7 +20191,7 @@
         <v>1291</v>
       </c>
       <c r="K391" t="n">
-        <v>-18.64406779661017</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L391" t="n">
         <v>627.7</v>
@@ -20220,7 +20242,7 @@
         <v>1291</v>
       </c>
       <c r="K392" t="n">
-        <v>-17.24137931034483</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L392" t="n">
         <v>627.2</v>
@@ -20271,7 +20293,7 @@
         <v>1292</v>
       </c>
       <c r="K393" t="n">
-        <v>-10.71428571428571</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L393" t="n">
         <v>626.8</v>
@@ -20322,7 +20344,7 @@
         <v>1298</v>
       </c>
       <c r="K394" t="n">
-        <v>-27.58620689655172</v>
+        <v>-60</v>
       </c>
       <c r="L394" t="n">
         <v>625.8</v>
@@ -20373,7 +20395,7 @@
         <v>1300</v>
       </c>
       <c r="K395" t="n">
-        <v>-14.81481481481481</v>
+        <v>-44</v>
       </c>
       <c r="L395" t="n">
         <v>624.5</v>
@@ -20424,7 +20446,7 @@
         <v>1303</v>
       </c>
       <c r="K396" t="n">
-        <v>-16.9811320754717</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L396" t="n">
         <v>623.7</v>
@@ -20475,7 +20497,7 @@
         <v>1306</v>
       </c>
       <c r="K397" t="n">
-        <v>-23.63636363636364</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L397" t="n">
         <v>623</v>
@@ -20526,7 +20548,7 @@
         <v>1307</v>
       </c>
       <c r="K398" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>622.2</v>
@@ -20628,7 +20650,7 @@
         <v>1311</v>
       </c>
       <c r="K400" t="n">
-        <v>-22.44897959183674</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>622.3</v>
@@ -20679,7 +20701,7 @@
         <v>1312</v>
       </c>
       <c r="K401" t="n">
-        <v>-22.44897959183674</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L401" t="n">
         <v>622.2</v>
@@ -20730,7 +20752,7 @@
         <v>1314</v>
       </c>
       <c r="K402" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>622.3</v>
@@ -20781,7 +20803,7 @@
         <v>1317</v>
       </c>
       <c r="K403" t="n">
-        <v>-2.040816326530612</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L403" t="n">
         <v>622.6</v>
@@ -20832,7 +20854,7 @@
         <v>1317</v>
       </c>
       <c r="K404" t="n">
-        <v>-2.040816326530612</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L404" t="n">
         <v>623.5</v>
@@ -20883,7 +20905,7 @@
         <v>1321</v>
       </c>
       <c r="K405" t="n">
-        <v>-20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>623.8</v>
@@ -20934,7 +20956,7 @@
         <v>1325</v>
       </c>
       <c r="K406" t="n">
-        <v>-24</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L406" t="n">
         <v>623.4</v>
@@ -20985,7 +21007,7 @@
         <v>1326</v>
       </c>
       <c r="K407" t="n">
-        <v>-14.8936170212766</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L407" t="n">
         <v>623.4</v>
@@ -21036,7 +21058,7 @@
         <v>1336</v>
       </c>
       <c r="K408" t="n">
-        <v>5.263157894736842</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L408" t="n">
         <v>624.5</v>
@@ -21087,7 +21109,7 @@
         <v>1346</v>
       </c>
       <c r="K409" t="n">
-        <v>1.694915254237288</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L409" t="n">
         <v>624.5</v>
@@ -21138,7 +21160,7 @@
         <v>1352</v>
       </c>
       <c r="K410" t="n">
-        <v>4.918032786885246</v>
+        <v>10</v>
       </c>
       <c r="L410" t="n">
         <v>624.8</v>
@@ -21189,7 +21211,7 @@
         <v>1358</v>
       </c>
       <c r="K411" t="n">
-        <v>-4.477611940298507</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L411" t="n">
         <v>624.6</v>
@@ -21240,7 +21262,7 @@
         <v>1367</v>
       </c>
       <c r="K412" t="n">
-        <v>7.894736842105263</v>
+        <v>4</v>
       </c>
       <c r="L412" t="n">
         <v>625.1</v>
@@ -21291,7 +21313,7 @@
         <v>1368</v>
       </c>
       <c r="K413" t="n">
-        <v>7.894736842105263</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L413" t="n">
         <v>625.4</v>
@@ -21342,7 +21364,7 @@
         <v>1379</v>
       </c>
       <c r="K414" t="n">
-        <v>1.234567901234568</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L414" t="n">
         <v>624.6</v>
@@ -21393,7 +21415,7 @@
         <v>1379</v>
       </c>
       <c r="K415" t="n">
-        <v>-1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>624.2</v>
@@ -21444,7 +21466,7 @@
         <v>1383</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L416" t="n">
         <v>624.6</v>
@@ -21495,7 +21517,7 @@
         <v>1383</v>
       </c>
       <c r="K417" t="n">
-        <v>3.896103896103896</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L417" t="n">
         <v>624.9</v>
@@ -21546,7 +21568,7 @@
         <v>1386</v>
       </c>
       <c r="K418" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>623.9</v>
@@ -21597,7 +21619,7 @@
         <v>1387</v>
       </c>
       <c r="K419" t="n">
-        <v>-1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L419" t="n">
         <v>623.8</v>
@@ -21648,7 +21670,7 @@
         <v>1388</v>
       </c>
       <c r="K420" t="n">
-        <v>-3.896103896103896</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>623.2</v>
@@ -21699,7 +21721,7 @@
         <v>1392</v>
       </c>
       <c r="K421" t="n">
-        <v>2.5</v>
+        <v>-20</v>
       </c>
       <c r="L421" t="n">
         <v>623.6</v>
@@ -21750,7 +21772,7 @@
         <v>1393</v>
       </c>
       <c r="K422" t="n">
-        <v>1.265822784810127</v>
+        <v>-20</v>
       </c>
       <c r="L422" t="n">
         <v>623.2</v>
@@ -21801,7 +21823,7 @@
         <v>1394</v>
       </c>
       <c r="K423" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L423" t="n">
         <v>622.6</v>
@@ -21852,7 +21874,7 @@
         <v>1394</v>
       </c>
       <c r="K424" t="n">
-        <v>-3.896103896103896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>623.1</v>
@@ -21903,7 +21925,7 @@
         <v>1398</v>
       </c>
       <c r="K425" t="n">
-        <v>6.493506493506493</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>624</v>
@@ -21954,7 +21976,7 @@
         <v>1401</v>
       </c>
       <c r="K426" t="n">
-        <v>7.894736842105263</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L426" t="n">
         <v>624.2</v>
@@ -22005,7 +22027,7 @@
         <v>1407</v>
       </c>
       <c r="K427" t="n">
-        <v>-1.234567901234568</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L427" t="n">
         <v>623.8</v>
@@ -22056,7 +22078,7 @@
         <v>1413</v>
       </c>
       <c r="K428" t="n">
-        <v>-6.493506493506493</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L428" t="n">
         <v>624.3</v>
@@ -22107,7 +22129,7 @@
         <v>1413</v>
       </c>
       <c r="K429" t="n">
-        <v>7.462686567164178</v>
+        <v>20</v>
       </c>
       <c r="L429" t="n">
         <v>624.9</v>
@@ -22158,7 +22180,7 @@
         <v>1414</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L430" t="n">
         <v>625.5</v>
@@ -22209,7 +22231,7 @@
         <v>1418</v>
       </c>
       <c r="K431" t="n">
-        <v>3.333333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L431" t="n">
         <v>625.3</v>
@@ -22260,7 +22282,7 @@
         <v>1420</v>
       </c>
       <c r="K432" t="n">
-        <v>-16.9811320754717</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L432" t="n">
         <v>624.8</v>
@@ -22311,7 +22333,7 @@
         <v>1421</v>
       </c>
       <c r="K433" t="n">
-        <v>-20.75471698113208</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L433" t="n">
         <v>624.3</v>
@@ -22362,7 +22384,7 @@
         <v>1424</v>
       </c>
       <c r="K434" t="n">
-        <v>-6.666666666666667</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L434" t="n">
         <v>623.5</v>
@@ -22413,7 +22435,7 @@
         <v>1431</v>
       </c>
       <c r="K435" t="n">
-        <v>7.692307692307693</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L435" t="n">
         <v>623</v>
@@ -22464,7 +22486,7 @@
         <v>1433</v>
       </c>
       <c r="K436" t="n">
-        <v>4</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L436" t="n">
         <v>623</v>
@@ -22515,7 +22537,7 @@
         <v>1433</v>
       </c>
       <c r="K437" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>623.6</v>
@@ -22566,7 +22588,7 @@
         <v>1434</v>
       </c>
       <c r="K438" t="n">
-        <v>12.5</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L438" t="n">
         <v>623.7</v>
@@ -22617,7 +22639,7 @@
         <v>1436</v>
       </c>
       <c r="K439" t="n">
-        <v>10.20408163265306</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L439" t="n">
         <v>623.6</v>
@@ -22668,7 +22690,7 @@
         <v>1437</v>
       </c>
       <c r="K440" t="n">
-        <v>10.20408163265306</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L440" t="n">
         <v>623.5</v>
@@ -22719,7 +22741,7 @@
         <v>1440</v>
       </c>
       <c r="K441" t="n">
-        <v>-4.166666666666666</v>
+        <v>10</v>
       </c>
       <c r="L441" t="n">
         <v>623.5</v>
@@ -22770,7 +22792,7 @@
         <v>1443</v>
       </c>
       <c r="K442" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L442" t="n">
         <v>624</v>
@@ -22821,7 +22843,7 @@
         <v>1445</v>
       </c>
       <c r="K443" t="n">
-        <v>-1.96078431372549</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L443" t="n">
         <v>624.4</v>
@@ -22872,7 +22894,7 @@
         <v>1446</v>
       </c>
       <c r="K444" t="n">
-        <v>-3.846153846153846</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L444" t="n">
         <v>625</v>
@@ -22923,7 +22945,7 @@
         <v>1448</v>
       </c>
       <c r="K445" t="n">
-        <v>-8</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L445" t="n">
         <v>625.1</v>
@@ -22974,7 +22996,7 @@
         <v>1448</v>
       </c>
       <c r="K446" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L446" t="n">
         <v>625</v>
@@ -23025,7 +23047,7 @@
         <v>1449</v>
       </c>
       <c r="K447" t="n">
-        <v>9.523809523809524</v>
+        <v>-20</v>
       </c>
       <c r="L447" t="n">
         <v>624.8</v>
@@ -23076,7 +23098,7 @@
         <v>1450</v>
       </c>
       <c r="K448" t="n">
-        <v>-8.108108108108109</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L448" t="n">
         <v>624.4</v>
@@ -23127,7 +23149,7 @@
         <v>1451</v>
       </c>
       <c r="K449" t="n">
-        <v>-10.52631578947368</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L449" t="n">
         <v>624.1</v>
@@ -23178,7 +23200,7 @@
         <v>1451</v>
       </c>
       <c r="K450" t="n">
-        <v>-13.51351351351351</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L450" t="n">
         <v>623.7</v>
@@ -23229,7 +23251,7 @@
         <v>1453</v>
       </c>
       <c r="K451" t="n">
-        <v>2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L451" t="n">
         <v>623.8</v>
@@ -23280,7 +23302,7 @@
         <v>1454</v>
       </c>
       <c r="K452" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L452" t="n">
         <v>623.7</v>
@@ -23331,7 +23353,7 @@
         <v>1455</v>
       </c>
       <c r="K453" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L453" t="n">
         <v>623.7</v>
@@ -23382,7 +23404,7 @@
         <v>1457</v>
       </c>
       <c r="K454" t="n">
-        <v>15.15151515151515</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>623.6</v>
@@ -23433,7 +23455,7 @@
         <v>1457</v>
       </c>
       <c r="K455" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>623.3</v>
@@ -23484,7 +23506,7 @@
         <v>1458</v>
       </c>
       <c r="K456" t="n">
-        <v>-12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L456" t="n">
         <v>623.1</v>
@@ -23535,7 +23557,7 @@
         <v>1460</v>
       </c>
       <c r="K457" t="n">
-        <v>-3.703703703703703</v>
+        <v>20</v>
       </c>
       <c r="L457" t="n">
         <v>623.2</v>
@@ -23586,7 +23608,7 @@
         <v>1462</v>
       </c>
       <c r="K458" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L458" t="n">
         <v>623.2</v>
@@ -23637,7 +23659,7 @@
         <v>1462</v>
       </c>
       <c r="K459" t="n">
-        <v>-7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L459" t="n">
         <v>623.3</v>
@@ -23688,7 +23710,7 @@
         <v>1463</v>
       </c>
       <c r="K460" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>623.5</v>
@@ -23739,7 +23761,7 @@
         <v>1466</v>
       </c>
       <c r="K461" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>623.2</v>
@@ -23790,7 +23812,7 @@
         <v>1468</v>
       </c>
       <c r="K462" t="n">
-        <v>-12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L462" t="n">
         <v>623</v>
@@ -23841,7 +23863,7 @@
         <v>1472</v>
       </c>
       <c r="K463" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L463" t="n">
         <v>622.5</v>
@@ -23892,7 +23914,7 @@
         <v>1474</v>
       </c>
       <c r="K464" t="n">
-        <v>-7.142857142857142</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L464" t="n">
         <v>622.4</v>
@@ -23943,7 +23965,7 @@
         <v>1474</v>
       </c>
       <c r="K465" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12.5</v>
       </c>
       <c r="L465" t="n">
         <v>622.3</v>
@@ -23994,7 +24016,7 @@
         <v>1474</v>
       </c>
       <c r="K466" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L466" t="n">
         <v>622.1</v>
@@ -24045,7 +24067,7 @@
         <v>1476</v>
       </c>
       <c r="K467" t="n">
-        <v>-18.51851851851852</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L467" t="n">
         <v>621.5</v>
@@ -24096,7 +24118,7 @@
         <v>1476</v>
       </c>
       <c r="K468" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L468" t="n">
         <v>621.1</v>
@@ -24147,7 +24169,7 @@
         <v>1479</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L469" t="n">
         <v>621</v>
@@ -24249,7 +24271,7 @@
         <v>1482</v>
       </c>
       <c r="K471" t="n">
-        <v>-10.3448275862069</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L471" t="n">
         <v>620.6</v>
@@ -24300,7 +24322,7 @@
         <v>1483</v>
       </c>
       <c r="K472" t="n">
-        <v>-10.3448275862069</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L472" t="n">
         <v>620.5</v>
@@ -24351,7 +24373,7 @@
         <v>1485</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L473" t="n">
         <v>621</v>
@@ -24402,7 +24424,7 @@
         <v>1485</v>
       </c>
       <c r="K474" t="n">
-        <v>7.142857142857142</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L474" t="n">
         <v>621.3</v>
@@ -24453,7 +24475,7 @@
         <v>1489</v>
       </c>
       <c r="K475" t="n">
-        <v>-6.25</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L475" t="n">
         <v>621.2</v>
@@ -24504,7 +24526,7 @@
         <v>1490</v>
       </c>
       <c r="K476" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>621</v>
@@ -24555,7 +24577,7 @@
         <v>1491</v>
       </c>
       <c r="K477" t="n">
-        <v>-16.12903225806452</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L477" t="n">
         <v>621.1</v>
@@ -24606,7 +24628,7 @@
         <v>1492</v>
       </c>
       <c r="K478" t="n">
-        <v>-13.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L478" t="n">
         <v>621.1</v>
@@ -24657,7 +24679,7 @@
         <v>1493</v>
       </c>
       <c r="K479" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>620.9</v>
@@ -24708,7 +24730,7 @@
         <v>1495</v>
       </c>
       <c r="K480" t="n">
-        <v>-18.75</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L480" t="n">
         <v>620.7</v>
@@ -24759,7 +24781,7 @@
         <v>1497</v>
       </c>
       <c r="K481" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L481" t="n">
         <v>620.2</v>
@@ -24810,7 +24832,7 @@
         <v>1503</v>
       </c>
       <c r="K482" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L482" t="n">
         <v>620.2</v>
@@ -24861,7 +24883,7 @@
         <v>1508</v>
       </c>
       <c r="K483" t="n">
-        <v>-5.555555555555555</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L483" t="n">
         <v>619.5</v>
@@ -24912,7 +24934,7 @@
         <v>1511</v>
       </c>
       <c r="K484" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L484" t="n">
         <v>619.1</v>
@@ -24963,7 +24985,7 @@
         <v>1511</v>
       </c>
       <c r="K485" t="n">
-        <v>-2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L485" t="n">
         <v>619.1</v>
@@ -25014,7 +25036,7 @@
         <v>1512</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L486" t="n">
         <v>619.3</v>
@@ -25065,7 +25087,7 @@
         <v>1513</v>
       </c>
       <c r="K487" t="n">
-        <v>2.702702702702703</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L487" t="n">
         <v>619.3</v>
@@ -25116,7 +25138,7 @@
         <v>1513</v>
       </c>
       <c r="K488" t="n">
-        <v>2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>619.4</v>
@@ -25167,7 +25189,7 @@
         <v>1515</v>
       </c>
       <c r="K489" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>619.2</v>
@@ -25218,7 +25240,7 @@
         <v>1516</v>
       </c>
       <c r="K490" t="n">
-        <v>-2.857142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L490" t="n">
         <v>619.3</v>
@@ -25269,7 +25291,7 @@
         <v>1517</v>
       </c>
       <c r="K491" t="n">
-        <v>-8.571428571428571</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L491" t="n">
         <v>619.5</v>
@@ -25320,7 +25342,7 @@
         <v>1520</v>
       </c>
       <c r="K492" t="n">
-        <v>-2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L492" t="n">
         <v>619.4</v>
@@ -25371,7 +25393,7 @@
         <v>1523</v>
       </c>
       <c r="K493" t="n">
-        <v>-15.78947368421053</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L493" t="n">
         <v>619.5</v>
@@ -25422,7 +25444,7 @@
         <v>1524</v>
       </c>
       <c r="K494" t="n">
-        <v>-12.82051282051282</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L494" t="n">
         <v>619.4</v>
@@ -25473,7 +25495,7 @@
         <v>1524</v>
       </c>
       <c r="K495" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L495" t="n">
         <v>619.3</v>
@@ -25524,7 +25546,7 @@
         <v>1525</v>
       </c>
       <c r="K496" t="n">
-        <v>-2.857142857142857</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L496" t="n">
         <v>619</v>
@@ -25575,7 +25597,7 @@
         <v>1526</v>
       </c>
       <c r="K497" t="n">
-        <v>-2.857142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L497" t="n">
         <v>618.9</v>
@@ -25626,7 +25648,7 @@
         <v>1527</v>
       </c>
       <c r="K498" t="n">
-        <v>-2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>618.7</v>
@@ -25677,7 +25699,7 @@
         <v>1527</v>
       </c>
       <c r="K499" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L499" t="n">
         <v>618.7</v>
@@ -25728,7 +25750,7 @@
         <v>1530</v>
       </c>
       <c r="K500" t="n">
-        <v>8.571428571428571</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L500" t="n">
         <v>618.9</v>
@@ -25779,7 +25801,7 @@
         <v>1533</v>
       </c>
       <c r="K501" t="n">
-        <v>5.555555555555555</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L501" t="n">
         <v>618.9</v>
@@ -25830,7 +25852,7 @@
         <v>1533</v>
       </c>
       <c r="K502" t="n">
-        <v>-13.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>618.6</v>
@@ -25881,7 +25903,7 @@
         <v>1534</v>
       </c>
       <c r="K503" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L503" t="n">
         <v>618.5</v>
@@ -25932,7 +25954,7 @@
         <v>1536</v>
       </c>
       <c r="K504" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L504" t="n">
         <v>618.1</v>
@@ -25983,7 +26005,7 @@
         <v>1536</v>
       </c>
       <c r="K505" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L505" t="n">
         <v>617.7</v>
@@ -26034,7 +26056,7 @@
         <v>1542</v>
       </c>
       <c r="K506" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L506" t="n">
         <v>618</v>
@@ -26085,7 +26107,7 @@
         <v>1546</v>
       </c>
       <c r="K507" t="n">
-        <v>-9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L507" t="n">
         <v>617.8</v>
@@ -26136,7 +26158,7 @@
         <v>1551</v>
       </c>
       <c r="K508" t="n">
-        <v>-21.05263157894737</v>
+        <v>-25</v>
       </c>
       <c r="L508" t="n">
         <v>617.2</v>
@@ -26187,7 +26209,7 @@
         <v>1551</v>
       </c>
       <c r="K509" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L509" t="n">
         <v>616.6</v>
@@ -26238,7 +26260,7 @@
         <v>1555</v>
       </c>
       <c r="K510" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L510" t="n">
         <v>616.1</v>
@@ -26340,7 +26362,7 @@
         <v>1558</v>
       </c>
       <c r="K512" t="n">
-        <v>-5.263157894736842</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L512" t="n">
         <v>616.2</v>
@@ -26391,7 +26413,7 @@
         <v>1558</v>
       </c>
       <c r="K513" t="n">
-        <v>2.857142857142857</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L513" t="n">
         <v>616.4</v>
@@ -26442,7 +26464,7 @@
         <v>1559</v>
       </c>
       <c r="K514" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L514" t="n">
         <v>616.7</v>
@@ -26493,7 +26515,7 @@
         <v>1560</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L515" t="n">
         <v>617.1</v>
@@ -26544,7 +26566,7 @@
         <v>1560</v>
       </c>
       <c r="K516" t="n">
-        <v>2.857142857142857</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L516" t="n">
         <v>616.9</v>
@@ -26595,7 +26617,7 @@
         <v>1560</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L517" t="n">
         <v>617.1</v>
@@ -26646,7 +26668,7 @@
         <v>1562</v>
       </c>
       <c r="K518" t="n">
-        <v>8.571428571428571</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L518" t="n">
         <v>618</v>
@@ -26697,7 +26719,7 @@
         <v>1564</v>
       </c>
       <c r="K519" t="n">
-        <v>2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L519" t="n">
         <v>618.7</v>
@@ -26748,7 +26770,7 @@
         <v>1579</v>
       </c>
       <c r="K520" t="n">
-        <v>26.53061224489796</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L520" t="n">
         <v>620.5</v>
@@ -26799,7 +26821,7 @@
         <v>1588</v>
       </c>
       <c r="K521" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L521" t="n">
         <v>621.2</v>
@@ -26850,7 +26872,7 @@
         <v>1588</v>
       </c>
       <c r="K522" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L522" t="n">
         <v>621.8</v>
@@ -26901,7 +26923,7 @@
         <v>1589</v>
       </c>
       <c r="K523" t="n">
-        <v>12.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="L523" t="n">
         <v>622.3</v>
@@ -26952,7 +26974,7 @@
         <v>1589</v>
       </c>
       <c r="K524" t="n">
-        <v>16.9811320754717</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L524" t="n">
         <v>622.9</v>
@@ -27003,7 +27025,7 @@
         <v>1593</v>
       </c>
       <c r="K525" t="n">
-        <v>22.80701754385965</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L525" t="n">
         <v>623.8</v>
@@ -27054,7 +27076,7 @@
         <v>1595</v>
       </c>
       <c r="K526" t="n">
-        <v>9.433962264150944</v>
+        <v>20</v>
       </c>
       <c r="L526" t="n">
         <v>624.5</v>
@@ -27105,7 +27127,7 @@
         <v>1599</v>
       </c>
       <c r="K527" t="n">
-        <v>9.433962264150944</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L527" t="n">
         <v>624.8</v>
@@ -27156,7 +27178,7 @@
         <v>1606</v>
       </c>
       <c r="K528" t="n">
-        <v>30.90909090909091</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L528" t="n">
         <v>625.6</v>
@@ -27207,7 +27229,7 @@
         <v>1607</v>
       </c>
       <c r="K529" t="n">
-        <v>32.14285714285715</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L529" t="n">
         <v>626.7</v>
@@ -27258,7 +27280,7 @@
         <v>1608</v>
       </c>
       <c r="K530" t="n">
-        <v>28.30188679245283</v>
+        <v>30</v>
       </c>
       <c r="L530" t="n">
         <v>626.4</v>
@@ -27309,7 +27331,7 @@
         <v>1608</v>
       </c>
       <c r="K531" t="n">
-        <v>25.49019607843137</v>
+        <v>30</v>
       </c>
       <c r="L531" t="n">
         <v>627</v>
@@ -27360,7 +27382,7 @@
         <v>1608</v>
       </c>
       <c r="K532" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L532" t="n">
         <v>627.6</v>
@@ -27411,7 +27433,7 @@
         <v>1608</v>
       </c>
       <c r="K533" t="n">
-        <v>24</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L533" t="n">
         <v>628.3</v>
@@ -27462,7 +27484,7 @@
         <v>1608</v>
       </c>
       <c r="K534" t="n">
-        <v>26.53061224489796</v>
+        <v>20</v>
       </c>
       <c r="L534" t="n">
         <v>629</v>
@@ -27513,7 +27535,7 @@
         <v>1608</v>
       </c>
       <c r="K535" t="n">
-        <v>25</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L535" t="n">
         <v>629.3</v>
@@ -27564,7 +27586,7 @@
         <v>1608</v>
       </c>
       <c r="K536" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L536" t="n">
         <v>629.8</v>
@@ -27615,7 +27637,7 @@
         <v>1609</v>
       </c>
       <c r="K537" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L537" t="n">
         <v>630.8</v>
@@ -27666,7 +27688,7 @@
         <v>1611</v>
       </c>
       <c r="K538" t="n">
-        <v>26.53061224489796</v>
+        <v>100</v>
       </c>
       <c r="L538" t="n">
         <v>631.3</v>
@@ -27717,7 +27739,7 @@
         <v>1612</v>
       </c>
       <c r="K539" t="n">
-        <v>29.16666666666667</v>
+        <v>50</v>
       </c>
       <c r="L539" t="n">
         <v>631.6</v>
@@ -27768,7 +27790,7 @@
         <v>1613</v>
       </c>
       <c r="K540" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L540" t="n">
         <v>631.7</v>
@@ -27819,7 +27841,7 @@
         <v>1613</v>
       </c>
       <c r="K541" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L541" t="n">
         <v>631.8</v>
@@ -27870,7 +27892,7 @@
         <v>1619</v>
       </c>
       <c r="K542" t="n">
-        <v>3.225806451612903</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L542" t="n">
         <v>631.3</v>
@@ -27921,7 +27943,7 @@
         <v>1625</v>
       </c>
       <c r="K543" t="n">
-        <v>22.22222222222222</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L543" t="n">
         <v>631.4</v>
@@ -27972,7 +27994,7 @@
         <v>1631</v>
       </c>
       <c r="K544" t="n">
-        <v>4.761904761904762</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L544" t="n">
         <v>630.9</v>
@@ -28023,7 +28045,7 @@
         <v>1638</v>
       </c>
       <c r="K545" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L545" t="n">
         <v>631.1</v>
@@ -28074,7 +28096,7 @@
         <v>1645</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L546" t="n">
         <v>630.6</v>
@@ -28125,7 +28147,7 @@
         <v>1645</v>
       </c>
       <c r="K547" t="n">
-        <v>8.695652173913043</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L547" t="n">
         <v>630</v>
@@ -28176,7 +28198,7 @@
         <v>1645</v>
       </c>
       <c r="K548" t="n">
-        <v>-7.692307692307693</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L548" t="n">
         <v>629.2</v>
@@ -28227,7 +28249,7 @@
         <v>1652</v>
       </c>
       <c r="K549" t="n">
-        <v>6.666666666666667</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L549" t="n">
         <v>629.2</v>
@@ -28278,7 +28300,7 @@
         <v>1652</v>
       </c>
       <c r="K550" t="n">
-        <v>4.545454545454546</v>
+        <v>2.564102564102564</v>
       </c>
       <c r="L550" t="n">
         <v>629.3</v>
@@ -28329,7 +28351,7 @@
         <v>1655</v>
       </c>
       <c r="K551" t="n">
-        <v>-2.127659574468085</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L551" t="n">
         <v>629.1</v>
@@ -28380,7 +28402,7 @@
         <v>1657</v>
       </c>
       <c r="K552" t="n">
-        <v>-6.122448979591836</v>
+        <v>-12.5</v>
       </c>
       <c r="L552" t="n">
         <v>629.3</v>
@@ -28431,7 +28453,7 @@
         <v>1659</v>
       </c>
       <c r="K553" t="n">
-        <v>-1.96078431372549</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L553" t="n">
         <v>629.1</v>
@@ -28482,7 +28504,7 @@
         <v>1661</v>
       </c>
       <c r="K554" t="n">
-        <v>-5.660377358490567</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L554" t="n">
         <v>629.3</v>
@@ -28533,7 +28555,7 @@
         <v>1663</v>
       </c>
       <c r="K555" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>628.6</v>
@@ -28584,7 +28606,7 @@
         <v>1663</v>
       </c>
       <c r="K556" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>628.6</v>
@@ -28635,7 +28657,7 @@
         <v>1664</v>
       </c>
       <c r="K557" t="n">
-        <v>-12.72727272727273</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L557" t="n">
         <v>628.5</v>
@@ -28686,7 +28708,7 @@
         <v>1665</v>
       </c>
       <c r="K558" t="n">
-        <v>-18.51851851851852</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L558" t="n">
         <v>628.3</v>
@@ -28737,7 +28759,7 @@
         <v>1667</v>
       </c>
       <c r="K559" t="n">
-        <v>-12.72727272727273</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L559" t="n">
         <v>627.6</v>
@@ -28788,7 +28810,7 @@
         <v>1668</v>
       </c>
       <c r="K560" t="n">
-        <v>-12.72727272727273</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L560" t="n">
         <v>626.8</v>
@@ -28839,7 +28861,7 @@
         <v>1673</v>
       </c>
       <c r="K561" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L561" t="n">
         <v>625.8</v>
@@ -28890,7 +28912,7 @@
         <v>1673</v>
       </c>
       <c r="K562" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L562" t="n">
         <v>625</v>
@@ -28941,7 +28963,7 @@
         <v>1678</v>
       </c>
       <c r="K563" t="n">
-        <v>-13.20754716981132</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L563" t="n">
         <v>624.5</v>
@@ -28992,7 +29014,7 @@
         <v>1678</v>
       </c>
       <c r="K564" t="n">
-        <v>-2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L564" t="n">
         <v>624.2</v>
@@ -29043,7 +29065,7 @@
         <v>1679</v>
       </c>
       <c r="K565" t="n">
-        <v>-21.95121951219512</v>
+        <v>-12.5</v>
       </c>
       <c r="L565" t="n">
         <v>624</v>
@@ -29094,7 +29116,7 @@
         <v>1679</v>
       </c>
       <c r="K566" t="n">
-        <v>-5.88235294117647</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L566" t="n">
         <v>623.8</v>
@@ -29145,7 +29167,7 @@
         <v>1682</v>
       </c>
       <c r="K567" t="n">
-        <v>-13.51351351351351</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L567" t="n">
         <v>623.4</v>
@@ -29196,7 +29218,7 @@
         <v>1682</v>
       </c>
       <c r="K568" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L568" t="n">
         <v>623.1</v>
@@ -29247,7 +29269,7 @@
         <v>1689</v>
       </c>
       <c r="K569" t="n">
-        <v>-51.35135135135135</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L569" t="n">
         <v>621.9</v>
@@ -29298,7 +29320,7 @@
         <v>1696</v>
       </c>
       <c r="K570" t="n">
-        <v>-27.27272727272727</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L570" t="n">
         <v>621.5</v>
@@ -29349,7 +29371,7 @@
         <v>1696</v>
       </c>
       <c r="K571" t="n">
-        <v>-21.95121951219512</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L571" t="n">
         <v>621.6</v>
@@ -29400,7 +29422,7 @@
         <v>1696</v>
       </c>
       <c r="K572" t="n">
-        <v>-17.94871794871795</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L572" t="n">
         <v>621.7</v>
@@ -29502,7 +29524,7 @@
         <v>1704</v>
       </c>
       <c r="K574" t="n">
-        <v>-34.88372093023256</v>
+        <v>-44</v>
       </c>
       <c r="L574" t="n">
         <v>620</v>

--- a/BackTest/2019-10-13 BackTest PPT.xlsx
+++ b/BackTest/2019-10-13 BackTest PPT.xlsx
@@ -451,17 +451,13 @@
         <v>579.9666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>583</v>
-      </c>
-      <c r="K2" t="n">
-        <v>583</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,4424 +486,3770 @@
         <v>580.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>581</v>
+      </c>
+      <c r="C4" t="n">
+        <v>581</v>
+      </c>
+      <c r="D4" t="n">
+        <v>581</v>
+      </c>
+      <c r="E4" t="n">
+        <v>581</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>580.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>581</v>
+      </c>
+      <c r="C5" t="n">
+        <v>581</v>
+      </c>
+      <c r="D5" t="n">
+        <v>581</v>
+      </c>
+      <c r="E5" t="n">
+        <v>581</v>
+      </c>
+      <c r="F5" t="n">
+        <v>142.6339</v>
+      </c>
+      <c r="G5" t="n">
+        <v>580.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>582</v>
+      </c>
+      <c r="D6" t="n">
+        <v>582</v>
+      </c>
+      <c r="E6" t="n">
+        <v>582</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>580.3666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>582</v>
+      </c>
+      <c r="C7" t="n">
+        <v>581</v>
+      </c>
+      <c r="D7" t="n">
+        <v>582</v>
+      </c>
+      <c r="E7" t="n">
+        <v>581</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.4851</v>
+      </c>
+      <c r="G7" t="n">
+        <v>580.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>582</v>
+      </c>
+      <c r="C8" t="n">
+        <v>577</v>
+      </c>
+      <c r="D8" t="n">
+        <v>582</v>
+      </c>
+      <c r="E8" t="n">
+        <v>577</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1880.3425</v>
+      </c>
+      <c r="G8" t="n">
+        <v>580.35</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>580</v>
+      </c>
+      <c r="C9" t="n">
+        <v>579</v>
+      </c>
+      <c r="D9" t="n">
+        <v>580</v>
+      </c>
+      <c r="E9" t="n">
+        <v>579</v>
+      </c>
+      <c r="F9" t="n">
+        <v>407</v>
+      </c>
+      <c r="G9" t="n">
+        <v>580.3666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>580</v>
+      </c>
+      <c r="C10" t="n">
+        <v>578</v>
+      </c>
+      <c r="D10" t="n">
+        <v>580</v>
+      </c>
+      <c r="E10" t="n">
+        <v>578</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1973.3646</v>
+      </c>
+      <c r="G10" t="n">
+        <v>580.3166666666667</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>582</v>
+      </c>
+      <c r="C11" t="n">
+        <v>582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>582</v>
+      </c>
+      <c r="E11" t="n">
+        <v>582</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>580.3666666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>582</v>
+      </c>
+      <c r="C12" t="n">
+        <v>582</v>
+      </c>
+      <c r="D12" t="n">
+        <v>582</v>
+      </c>
+      <c r="E12" t="n">
+        <v>582</v>
+      </c>
+      <c r="F12" t="n">
+        <v>384.1975</v>
+      </c>
+      <c r="G12" t="n">
+        <v>580.4333333333333</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>582</v>
+      </c>
+      <c r="C13" t="n">
+        <v>584</v>
+      </c>
+      <c r="D13" t="n">
+        <v>584</v>
+      </c>
+      <c r="E13" t="n">
+        <v>582</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1187.1262</v>
+      </c>
+      <c r="G13" t="n">
+        <v>580.5333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>582</v>
+      </c>
+      <c r="C14" t="n">
+        <v>584</v>
+      </c>
+      <c r="D14" t="n">
+        <v>584</v>
+      </c>
+      <c r="E14" t="n">
+        <v>582</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4187.7506</v>
+      </c>
+      <c r="G14" t="n">
+        <v>580.6166666666667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>580</v>
+      </c>
+      <c r="C15" t="n">
+        <v>582</v>
+      </c>
+      <c r="D15" t="n">
+        <v>582</v>
+      </c>
+      <c r="E15" t="n">
+        <v>579</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1479.4422</v>
+      </c>
+      <c r="G15" t="n">
+        <v>580.6833333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>581</v>
+      </c>
+      <c r="C16" t="n">
+        <v>582</v>
+      </c>
+      <c r="D16" t="n">
+        <v>582</v>
+      </c>
+      <c r="E16" t="n">
+        <v>581</v>
+      </c>
+      <c r="F16" t="n">
+        <v>321</v>
+      </c>
+      <c r="G16" t="n">
+        <v>580.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>582</v>
+      </c>
+      <c r="C17" t="n">
+        <v>582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>582</v>
+      </c>
+      <c r="E17" t="n">
+        <v>582</v>
+      </c>
+      <c r="F17" t="n">
+        <v>851</v>
+      </c>
+      <c r="G17" t="n">
+        <v>580.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>581</v>
+      </c>
+      <c r="C18" t="n">
+        <v>581</v>
+      </c>
+      <c r="D18" t="n">
+        <v>581</v>
+      </c>
+      <c r="E18" t="n">
+        <v>580</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1740.6268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>580.6833333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>582</v>
+      </c>
+      <c r="C19" t="n">
+        <v>586</v>
+      </c>
+      <c r="D19" t="n">
+        <v>586</v>
+      </c>
+      <c r="E19" t="n">
+        <v>582</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1198.5453</v>
+      </c>
+      <c r="G19" t="n">
+        <v>580.9</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>586</v>
+      </c>
+      <c r="C20" t="n">
         <v>583</v>
       </c>
-      <c r="K3" t="n">
+      <c r="D20" t="n">
+        <v>586</v>
+      </c>
+      <c r="E20" t="n">
         <v>583</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="F20" t="n">
+        <v>239.2368</v>
+      </c>
+      <c r="G20" t="n">
+        <v>580.95</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>585</v>
+      </c>
+      <c r="C21" t="n">
+        <v>589</v>
+      </c>
+      <c r="D21" t="n">
+        <v>593</v>
+      </c>
+      <c r="E21" t="n">
+        <v>585</v>
+      </c>
+      <c r="F21" t="n">
+        <v>932</v>
+      </c>
+      <c r="G21" t="n">
+        <v>581.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>589</v>
+      </c>
+      <c r="C22" t="n">
+        <v>590</v>
+      </c>
+      <c r="D22" t="n">
+        <v>592</v>
+      </c>
+      <c r="E22" t="n">
+        <v>584</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2323.4142</v>
+      </c>
+      <c r="G22" t="n">
+        <v>581.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>589</v>
+      </c>
+      <c r="C23" t="n">
+        <v>589</v>
+      </c>
+      <c r="D23" t="n">
+        <v>590</v>
+      </c>
+      <c r="E23" t="n">
+        <v>589</v>
+      </c>
+      <c r="F23" t="n">
+        <v>756.1977000000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>581.35</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>589</v>
+      </c>
+      <c r="C24" t="n">
+        <v>588</v>
+      </c>
+      <c r="D24" t="n">
+        <v>589</v>
+      </c>
+      <c r="E24" t="n">
+        <v>585</v>
+      </c>
+      <c r="F24" t="n">
+        <v>944</v>
+      </c>
+      <c r="G24" t="n">
+        <v>581.4333333333333</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>587</v>
+      </c>
+      <c r="C25" t="n">
+        <v>589</v>
+      </c>
+      <c r="D25" t="n">
+        <v>589</v>
+      </c>
+      <c r="E25" t="n">
+        <v>585</v>
+      </c>
+      <c r="F25" t="n">
+        <v>543</v>
+      </c>
+      <c r="G25" t="n">
+        <v>581.5166666666667</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>589</v>
+      </c>
+      <c r="C26" t="n">
+        <v>584</v>
+      </c>
+      <c r="D26" t="n">
+        <v>591</v>
+      </c>
+      <c r="E26" t="n">
+        <v>584</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5762.1749</v>
+      </c>
+      <c r="G26" t="n">
+        <v>581.5166666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>583</v>
+      </c>
+      <c r="C27" t="n">
+        <v>589</v>
+      </c>
+      <c r="D27" t="n">
+        <v>589</v>
+      </c>
+      <c r="E27" t="n">
+        <v>583</v>
+      </c>
+      <c r="F27" t="n">
+        <v>371.9067</v>
+      </c>
+      <c r="G27" t="n">
+        <v>581.6833333333333</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>588</v>
+      </c>
+      <c r="C28" t="n">
+        <v>588</v>
+      </c>
+      <c r="D28" t="n">
+        <v>588</v>
+      </c>
+      <c r="E28" t="n">
+        <v>588</v>
+      </c>
+      <c r="F28" t="n">
+        <v>250.7379</v>
+      </c>
+      <c r="G28" t="n">
+        <v>581.8333333333334</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>588</v>
+      </c>
+      <c r="C29" t="n">
+        <v>589</v>
+      </c>
+      <c r="D29" t="n">
+        <v>589</v>
+      </c>
+      <c r="E29" t="n">
+        <v>588</v>
+      </c>
+      <c r="F29" t="n">
+        <v>463.5777</v>
+      </c>
+      <c r="G29" t="n">
+        <v>582.0166666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>585</v>
+      </c>
+      <c r="C30" t="n">
+        <v>585</v>
+      </c>
+      <c r="D30" t="n">
+        <v>585</v>
+      </c>
+      <c r="E30" t="n">
+        <v>585</v>
+      </c>
+      <c r="F30" t="n">
+        <v>210.9441</v>
+      </c>
+      <c r="G30" t="n">
+        <v>582.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>588</v>
+      </c>
+      <c r="C31" t="n">
+        <v>589</v>
+      </c>
+      <c r="D31" t="n">
+        <v>589</v>
+      </c>
+      <c r="E31" t="n">
+        <v>583</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1152.2692</v>
+      </c>
+      <c r="G31" t="n">
+        <v>582.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>588</v>
+      </c>
+      <c r="C32" t="n">
+        <v>595</v>
+      </c>
+      <c r="D32" t="n">
+        <v>595</v>
+      </c>
+      <c r="E32" t="n">
+        <v>588</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8913.4344</v>
+      </c>
+      <c r="G32" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>594</v>
+      </c>
+      <c r="C33" t="n">
+        <v>595</v>
+      </c>
+      <c r="D33" t="n">
+        <v>595</v>
+      </c>
+      <c r="E33" t="n">
+        <v>594</v>
+      </c>
+      <c r="F33" t="n">
+        <v>576.6464</v>
+      </c>
+      <c r="G33" t="n">
+        <v>582.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>596</v>
+      </c>
+      <c r="C34" t="n">
+        <v>595</v>
+      </c>
+      <c r="D34" t="n">
+        <v>599</v>
+      </c>
+      <c r="E34" t="n">
+        <v>595</v>
+      </c>
+      <c r="F34" t="n">
+        <v>736.8425999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>583</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>599</v>
+      </c>
+      <c r="C35" t="n">
+        <v>600</v>
+      </c>
+      <c r="D35" t="n">
+        <v>600</v>
+      </c>
+      <c r="E35" t="n">
+        <v>599</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1296.5535</v>
+      </c>
+      <c r="G35" t="n">
+        <v>583.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>600</v>
+      </c>
+      <c r="C36" t="n">
+        <v>602</v>
+      </c>
+      <c r="D36" t="n">
+        <v>613</v>
+      </c>
+      <c r="E36" t="n">
+        <v>600</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7731.933</v>
+      </c>
+      <c r="G36" t="n">
+        <v>583.6833333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>606</v>
+      </c>
+      <c r="C37" t="n">
+        <v>606</v>
+      </c>
+      <c r="D37" t="n">
+        <v>609</v>
+      </c>
+      <c r="E37" t="n">
+        <v>606</v>
+      </c>
+      <c r="F37" t="n">
+        <v>781.302</v>
+      </c>
+      <c r="G37" t="n">
+        <v>584.15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>606</v>
+      </c>
+      <c r="C38" t="n">
+        <v>606</v>
+      </c>
+      <c r="D38" t="n">
+        <v>606</v>
+      </c>
+      <c r="E38" t="n">
+        <v>606</v>
+      </c>
+      <c r="F38" t="n">
+        <v>53.8804</v>
+      </c>
+      <c r="G38" t="n">
+        <v>584.65</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>606</v>
+      </c>
+      <c r="C39" t="n">
+        <v>609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>609</v>
+      </c>
+      <c r="E39" t="n">
+        <v>606</v>
+      </c>
+      <c r="F39" t="n">
+        <v>736.3907</v>
+      </c>
+      <c r="G39" t="n">
+        <v>585.1166666666667</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>609</v>
+      </c>
+      <c r="C40" t="n">
+        <v>611</v>
+      </c>
+      <c r="D40" t="n">
+        <v>611</v>
+      </c>
+      <c r="E40" t="n">
+        <v>609</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3589.5962</v>
+      </c>
+      <c r="G40" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>611</v>
+      </c>
+      <c r="C41" t="n">
+        <v>608</v>
+      </c>
+      <c r="D41" t="n">
+        <v>611</v>
+      </c>
+      <c r="E41" t="n">
+        <v>608</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3927.0361</v>
+      </c>
+      <c r="G41" t="n">
+        <v>586.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>608</v>
+      </c>
+      <c r="C42" t="n">
+        <v>608</v>
+      </c>
+      <c r="D42" t="n">
+        <v>609</v>
+      </c>
+      <c r="E42" t="n">
+        <v>608</v>
+      </c>
+      <c r="F42" t="n">
+        <v>642</v>
+      </c>
+      <c r="G42" t="n">
+        <v>586.4833333333333</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>610</v>
+      </c>
+      <c r="C43" t="n">
+        <v>610</v>
+      </c>
+      <c r="D43" t="n">
+        <v>612</v>
+      </c>
+      <c r="E43" t="n">
+        <v>610</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5253.0062</v>
+      </c>
+      <c r="G43" t="n">
+        <v>586.9333333333333</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>610</v>
+      </c>
+      <c r="C44" t="n">
+        <v>612</v>
+      </c>
+      <c r="D44" t="n">
+        <v>612</v>
+      </c>
+      <c r="E44" t="n">
+        <v>610</v>
+      </c>
+      <c r="F44" t="n">
+        <v>287.7939</v>
+      </c>
+      <c r="G44" t="n">
+        <v>587.5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>612</v>
+      </c>
+      <c r="C45" t="n">
+        <v>612</v>
+      </c>
+      <c r="D45" t="n">
+        <v>612</v>
+      </c>
+      <c r="E45" t="n">
+        <v>612</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2466.8904</v>
+      </c>
+      <c r="G45" t="n">
+        <v>587.9666666666667</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>613</v>
+      </c>
+      <c r="C46" t="n">
+        <v>623</v>
+      </c>
+      <c r="D46" t="n">
+        <v>623</v>
+      </c>
+      <c r="E46" t="n">
+        <v>613</v>
+      </c>
+      <c r="F46" t="n">
+        <v>11439.1827</v>
+      </c>
+      <c r="G46" t="n">
+        <v>588.6833333333333</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>622</v>
+      </c>
+      <c r="C47" t="n">
+        <v>625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>625</v>
+      </c>
+      <c r="E47" t="n">
+        <v>622</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4803.5471</v>
+      </c>
+      <c r="G47" t="n">
+        <v>589.4</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>625</v>
+      </c>
+      <c r="C48" t="n">
+        <v>625</v>
+      </c>
+      <c r="D48" t="n">
+        <v>625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>692.8348</v>
+      </c>
+      <c r="G48" t="n">
+        <v>590.1166666666667</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>625</v>
+      </c>
+      <c r="C49" t="n">
+        <v>624</v>
+      </c>
+      <c r="D49" t="n">
+        <v>625</v>
+      </c>
+      <c r="E49" t="n">
+        <v>620</v>
+      </c>
+      <c r="F49" t="n">
+        <v>845.9808</v>
+      </c>
+      <c r="G49" t="n">
+        <v>590.8833333333333</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>620</v>
+      </c>
+      <c r="C50" t="n">
+        <v>614</v>
+      </c>
+      <c r="D50" t="n">
+        <v>620</v>
+      </c>
+      <c r="E50" t="n">
+        <v>614</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2662.7114</v>
+      </c>
+      <c r="G50" t="n">
+        <v>591.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>615</v>
+      </c>
+      <c r="C51" t="n">
+        <v>613</v>
+      </c>
+      <c r="D51" t="n">
+        <v>615</v>
+      </c>
+      <c r="E51" t="n">
+        <v>613</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1818.2463</v>
+      </c>
+      <c r="G51" t="n">
+        <v>591.8833333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>612</v>
+      </c>
+      <c r="C52" t="n">
+        <v>611</v>
+      </c>
+      <c r="D52" t="n">
+        <v>613</v>
+      </c>
+      <c r="E52" t="n">
+        <v>610</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3739.1881</v>
+      </c>
+      <c r="G52" t="n">
+        <v>592.3333333333334</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>611</v>
+      </c>
+      <c r="C53" t="n">
+        <v>617</v>
+      </c>
+      <c r="D53" t="n">
+        <v>617</v>
+      </c>
+      <c r="E53" t="n">
+        <v>611</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2184.6743</v>
+      </c>
+      <c r="G53" t="n">
+        <v>592.9166666666666</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>618</v>
+      </c>
+      <c r="C54" t="n">
+        <v>618</v>
+      </c>
+      <c r="D54" t="n">
+        <v>619</v>
+      </c>
+      <c r="E54" t="n">
+        <v>618</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2200.39491715</v>
+      </c>
+      <c r="G54" t="n">
+        <v>593.5333333333333</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>619</v>
+      </c>
+      <c r="C55" t="n">
+        <v>620</v>
+      </c>
+      <c r="D55" t="n">
+        <v>621</v>
+      </c>
+      <c r="E55" t="n">
+        <v>618</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4134.7369</v>
+      </c>
+      <c r="G55" t="n">
+        <v>594.2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>619</v>
+      </c>
+      <c r="C56" t="n">
+        <v>639</v>
+      </c>
+      <c r="D56" t="n">
+        <v>639</v>
+      </c>
+      <c r="E56" t="n">
+        <v>619</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20870.74436699</v>
+      </c>
+      <c r="G56" t="n">
+        <v>595.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>630</v>
+      </c>
+      <c r="C57" t="n">
+        <v>629</v>
+      </c>
+      <c r="D57" t="n">
+        <v>630</v>
+      </c>
+      <c r="E57" t="n">
+        <v>620</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7692.8693</v>
+      </c>
+      <c r="G57" t="n">
+        <v>595.9333333333333</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>627</v>
+      </c>
+      <c r="C58" t="n">
+        <v>625</v>
+      </c>
+      <c r="D58" t="n">
+        <v>628</v>
+      </c>
+      <c r="E58" t="n">
+        <v>625</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1234.1741</v>
+      </c>
+      <c r="G58" t="n">
+        <v>596.7666666666667</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>625</v>
+      </c>
+      <c r="C59" t="n">
+        <v>620</v>
+      </c>
+      <c r="D59" t="n">
+        <v>625</v>
+      </c>
+      <c r="E59" t="n">
+        <v>620</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5783.765</v>
+      </c>
+      <c r="G59" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>621</v>
+      </c>
+      <c r="C60" t="n">
+        <v>596</v>
+      </c>
+      <c r="D60" t="n">
+        <v>621</v>
+      </c>
+      <c r="E60" t="n">
+        <v>596</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8018.9253</v>
+      </c>
+      <c r="G60" t="n">
+        <v>597.8166666666667</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>603</v>
+      </c>
+      <c r="C61" t="n">
+        <v>614</v>
+      </c>
+      <c r="D61" t="n">
+        <v>614</v>
+      </c>
+      <c r="E61" t="n">
+        <v>602</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10179.8233</v>
+      </c>
+      <c r="G61" t="n">
+        <v>598.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>614</v>
+      </c>
+      <c r="C62" t="n">
+        <v>614</v>
+      </c>
+      <c r="D62" t="n">
+        <v>617</v>
+      </c>
+      <c r="E62" t="n">
+        <v>614</v>
+      </c>
+      <c r="F62" t="n">
+        <v>16419.8501</v>
+      </c>
+      <c r="G62" t="n">
+        <v>598.9166666666666</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>615</v>
+      </c>
+      <c r="C63" t="n">
+        <v>614</v>
+      </c>
+      <c r="D63" t="n">
+        <v>615</v>
+      </c>
+      <c r="E63" t="n">
+        <v>614</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5850.0282</v>
+      </c>
+      <c r="G63" t="n">
+        <v>599.4333333333333</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>613</v>
+      </c>
+      <c r="C64" t="n">
+        <v>614</v>
+      </c>
+      <c r="D64" t="n">
+        <v>614</v>
+      </c>
+      <c r="E64" t="n">
+        <v>613</v>
+      </c>
+      <c r="F64" t="n">
+        <v>500</v>
+      </c>
+      <c r="G64" t="n">
+        <v>599.9833333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>615</v>
+      </c>
+      <c r="C65" t="n">
+        <v>615</v>
+      </c>
+      <c r="D65" t="n">
+        <v>615</v>
+      </c>
+      <c r="E65" t="n">
+        <v>615</v>
+      </c>
+      <c r="F65" t="n">
+        <v>781.2462</v>
+      </c>
+      <c r="G65" t="n">
+        <v>600.55</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>615</v>
+      </c>
+      <c r="C66" t="n">
+        <v>616</v>
+      </c>
+      <c r="D66" t="n">
+        <v>616</v>
+      </c>
+      <c r="E66" t="n">
+        <v>615</v>
+      </c>
+      <c r="F66" t="n">
+        <v>899.496</v>
+      </c>
+      <c r="G66" t="n">
+        <v>601.1166666666667</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>616</v>
+      </c>
+      <c r="C67" t="n">
+        <v>611</v>
+      </c>
+      <c r="D67" t="n">
+        <v>616</v>
+      </c>
+      <c r="E67" t="n">
+        <v>611</v>
+      </c>
+      <c r="F67" t="n">
+        <v>522.9086</v>
+      </c>
+      <c r="G67" t="n">
+        <v>601.6166666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>611</v>
+      </c>
+      <c r="C68" t="n">
+        <v>610</v>
+      </c>
+      <c r="D68" t="n">
+        <v>611</v>
+      </c>
+      <c r="E68" t="n">
+        <v>610</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>602.1666666666666</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>610</v>
+      </c>
+      <c r="C69" t="n">
+        <v>609</v>
+      </c>
+      <c r="D69" t="n">
+        <v>610</v>
+      </c>
+      <c r="E69" t="n">
+        <v>609</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2091</v>
+      </c>
+      <c r="G69" t="n">
+        <v>602.6666666666666</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>609</v>
+      </c>
+      <c r="C70" t="n">
+        <v>609</v>
+      </c>
+      <c r="D70" t="n">
+        <v>609</v>
+      </c>
+      <c r="E70" t="n">
+        <v>609</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1270.6178</v>
+      </c>
+      <c r="G70" t="n">
+        <v>603.1833333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>609</v>
+      </c>
+      <c r="C71" t="n">
+        <v>609</v>
+      </c>
+      <c r="D71" t="n">
+        <v>609</v>
+      </c>
+      <c r="E71" t="n">
+        <v>609</v>
+      </c>
+      <c r="F71" t="n">
+        <v>268.4994</v>
+      </c>
+      <c r="G71" t="n">
+        <v>603.6333333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>610</v>
+      </c>
+      <c r="C72" t="n">
+        <v>610</v>
+      </c>
+      <c r="D72" t="n">
+        <v>610</v>
+      </c>
+      <c r="E72" t="n">
+        <v>610</v>
+      </c>
+      <c r="F72" t="n">
+        <v>91.8228</v>
+      </c>
+      <c r="G72" t="n">
+        <v>604.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>610</v>
+      </c>
+      <c r="C73" t="n">
+        <v>609</v>
+      </c>
+      <c r="D73" t="n">
+        <v>610</v>
+      </c>
+      <c r="E73" t="n">
+        <v>609</v>
+      </c>
+      <c r="F73" t="n">
+        <v>906.3448</v>
+      </c>
+      <c r="G73" t="n">
+        <v>604.5166666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>609</v>
+      </c>
+      <c r="C74" t="n">
+        <v>605</v>
+      </c>
+      <c r="D74" t="n">
+        <v>610</v>
+      </c>
+      <c r="E74" t="n">
+        <v>605</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12309.1915</v>
+      </c>
+      <c r="G74" t="n">
+        <v>604.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>605</v>
+      </c>
+      <c r="C75" t="n">
+        <v>605</v>
+      </c>
+      <c r="D75" t="n">
+        <v>610</v>
+      </c>
+      <c r="E75" t="n">
+        <v>605</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2594.2436</v>
+      </c>
+      <c r="G75" t="n">
+        <v>605.25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>612</v>
+      </c>
+      <c r="C76" t="n">
+        <v>612</v>
+      </c>
+      <c r="D76" t="n">
+        <v>612</v>
+      </c>
+      <c r="E76" t="n">
+        <v>612</v>
+      </c>
+      <c r="F76" t="n">
+        <v>627.1632</v>
+      </c>
+      <c r="G76" t="n">
+        <v>605.75</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>607</v>
+      </c>
+      <c r="C77" t="n">
+        <v>607</v>
+      </c>
+      <c r="D77" t="n">
+        <v>607</v>
+      </c>
+      <c r="E77" t="n">
+        <v>607</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11.7111</v>
+      </c>
+      <c r="G77" t="n">
+        <v>606.1666666666666</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>606</v>
+      </c>
+      <c r="C78" t="n">
+        <v>610</v>
+      </c>
+      <c r="D78" t="n">
+        <v>610</v>
+      </c>
+      <c r="E78" t="n">
+        <v>605</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6590.5877</v>
+      </c>
+      <c r="G78" t="n">
+        <v>606.65</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>607</v>
+      </c>
+      <c r="C79" t="n">
+        <v>607</v>
+      </c>
+      <c r="D79" t="n">
+        <v>607</v>
+      </c>
+      <c r="E79" t="n">
+        <v>607</v>
+      </c>
+      <c r="F79" t="n">
+        <v>548.6691</v>
+      </c>
+      <c r="G79" t="n">
+        <v>607</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>609</v>
+      </c>
+      <c r="C80" t="n">
+        <v>609</v>
+      </c>
+      <c r="D80" t="n">
+        <v>609</v>
+      </c>
+      <c r="E80" t="n">
+        <v>609</v>
+      </c>
+      <c r="F80" t="n">
+        <v>250</v>
+      </c>
+      <c r="G80" t="n">
+        <v>607.4333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>610</v>
+      </c>
+      <c r="C81" t="n">
+        <v>607</v>
+      </c>
+      <c r="D81" t="n">
+        <v>610</v>
+      </c>
+      <c r="E81" t="n">
+        <v>607</v>
+      </c>
+      <c r="F81" t="n">
+        <v>263.4372</v>
+      </c>
+      <c r="G81" t="n">
+        <v>607.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>605</v>
+      </c>
+      <c r="C82" t="n">
+        <v>609</v>
+      </c>
+      <c r="D82" t="n">
+        <v>609</v>
+      </c>
+      <c r="E82" t="n">
+        <v>600</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5615.7724</v>
+      </c>
+      <c r="G82" t="n">
+        <v>608.05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>608</v>
+      </c>
+      <c r="C83" t="n">
+        <v>608</v>
+      </c>
+      <c r="D83" t="n">
+        <v>608</v>
+      </c>
+      <c r="E83" t="n">
+        <v>608</v>
+      </c>
+      <c r="F83" t="n">
+        <v>451.0246</v>
+      </c>
+      <c r="G83" t="n">
+        <v>608.3666666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>606</v>
+      </c>
+      <c r="C84" t="n">
+        <v>606</v>
+      </c>
+      <c r="D84" t="n">
+        <v>606</v>
+      </c>
+      <c r="E84" t="n">
+        <v>606</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>608.6666666666666</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>606</v>
+      </c>
+      <c r="C85" t="n">
+        <v>600</v>
+      </c>
+      <c r="D85" t="n">
+        <v>606</v>
+      </c>
+      <c r="E85" t="n">
+        <v>600</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="G85" t="n">
+        <v>608.85</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>605</v>
+      </c>
+      <c r="C86" t="n">
+        <v>605</v>
+      </c>
+      <c r="D86" t="n">
+        <v>605</v>
+      </c>
+      <c r="E86" t="n">
+        <v>605</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="G86" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>605</v>
+      </c>
+      <c r="C87" t="n">
+        <v>605</v>
+      </c>
+      <c r="D87" t="n">
+        <v>605</v>
+      </c>
+      <c r="E87" t="n">
+        <v>605</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="n">
+        <v>609.4666666666667</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>604</v>
+      </c>
+      <c r="C88" t="n">
+        <v>604</v>
+      </c>
+      <c r="D88" t="n">
+        <v>604</v>
+      </c>
+      <c r="E88" t="n">
+        <v>604</v>
+      </c>
+      <c r="F88" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>609.7333333333333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>604</v>
+      </c>
+      <c r="C89" t="n">
+        <v>600</v>
+      </c>
+      <c r="D89" t="n">
+        <v>604</v>
+      </c>
+      <c r="E89" t="n">
+        <v>599</v>
+      </c>
+      <c r="F89" t="n">
+        <v>352.6156</v>
+      </c>
+      <c r="G89" t="n">
+        <v>609.9166666666666</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>601</v>
+      </c>
+      <c r="C90" t="n">
+        <v>601</v>
+      </c>
+      <c r="D90" t="n">
+        <v>601</v>
+      </c>
+      <c r="E90" t="n">
+        <v>601</v>
+      </c>
+      <c r="F90" t="n">
+        <v>436.0927</v>
+      </c>
+      <c r="G90" t="n">
+        <v>610.1833333333333</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>601</v>
+      </c>
+      <c r="C91" t="n">
+        <v>601</v>
+      </c>
+      <c r="D91" t="n">
+        <v>601</v>
+      </c>
+      <c r="E91" t="n">
+        <v>601</v>
+      </c>
+      <c r="F91" t="n">
+        <v>310.7549</v>
+      </c>
+      <c r="G91" t="n">
+        <v>610.3833333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>605</v>
+      </c>
+      <c r="C92" t="n">
+        <v>605</v>
+      </c>
+      <c r="D92" t="n">
+        <v>605</v>
+      </c>
+      <c r="E92" t="n">
+        <v>605</v>
+      </c>
+      <c r="F92" t="n">
+        <v>114</v>
+      </c>
+      <c r="G92" t="n">
+        <v>610.55</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>605</v>
+      </c>
+      <c r="C93" t="n">
+        <v>605</v>
+      </c>
+      <c r="D93" t="n">
+        <v>605</v>
+      </c>
+      <c r="E93" t="n">
+        <v>605</v>
+      </c>
+      <c r="F93" t="n">
+        <v>85</v>
+      </c>
+      <c r="G93" t="n">
+        <v>610.7166666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>604</v>
+      </c>
+      <c r="C94" t="n">
+        <v>604</v>
+      </c>
+      <c r="D94" t="n">
+        <v>604</v>
+      </c>
+      <c r="E94" t="n">
+        <v>604</v>
+      </c>
+      <c r="F94" t="n">
+        <v>22.6464</v>
+      </c>
+      <c r="G94" t="n">
+        <v>610.8666666666667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>604</v>
+      </c>
+      <c r="C95" t="n">
+        <v>600</v>
+      </c>
+      <c r="D95" t="n">
+        <v>604</v>
+      </c>
+      <c r="E95" t="n">
+        <v>600</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2121.6464</v>
+      </c>
+      <c r="G95" t="n">
+        <v>610.8666666666667</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>603</v>
+      </c>
+      <c r="C96" t="n">
+        <v>603</v>
+      </c>
+      <c r="D96" t="n">
+        <v>603</v>
+      </c>
+      <c r="E96" t="n">
+        <v>603</v>
+      </c>
+      <c r="F96" t="n">
+        <v>304.8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>610.8833333333333</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>600</v>
+      </c>
+      <c r="C97" t="n">
+        <v>602</v>
+      </c>
+      <c r="D97" t="n">
+        <v>602</v>
+      </c>
+      <c r="E97" t="n">
+        <v>590</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3196.4247</v>
+      </c>
+      <c r="G97" t="n">
+        <v>610.8166666666667</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>600</v>
+      </c>
+      <c r="C98" t="n">
+        <v>590</v>
+      </c>
+      <c r="D98" t="n">
+        <v>600</v>
+      </c>
+      <c r="E98" t="n">
+        <v>590</v>
+      </c>
+      <c r="F98" t="n">
+        <v>558.7241</v>
+      </c>
+      <c r="G98" t="n">
+        <v>610.55</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>600</v>
+      </c>
+      <c r="C99" t="n">
+        <v>600</v>
+      </c>
+      <c r="D99" t="n">
+        <v>602</v>
+      </c>
+      <c r="E99" t="n">
+        <v>600</v>
+      </c>
+      <c r="F99" t="n">
+        <v>346.144</v>
+      </c>
+      <c r="G99" t="n">
+        <v>610.4</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>598</v>
+      </c>
+      <c r="C100" t="n">
+        <v>598</v>
+      </c>
+      <c r="D100" t="n">
+        <v>598</v>
+      </c>
+      <c r="E100" t="n">
+        <v>597</v>
+      </c>
+      <c r="F100" t="n">
+        <v>897.7381</v>
+      </c>
+      <c r="G100" t="n">
+        <v>610.1833333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>591</v>
+      </c>
+      <c r="C101" t="n">
+        <v>590</v>
+      </c>
+      <c r="D101" t="n">
+        <v>591</v>
+      </c>
+      <c r="E101" t="n">
+        <v>590</v>
+      </c>
+      <c r="F101" t="n">
+        <v>913.1299</v>
+      </c>
+      <c r="G101" t="n">
+        <v>609.8833333333333</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>591</v>
+      </c>
+      <c r="C102" t="n">
+        <v>591</v>
+      </c>
+      <c r="D102" t="n">
+        <v>591</v>
+      </c>
+      <c r="E102" t="n">
+        <v>591</v>
+      </c>
+      <c r="F102" t="n">
+        <v>369</v>
+      </c>
+      <c r="G102" t="n">
+        <v>609.6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>598</v>
+      </c>
+      <c r="C103" t="n">
+        <v>598</v>
+      </c>
+      <c r="D103" t="n">
+        <v>598</v>
+      </c>
+      <c r="E103" t="n">
+        <v>598</v>
+      </c>
+      <c r="F103" t="n">
+        <v>150</v>
+      </c>
+      <c r="G103" t="n">
+        <v>609.4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>591</v>
+      </c>
+      <c r="K103" t="n">
+        <v>591</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>598</v>
+      </c>
+      <c r="C104" t="n">
+        <v>598</v>
+      </c>
+      <c r="D104" t="n">
+        <v>598</v>
+      </c>
+      <c r="E104" t="n">
+        <v>598</v>
+      </c>
+      <c r="F104" t="n">
+        <v>219.5999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>609.1666666666666</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>598</v>
+      </c>
+      <c r="K104" t="n">
+        <v>591</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>581</v>
-      </c>
-      <c r="C4" t="n">
-        <v>581</v>
-      </c>
-      <c r="D4" t="n">
-        <v>581</v>
-      </c>
-      <c r="E4" t="n">
-        <v>581</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>580.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>581</v>
-      </c>
-      <c r="K4" t="n">
-        <v>583</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>598</v>
+      </c>
+      <c r="C105" t="n">
+        <v>598</v>
+      </c>
+      <c r="D105" t="n">
+        <v>598</v>
+      </c>
+      <c r="E105" t="n">
+        <v>598</v>
+      </c>
+      <c r="F105" t="n">
+        <v>19.557</v>
+      </c>
+      <c r="G105" t="n">
+        <v>608.9333333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>598</v>
+      </c>
+      <c r="K105" t="n">
+        <v>591</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>581</v>
-      </c>
-      <c r="C5" t="n">
-        <v>581</v>
-      </c>
-      <c r="D5" t="n">
-        <v>581</v>
-      </c>
-      <c r="E5" t="n">
-        <v>581</v>
-      </c>
-      <c r="F5" t="n">
-        <v>142.6339</v>
-      </c>
-      <c r="G5" t="n">
-        <v>580.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>581</v>
-      </c>
-      <c r="K5" t="n">
-        <v>581</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>582</v>
-      </c>
-      <c r="C6" t="n">
-        <v>582</v>
-      </c>
-      <c r="D6" t="n">
-        <v>582</v>
-      </c>
-      <c r="E6" t="n">
-        <v>582</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>580.3666666666667</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>582</v>
-      </c>
-      <c r="K6" t="n">
-        <v>581</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>598</v>
+      </c>
+      <c r="C106" t="n">
+        <v>598</v>
+      </c>
+      <c r="D106" t="n">
+        <v>598</v>
+      </c>
+      <c r="E106" t="n">
+        <v>598</v>
+      </c>
+      <c r="F106" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>608.5166666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>598</v>
+      </c>
+      <c r="K106" t="n">
+        <v>598</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>591</v>
+      </c>
+      <c r="C107" t="n">
+        <v>591</v>
+      </c>
+      <c r="D107" t="n">
+        <v>591</v>
+      </c>
+      <c r="E107" t="n">
+        <v>591</v>
+      </c>
+      <c r="F107" t="n">
+        <v>32.9219</v>
+      </c>
+      <c r="G107" t="n">
+        <v>607.95</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>598</v>
+      </c>
+      <c r="K107" t="n">
+        <v>598</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>582</v>
-      </c>
-      <c r="C7" t="n">
-        <v>581</v>
-      </c>
-      <c r="D7" t="n">
-        <v>582</v>
-      </c>
-      <c r="E7" t="n">
-        <v>581</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.4851</v>
-      </c>
-      <c r="G7" t="n">
-        <v>580.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>582</v>
-      </c>
-      <c r="K7" t="n">
-        <v>581</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>599</v>
+      </c>
+      <c r="C108" t="n">
+        <v>599</v>
+      </c>
+      <c r="D108" t="n">
+        <v>599</v>
+      </c>
+      <c r="E108" t="n">
+        <v>599</v>
+      </c>
+      <c r="F108" t="n">
+        <v>51.5381</v>
+      </c>
+      <c r="G108" t="n">
+        <v>607.5166666666667</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>598</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>599</v>
+      </c>
+      <c r="C109" t="n">
+        <v>600</v>
+      </c>
+      <c r="D109" t="n">
+        <v>600</v>
+      </c>
+      <c r="E109" t="n">
+        <v>599</v>
+      </c>
+      <c r="F109" t="n">
+        <v>540</v>
+      </c>
+      <c r="G109" t="n">
+        <v>607.1166666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>599</v>
+      </c>
+      <c r="K109" t="n">
+        <v>598</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>582</v>
-      </c>
-      <c r="C8" t="n">
-        <v>577</v>
-      </c>
-      <c r="D8" t="n">
-        <v>582</v>
-      </c>
-      <c r="E8" t="n">
-        <v>577</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1880.3425</v>
-      </c>
-      <c r="G8" t="n">
-        <v>580.35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>582</v>
-      </c>
-      <c r="K8" t="n">
-        <v>581</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>580</v>
-      </c>
-      <c r="C9" t="n">
-        <v>579</v>
-      </c>
-      <c r="D9" t="n">
-        <v>580</v>
-      </c>
-      <c r="E9" t="n">
-        <v>579</v>
-      </c>
-      <c r="F9" t="n">
-        <v>407</v>
-      </c>
-      <c r="G9" t="n">
-        <v>580.3666666666667</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>580</v>
-      </c>
-      <c r="K9" t="n">
-        <v>581</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>580</v>
-      </c>
-      <c r="C10" t="n">
-        <v>578</v>
-      </c>
-      <c r="D10" t="n">
-        <v>580</v>
-      </c>
-      <c r="E10" t="n">
-        <v>578</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1973.3646</v>
-      </c>
-      <c r="G10" t="n">
-        <v>580.3166666666667</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>580</v>
-      </c>
-      <c r="K10" t="n">
-        <v>581</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>582</v>
-      </c>
-      <c r="C11" t="n">
-        <v>582</v>
-      </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>582</v>
-      </c>
-      <c r="F11" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" t="n">
-        <v>580.3666666666667</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>582</v>
-      </c>
-      <c r="K11" t="n">
-        <v>581</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>582</v>
-      </c>
-      <c r="C12" t="n">
-        <v>582</v>
-      </c>
-      <c r="D12" t="n">
-        <v>582</v>
-      </c>
-      <c r="E12" t="n">
-        <v>582</v>
-      </c>
-      <c r="F12" t="n">
-        <v>384.1975</v>
-      </c>
-      <c r="G12" t="n">
-        <v>580.4333333333333</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>582</v>
-      </c>
-      <c r="K12" t="n">
-        <v>581</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>582</v>
-      </c>
-      <c r="C13" t="n">
-        <v>584</v>
-      </c>
-      <c r="D13" t="n">
-        <v>584</v>
-      </c>
-      <c r="E13" t="n">
-        <v>582</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1187.1262</v>
-      </c>
-      <c r="G13" t="n">
-        <v>580.5333333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>582</v>
-      </c>
-      <c r="K13" t="n">
-        <v>581</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>582</v>
-      </c>
-      <c r="C14" t="n">
-        <v>584</v>
-      </c>
-      <c r="D14" t="n">
-        <v>584</v>
-      </c>
-      <c r="E14" t="n">
-        <v>582</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4187.7506</v>
-      </c>
-      <c r="G14" t="n">
-        <v>580.6166666666667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>582</v>
-      </c>
-      <c r="K14" t="n">
-        <v>581</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>580</v>
-      </c>
-      <c r="C15" t="n">
-        <v>582</v>
-      </c>
-      <c r="D15" t="n">
-        <v>582</v>
-      </c>
-      <c r="E15" t="n">
-        <v>579</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1479.4422</v>
-      </c>
-      <c r="G15" t="n">
-        <v>580.6833333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>580</v>
-      </c>
-      <c r="K15" t="n">
-        <v>581</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>581</v>
-      </c>
-      <c r="C16" t="n">
-        <v>582</v>
-      </c>
-      <c r="D16" t="n">
-        <v>582</v>
-      </c>
-      <c r="E16" t="n">
-        <v>581</v>
-      </c>
-      <c r="F16" t="n">
-        <v>321</v>
-      </c>
-      <c r="G16" t="n">
-        <v>580.75</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>581</v>
-      </c>
-      <c r="K16" t="n">
-        <v>581</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>582</v>
-      </c>
-      <c r="C17" t="n">
-        <v>582</v>
-      </c>
-      <c r="D17" t="n">
-        <v>582</v>
-      </c>
-      <c r="E17" t="n">
-        <v>582</v>
-      </c>
-      <c r="F17" t="n">
-        <v>851</v>
-      </c>
-      <c r="G17" t="n">
-        <v>580.7</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>582</v>
-      </c>
-      <c r="K17" t="n">
-        <v>581</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>581</v>
-      </c>
-      <c r="C18" t="n">
-        <v>581</v>
-      </c>
-      <c r="D18" t="n">
-        <v>581</v>
-      </c>
-      <c r="E18" t="n">
-        <v>580</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1740.6268</v>
-      </c>
-      <c r="G18" t="n">
-        <v>580.6833333333333</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>581</v>
-      </c>
-      <c r="K18" t="n">
-        <v>581</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>582</v>
-      </c>
-      <c r="C19" t="n">
-        <v>586</v>
-      </c>
-      <c r="D19" t="n">
-        <v>586</v>
-      </c>
-      <c r="E19" t="n">
-        <v>582</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1198.5453</v>
-      </c>
-      <c r="G19" t="n">
-        <v>580.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>582</v>
-      </c>
-      <c r="K19" t="n">
-        <v>581</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>586</v>
-      </c>
-      <c r="C20" t="n">
-        <v>583</v>
-      </c>
-      <c r="D20" t="n">
-        <v>586</v>
-      </c>
-      <c r="E20" t="n">
-        <v>583</v>
-      </c>
-      <c r="F20" t="n">
-        <v>239.2368</v>
-      </c>
-      <c r="G20" t="n">
-        <v>580.95</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>586</v>
-      </c>
-      <c r="K20" t="n">
-        <v>581</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>585</v>
-      </c>
-      <c r="C21" t="n">
-        <v>589</v>
-      </c>
-      <c r="D21" t="n">
-        <v>593</v>
-      </c>
-      <c r="E21" t="n">
-        <v>585</v>
-      </c>
-      <c r="F21" t="n">
-        <v>932</v>
-      </c>
-      <c r="G21" t="n">
-        <v>581.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>585</v>
-      </c>
-      <c r="K21" t="n">
-        <v>581</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>589</v>
-      </c>
-      <c r="C22" t="n">
-        <v>590</v>
-      </c>
-      <c r="D22" t="n">
-        <v>592</v>
-      </c>
-      <c r="E22" t="n">
-        <v>584</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2323.4142</v>
-      </c>
-      <c r="G22" t="n">
-        <v>581.2666666666667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>589</v>
-      </c>
-      <c r="K22" t="n">
-        <v>581</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>589</v>
-      </c>
-      <c r="C23" t="n">
-        <v>589</v>
-      </c>
-      <c r="D23" t="n">
-        <v>590</v>
-      </c>
-      <c r="E23" t="n">
-        <v>589</v>
-      </c>
-      <c r="F23" t="n">
-        <v>756.1977000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>581.35</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>589</v>
-      </c>
-      <c r="K23" t="n">
-        <v>581</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>589</v>
-      </c>
-      <c r="C24" t="n">
-        <v>588</v>
-      </c>
-      <c r="D24" t="n">
-        <v>589</v>
-      </c>
-      <c r="E24" t="n">
-        <v>585</v>
-      </c>
-      <c r="F24" t="n">
-        <v>944</v>
-      </c>
-      <c r="G24" t="n">
-        <v>581.4333333333333</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>589</v>
-      </c>
-      <c r="K24" t="n">
-        <v>581</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>587</v>
-      </c>
-      <c r="C25" t="n">
-        <v>589</v>
-      </c>
-      <c r="D25" t="n">
-        <v>589</v>
-      </c>
-      <c r="E25" t="n">
-        <v>585</v>
-      </c>
-      <c r="F25" t="n">
-        <v>543</v>
-      </c>
-      <c r="G25" t="n">
-        <v>581.5166666666667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>587</v>
-      </c>
-      <c r="K25" t="n">
-        <v>581</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>589</v>
-      </c>
-      <c r="C26" t="n">
-        <v>584</v>
-      </c>
-      <c r="D26" t="n">
-        <v>591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>584</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5762.1749</v>
-      </c>
-      <c r="G26" t="n">
-        <v>581.5166666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>589</v>
-      </c>
-      <c r="K26" t="n">
-        <v>581</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>583</v>
-      </c>
-      <c r="C27" t="n">
-        <v>589</v>
-      </c>
-      <c r="D27" t="n">
-        <v>589</v>
-      </c>
-      <c r="E27" t="n">
-        <v>583</v>
-      </c>
-      <c r="F27" t="n">
-        <v>371.9067</v>
-      </c>
-      <c r="G27" t="n">
-        <v>581.6833333333333</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>583</v>
-      </c>
-      <c r="K27" t="n">
-        <v>581</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>588</v>
-      </c>
-      <c r="C28" t="n">
-        <v>588</v>
-      </c>
-      <c r="D28" t="n">
-        <v>588</v>
-      </c>
-      <c r="E28" t="n">
-        <v>588</v>
-      </c>
-      <c r="F28" t="n">
-        <v>250.7379</v>
-      </c>
-      <c r="G28" t="n">
-        <v>581.8333333333334</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>588</v>
-      </c>
-      <c r="K28" t="n">
-        <v>581</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>588</v>
-      </c>
-      <c r="C29" t="n">
-        <v>589</v>
-      </c>
-      <c r="D29" t="n">
-        <v>589</v>
-      </c>
-      <c r="E29" t="n">
-        <v>588</v>
-      </c>
-      <c r="F29" t="n">
-        <v>463.5777</v>
-      </c>
-      <c r="G29" t="n">
-        <v>582.0166666666667</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>588</v>
-      </c>
-      <c r="K29" t="n">
-        <v>581</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>585</v>
-      </c>
-      <c r="C30" t="n">
-        <v>585</v>
-      </c>
-      <c r="D30" t="n">
-        <v>585</v>
-      </c>
-      <c r="E30" t="n">
-        <v>585</v>
-      </c>
-      <c r="F30" t="n">
-        <v>210.9441</v>
-      </c>
-      <c r="G30" t="n">
-        <v>582.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>585</v>
-      </c>
-      <c r="K30" t="n">
-        <v>581</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>588</v>
-      </c>
-      <c r="C31" t="n">
-        <v>589</v>
-      </c>
-      <c r="D31" t="n">
-        <v>589</v>
-      </c>
-      <c r="E31" t="n">
-        <v>583</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1152.2692</v>
-      </c>
-      <c r="G31" t="n">
-        <v>582.25</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>588</v>
-      </c>
-      <c r="K31" t="n">
-        <v>581</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>588</v>
-      </c>
-      <c r="C32" t="n">
-        <v>595</v>
-      </c>
-      <c r="D32" t="n">
-        <v>595</v>
-      </c>
-      <c r="E32" t="n">
-        <v>588</v>
-      </c>
-      <c r="F32" t="n">
-        <v>8913.4344</v>
-      </c>
-      <c r="G32" t="n">
-        <v>582.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>588</v>
-      </c>
-      <c r="K32" t="n">
-        <v>581</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>594</v>
-      </c>
-      <c r="C33" t="n">
-        <v>595</v>
-      </c>
-      <c r="D33" t="n">
-        <v>595</v>
-      </c>
-      <c r="E33" t="n">
-        <v>594</v>
-      </c>
-      <c r="F33" t="n">
-        <v>576.6464</v>
-      </c>
-      <c r="G33" t="n">
-        <v>582.75</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>594</v>
-      </c>
-      <c r="K33" t="n">
-        <v>581</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>596</v>
-      </c>
-      <c r="C34" t="n">
-        <v>595</v>
-      </c>
-      <c r="D34" t="n">
-        <v>599</v>
-      </c>
-      <c r="E34" t="n">
-        <v>595</v>
-      </c>
-      <c r="F34" t="n">
-        <v>736.8425999999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>583</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>581</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>599</v>
-      </c>
-      <c r="C35" t="n">
-        <v>600</v>
-      </c>
-      <c r="D35" t="n">
-        <v>600</v>
-      </c>
-      <c r="E35" t="n">
-        <v>599</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1296.5535</v>
-      </c>
-      <c r="G35" t="n">
-        <v>583.3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>581</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>600</v>
-      </c>
-      <c r="C36" t="n">
-        <v>602</v>
-      </c>
-      <c r="D36" t="n">
-        <v>613</v>
-      </c>
-      <c r="E36" t="n">
-        <v>600</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7731.933</v>
-      </c>
-      <c r="G36" t="n">
-        <v>583.6833333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>581</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>606</v>
-      </c>
-      <c r="C37" t="n">
-        <v>606</v>
-      </c>
-      <c r="D37" t="n">
-        <v>609</v>
-      </c>
-      <c r="E37" t="n">
-        <v>606</v>
-      </c>
-      <c r="F37" t="n">
-        <v>781.302</v>
-      </c>
-      <c r="G37" t="n">
-        <v>584.15</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>581</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>606</v>
-      </c>
-      <c r="C38" t="n">
-        <v>606</v>
-      </c>
-      <c r="D38" t="n">
-        <v>606</v>
-      </c>
-      <c r="E38" t="n">
-        <v>606</v>
-      </c>
-      <c r="F38" t="n">
-        <v>53.8804</v>
-      </c>
-      <c r="G38" t="n">
-        <v>584.65</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>581</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>606</v>
-      </c>
-      <c r="C39" t="n">
-        <v>609</v>
-      </c>
-      <c r="D39" t="n">
-        <v>609</v>
-      </c>
-      <c r="E39" t="n">
-        <v>606</v>
-      </c>
-      <c r="F39" t="n">
-        <v>736.3907</v>
-      </c>
-      <c r="G39" t="n">
-        <v>585.1166666666667</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>581</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>609</v>
-      </c>
-      <c r="C40" t="n">
-        <v>611</v>
-      </c>
-      <c r="D40" t="n">
-        <v>611</v>
-      </c>
-      <c r="E40" t="n">
-        <v>609</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3589.5962</v>
-      </c>
-      <c r="G40" t="n">
-        <v>585.6</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>581</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>611</v>
-      </c>
-      <c r="C41" t="n">
-        <v>608</v>
-      </c>
-      <c r="D41" t="n">
-        <v>611</v>
-      </c>
-      <c r="E41" t="n">
-        <v>608</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3927.0361</v>
-      </c>
-      <c r="G41" t="n">
-        <v>586.05</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>581</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>608</v>
-      </c>
-      <c r="C42" t="n">
-        <v>608</v>
-      </c>
-      <c r="D42" t="n">
-        <v>609</v>
-      </c>
-      <c r="E42" t="n">
-        <v>608</v>
-      </c>
-      <c r="F42" t="n">
-        <v>642</v>
-      </c>
-      <c r="G42" t="n">
-        <v>586.4833333333333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>581</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>610</v>
-      </c>
-      <c r="C43" t="n">
-        <v>610</v>
-      </c>
-      <c r="D43" t="n">
-        <v>612</v>
-      </c>
-      <c r="E43" t="n">
-        <v>610</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5253.0062</v>
-      </c>
-      <c r="G43" t="n">
-        <v>586.9333333333333</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>581</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>610</v>
-      </c>
-      <c r="C44" t="n">
-        <v>612</v>
-      </c>
-      <c r="D44" t="n">
-        <v>612</v>
-      </c>
-      <c r="E44" t="n">
-        <v>610</v>
-      </c>
-      <c r="F44" t="n">
-        <v>287.7939</v>
-      </c>
-      <c r="G44" t="n">
-        <v>587.5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>581</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>612</v>
-      </c>
-      <c r="C45" t="n">
-        <v>612</v>
-      </c>
-      <c r="D45" t="n">
-        <v>612</v>
-      </c>
-      <c r="E45" t="n">
-        <v>612</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2466.8904</v>
-      </c>
-      <c r="G45" t="n">
-        <v>587.9666666666667</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>581</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>613</v>
-      </c>
-      <c r="C46" t="n">
-        <v>623</v>
-      </c>
-      <c r="D46" t="n">
-        <v>623</v>
-      </c>
-      <c r="E46" t="n">
-        <v>613</v>
-      </c>
-      <c r="F46" t="n">
-        <v>11439.1827</v>
-      </c>
-      <c r="G46" t="n">
-        <v>588.6833333333333</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>581</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>622</v>
-      </c>
-      <c r="C47" t="n">
-        <v>625</v>
-      </c>
-      <c r="D47" t="n">
-        <v>625</v>
-      </c>
-      <c r="E47" t="n">
-        <v>622</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4803.5471</v>
-      </c>
-      <c r="G47" t="n">
-        <v>589.4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>581</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>625</v>
-      </c>
-      <c r="C48" t="n">
-        <v>625</v>
-      </c>
-      <c r="D48" t="n">
-        <v>625</v>
-      </c>
-      <c r="E48" t="n">
-        <v>625</v>
-      </c>
-      <c r="F48" t="n">
-        <v>692.8348</v>
-      </c>
-      <c r="G48" t="n">
-        <v>590.1166666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>581</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>625</v>
-      </c>
-      <c r="C49" t="n">
-        <v>624</v>
-      </c>
-      <c r="D49" t="n">
-        <v>625</v>
-      </c>
-      <c r="E49" t="n">
-        <v>620</v>
-      </c>
-      <c r="F49" t="n">
-        <v>845.9808</v>
-      </c>
-      <c r="G49" t="n">
-        <v>590.8833333333333</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>581</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>620</v>
-      </c>
-      <c r="C50" t="n">
-        <v>614</v>
-      </c>
-      <c r="D50" t="n">
-        <v>620</v>
-      </c>
-      <c r="E50" t="n">
-        <v>614</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2662.7114</v>
-      </c>
-      <c r="G50" t="n">
-        <v>591.4</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>581</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>615</v>
-      </c>
-      <c r="C51" t="n">
-        <v>613</v>
-      </c>
-      <c r="D51" t="n">
-        <v>615</v>
-      </c>
-      <c r="E51" t="n">
-        <v>613</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1818.2463</v>
-      </c>
-      <c r="G51" t="n">
-        <v>591.8833333333333</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>581</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>612</v>
-      </c>
-      <c r="C52" t="n">
-        <v>611</v>
-      </c>
-      <c r="D52" t="n">
-        <v>613</v>
-      </c>
-      <c r="E52" t="n">
-        <v>610</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3739.1881</v>
-      </c>
-      <c r="G52" t="n">
-        <v>592.3333333333334</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>581</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>611</v>
-      </c>
-      <c r="C53" t="n">
-        <v>617</v>
-      </c>
-      <c r="D53" t="n">
-        <v>617</v>
-      </c>
-      <c r="E53" t="n">
-        <v>611</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2184.6743</v>
-      </c>
-      <c r="G53" t="n">
-        <v>592.9166666666666</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>581</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>618</v>
-      </c>
-      <c r="C54" t="n">
-        <v>618</v>
-      </c>
-      <c r="D54" t="n">
-        <v>619</v>
-      </c>
-      <c r="E54" t="n">
-        <v>618</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2200.39491715</v>
-      </c>
-      <c r="G54" t="n">
-        <v>593.5333333333333</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>581</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>619</v>
-      </c>
-      <c r="C55" t="n">
-        <v>620</v>
-      </c>
-      <c r="D55" t="n">
-        <v>621</v>
-      </c>
-      <c r="E55" t="n">
-        <v>618</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4134.7369</v>
-      </c>
-      <c r="G55" t="n">
-        <v>594.2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>581</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>619</v>
-      </c>
-      <c r="C56" t="n">
-        <v>639</v>
-      </c>
-      <c r="D56" t="n">
-        <v>639</v>
-      </c>
-      <c r="E56" t="n">
-        <v>619</v>
-      </c>
-      <c r="F56" t="n">
-        <v>20870.74436699</v>
-      </c>
-      <c r="G56" t="n">
-        <v>595.15</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>581</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>630</v>
-      </c>
-      <c r="C57" t="n">
-        <v>629</v>
-      </c>
-      <c r="D57" t="n">
-        <v>630</v>
-      </c>
-      <c r="E57" t="n">
-        <v>620</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7692.8693</v>
-      </c>
-      <c r="G57" t="n">
-        <v>595.9333333333333</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>581</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>627</v>
-      </c>
-      <c r="C58" t="n">
-        <v>625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>628</v>
-      </c>
-      <c r="E58" t="n">
-        <v>625</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1234.1741</v>
-      </c>
-      <c r="G58" t="n">
-        <v>596.7666666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>581</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>625</v>
-      </c>
-      <c r="C59" t="n">
-        <v>620</v>
-      </c>
-      <c r="D59" t="n">
-        <v>625</v>
-      </c>
-      <c r="E59" t="n">
-        <v>620</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5783.765</v>
-      </c>
-      <c r="G59" t="n">
-        <v>597.5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>581</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>621</v>
-      </c>
-      <c r="C60" t="n">
-        <v>596</v>
-      </c>
-      <c r="D60" t="n">
-        <v>621</v>
-      </c>
-      <c r="E60" t="n">
-        <v>596</v>
-      </c>
-      <c r="F60" t="n">
-        <v>8018.9253</v>
-      </c>
-      <c r="G60" t="n">
-        <v>597.8166666666667</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>581</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>603</v>
-      </c>
-      <c r="C61" t="n">
-        <v>614</v>
-      </c>
-      <c r="D61" t="n">
-        <v>614</v>
-      </c>
-      <c r="E61" t="n">
-        <v>602</v>
-      </c>
-      <c r="F61" t="n">
-        <v>10179.8233</v>
-      </c>
-      <c r="G61" t="n">
-        <v>598.4</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>581</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>614</v>
-      </c>
-      <c r="C62" t="n">
-        <v>614</v>
-      </c>
-      <c r="D62" t="n">
-        <v>617</v>
-      </c>
-      <c r="E62" t="n">
-        <v>614</v>
-      </c>
-      <c r="F62" t="n">
-        <v>16419.8501</v>
-      </c>
-      <c r="G62" t="n">
-        <v>598.9166666666666</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>581</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>615</v>
-      </c>
-      <c r="C63" t="n">
-        <v>614</v>
-      </c>
-      <c r="D63" t="n">
-        <v>615</v>
-      </c>
-      <c r="E63" t="n">
-        <v>614</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5850.0282</v>
-      </c>
-      <c r="G63" t="n">
-        <v>599.4333333333333</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>581</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>613</v>
-      </c>
-      <c r="C64" t="n">
-        <v>614</v>
-      </c>
-      <c r="D64" t="n">
-        <v>614</v>
-      </c>
-      <c r="E64" t="n">
-        <v>613</v>
-      </c>
-      <c r="F64" t="n">
-        <v>500</v>
-      </c>
-      <c r="G64" t="n">
-        <v>599.9833333333333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>581</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>615</v>
-      </c>
-      <c r="C65" t="n">
-        <v>615</v>
-      </c>
-      <c r="D65" t="n">
-        <v>615</v>
-      </c>
-      <c r="E65" t="n">
-        <v>615</v>
-      </c>
-      <c r="F65" t="n">
-        <v>781.2462</v>
-      </c>
-      <c r="G65" t="n">
-        <v>600.55</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>581</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>615</v>
-      </c>
-      <c r="C66" t="n">
-        <v>616</v>
-      </c>
-      <c r="D66" t="n">
-        <v>616</v>
-      </c>
-      <c r="E66" t="n">
-        <v>615</v>
-      </c>
-      <c r="F66" t="n">
-        <v>899.496</v>
-      </c>
-      <c r="G66" t="n">
-        <v>601.1166666666667</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>581</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>616</v>
-      </c>
-      <c r="C67" t="n">
-        <v>611</v>
-      </c>
-      <c r="D67" t="n">
-        <v>616</v>
-      </c>
-      <c r="E67" t="n">
-        <v>611</v>
-      </c>
-      <c r="F67" t="n">
-        <v>522.9086</v>
-      </c>
-      <c r="G67" t="n">
-        <v>601.6166666666667</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>581</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>611</v>
-      </c>
-      <c r="C68" t="n">
-        <v>610</v>
-      </c>
-      <c r="D68" t="n">
-        <v>611</v>
-      </c>
-      <c r="E68" t="n">
-        <v>610</v>
-      </c>
-      <c r="F68" t="n">
-        <v>100</v>
-      </c>
-      <c r="G68" t="n">
-        <v>602.1666666666666</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>581</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>610</v>
-      </c>
-      <c r="C69" t="n">
-        <v>609</v>
-      </c>
-      <c r="D69" t="n">
-        <v>610</v>
-      </c>
-      <c r="E69" t="n">
-        <v>609</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2091</v>
-      </c>
-      <c r="G69" t="n">
-        <v>602.6666666666666</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>581</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>609</v>
-      </c>
-      <c r="C70" t="n">
-        <v>609</v>
-      </c>
-      <c r="D70" t="n">
-        <v>609</v>
-      </c>
-      <c r="E70" t="n">
-        <v>609</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1270.6178</v>
-      </c>
-      <c r="G70" t="n">
-        <v>603.1833333333333</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>581</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>609</v>
-      </c>
-      <c r="C71" t="n">
-        <v>609</v>
-      </c>
-      <c r="D71" t="n">
-        <v>609</v>
-      </c>
-      <c r="E71" t="n">
-        <v>609</v>
-      </c>
-      <c r="F71" t="n">
-        <v>268.4994</v>
-      </c>
-      <c r="G71" t="n">
-        <v>603.6333333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>581</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>610</v>
-      </c>
-      <c r="C72" t="n">
-        <v>610</v>
-      </c>
-      <c r="D72" t="n">
-        <v>610</v>
-      </c>
-      <c r="E72" t="n">
-        <v>610</v>
-      </c>
-      <c r="F72" t="n">
-        <v>91.8228</v>
-      </c>
-      <c r="G72" t="n">
-        <v>604.1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>581</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>610</v>
-      </c>
-      <c r="C73" t="n">
-        <v>609</v>
-      </c>
-      <c r="D73" t="n">
-        <v>610</v>
-      </c>
-      <c r="E73" t="n">
-        <v>609</v>
-      </c>
-      <c r="F73" t="n">
-        <v>906.3448</v>
-      </c>
-      <c r="G73" t="n">
-        <v>604.5166666666667</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>581</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>609</v>
-      </c>
-      <c r="C74" t="n">
-        <v>605</v>
-      </c>
-      <c r="D74" t="n">
-        <v>610</v>
-      </c>
-      <c r="E74" t="n">
-        <v>605</v>
-      </c>
-      <c r="F74" t="n">
-        <v>12309.1915</v>
-      </c>
-      <c r="G74" t="n">
-        <v>604.8666666666667</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>581</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>605</v>
-      </c>
-      <c r="C75" t="n">
-        <v>605</v>
-      </c>
-      <c r="D75" t="n">
-        <v>610</v>
-      </c>
-      <c r="E75" t="n">
-        <v>605</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2594.2436</v>
-      </c>
-      <c r="G75" t="n">
-        <v>605.25</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>581</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>612</v>
-      </c>
-      <c r="C76" t="n">
-        <v>612</v>
-      </c>
-      <c r="D76" t="n">
-        <v>612</v>
-      </c>
-      <c r="E76" t="n">
-        <v>612</v>
-      </c>
-      <c r="F76" t="n">
-        <v>627.1632</v>
-      </c>
-      <c r="G76" t="n">
-        <v>605.75</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>581</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>607</v>
-      </c>
-      <c r="C77" t="n">
-        <v>607</v>
-      </c>
-      <c r="D77" t="n">
-        <v>607</v>
-      </c>
-      <c r="E77" t="n">
-        <v>607</v>
-      </c>
-      <c r="F77" t="n">
-        <v>11.7111</v>
-      </c>
-      <c r="G77" t="n">
-        <v>606.1666666666666</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>581</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>606</v>
-      </c>
-      <c r="C78" t="n">
-        <v>610</v>
-      </c>
-      <c r="D78" t="n">
-        <v>610</v>
-      </c>
-      <c r="E78" t="n">
-        <v>605</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6590.5877</v>
-      </c>
-      <c r="G78" t="n">
-        <v>606.65</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>581</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>607</v>
-      </c>
-      <c r="C79" t="n">
-        <v>607</v>
-      </c>
-      <c r="D79" t="n">
-        <v>607</v>
-      </c>
-      <c r="E79" t="n">
-        <v>607</v>
-      </c>
-      <c r="F79" t="n">
-        <v>548.6691</v>
-      </c>
-      <c r="G79" t="n">
-        <v>607</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>581</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>609</v>
-      </c>
-      <c r="C80" t="n">
-        <v>609</v>
-      </c>
-      <c r="D80" t="n">
-        <v>609</v>
-      </c>
-      <c r="E80" t="n">
-        <v>609</v>
-      </c>
-      <c r="F80" t="n">
-        <v>250</v>
-      </c>
-      <c r="G80" t="n">
-        <v>607.4333333333333</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>581</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>610</v>
-      </c>
-      <c r="C81" t="n">
-        <v>607</v>
-      </c>
-      <c r="D81" t="n">
-        <v>610</v>
-      </c>
-      <c r="E81" t="n">
-        <v>607</v>
-      </c>
-      <c r="F81" t="n">
-        <v>263.4372</v>
-      </c>
-      <c r="G81" t="n">
-        <v>607.7333333333333</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>581</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>605</v>
-      </c>
-      <c r="C82" t="n">
-        <v>609</v>
-      </c>
-      <c r="D82" t="n">
-        <v>609</v>
-      </c>
-      <c r="E82" t="n">
-        <v>600</v>
-      </c>
-      <c r="F82" t="n">
-        <v>5615.7724</v>
-      </c>
-      <c r="G82" t="n">
-        <v>608.05</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>581</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>608</v>
-      </c>
-      <c r="C83" t="n">
-        <v>608</v>
-      </c>
-      <c r="D83" t="n">
-        <v>608</v>
-      </c>
-      <c r="E83" t="n">
-        <v>608</v>
-      </c>
-      <c r="F83" t="n">
-        <v>451.0246</v>
-      </c>
-      <c r="G83" t="n">
-        <v>608.3666666666667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>581</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>606</v>
-      </c>
-      <c r="C84" t="n">
-        <v>606</v>
-      </c>
-      <c r="D84" t="n">
-        <v>606</v>
-      </c>
-      <c r="E84" t="n">
-        <v>606</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>608.6666666666666</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>581</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>606</v>
-      </c>
-      <c r="C85" t="n">
-        <v>600</v>
-      </c>
-      <c r="D85" t="n">
-        <v>606</v>
-      </c>
-      <c r="E85" t="n">
-        <v>600</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2.995</v>
-      </c>
-      <c r="G85" t="n">
-        <v>608.85</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>581</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>605</v>
-      </c>
-      <c r="C86" t="n">
-        <v>605</v>
-      </c>
-      <c r="D86" t="n">
-        <v>605</v>
-      </c>
-      <c r="E86" t="n">
-        <v>605</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2.149</v>
-      </c>
-      <c r="G86" t="n">
-        <v>609.2</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>581</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>605</v>
-      </c>
-      <c r="C87" t="n">
-        <v>605</v>
-      </c>
-      <c r="D87" t="n">
-        <v>605</v>
-      </c>
-      <c r="E87" t="n">
-        <v>605</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3</v>
-      </c>
-      <c r="G87" t="n">
-        <v>609.4666666666667</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>581</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>604</v>
-      </c>
-      <c r="C88" t="n">
-        <v>604</v>
-      </c>
-      <c r="D88" t="n">
-        <v>604</v>
-      </c>
-      <c r="E88" t="n">
-        <v>604</v>
-      </c>
-      <c r="F88" t="n">
-        <v>265.3</v>
-      </c>
-      <c r="G88" t="n">
-        <v>609.7333333333333</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>581</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>604</v>
-      </c>
-      <c r="C89" t="n">
-        <v>600</v>
-      </c>
-      <c r="D89" t="n">
-        <v>604</v>
-      </c>
-      <c r="E89" t="n">
-        <v>599</v>
-      </c>
-      <c r="F89" t="n">
-        <v>352.6156</v>
-      </c>
-      <c r="G89" t="n">
-        <v>609.9166666666666</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>581</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>601</v>
-      </c>
-      <c r="C90" t="n">
-        <v>601</v>
-      </c>
-      <c r="D90" t="n">
-        <v>601</v>
-      </c>
-      <c r="E90" t="n">
-        <v>601</v>
-      </c>
-      <c r="F90" t="n">
-        <v>436.0927</v>
-      </c>
-      <c r="G90" t="n">
-        <v>610.1833333333333</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>581</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>601</v>
-      </c>
-      <c r="C91" t="n">
-        <v>601</v>
-      </c>
-      <c r="D91" t="n">
-        <v>601</v>
-      </c>
-      <c r="E91" t="n">
-        <v>601</v>
-      </c>
-      <c r="F91" t="n">
-        <v>310.7549</v>
-      </c>
-      <c r="G91" t="n">
-        <v>610.3833333333333</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>581</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>605</v>
-      </c>
-      <c r="C92" t="n">
-        <v>605</v>
-      </c>
-      <c r="D92" t="n">
-        <v>605</v>
-      </c>
-      <c r="E92" t="n">
-        <v>605</v>
-      </c>
-      <c r="F92" t="n">
-        <v>114</v>
-      </c>
-      <c r="G92" t="n">
-        <v>610.55</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>581</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>605</v>
-      </c>
-      <c r="C93" t="n">
-        <v>605</v>
-      </c>
-      <c r="D93" t="n">
-        <v>605</v>
-      </c>
-      <c r="E93" t="n">
-        <v>605</v>
-      </c>
-      <c r="F93" t="n">
-        <v>85</v>
-      </c>
-      <c r="G93" t="n">
-        <v>610.7166666666667</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>581</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>604</v>
-      </c>
-      <c r="C94" t="n">
-        <v>604</v>
-      </c>
-      <c r="D94" t="n">
-        <v>604</v>
-      </c>
-      <c r="E94" t="n">
-        <v>604</v>
-      </c>
-      <c r="F94" t="n">
-        <v>22.6464</v>
-      </c>
-      <c r="G94" t="n">
-        <v>610.8666666666667</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>581</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>604</v>
-      </c>
-      <c r="C95" t="n">
-        <v>600</v>
-      </c>
-      <c r="D95" t="n">
-        <v>604</v>
-      </c>
-      <c r="E95" t="n">
-        <v>600</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2121.6464</v>
-      </c>
-      <c r="G95" t="n">
-        <v>610.8666666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>581</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>603</v>
-      </c>
-      <c r="C96" t="n">
-        <v>603</v>
-      </c>
-      <c r="D96" t="n">
-        <v>603</v>
-      </c>
-      <c r="E96" t="n">
-        <v>603</v>
-      </c>
-      <c r="F96" t="n">
-        <v>304.8</v>
-      </c>
-      <c r="G96" t="n">
-        <v>610.8833333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>581</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>600</v>
-      </c>
-      <c r="C97" t="n">
-        <v>602</v>
-      </c>
-      <c r="D97" t="n">
-        <v>602</v>
-      </c>
-      <c r="E97" t="n">
-        <v>590</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3196.4247</v>
-      </c>
-      <c r="G97" t="n">
-        <v>610.8166666666667</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>581</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>600</v>
-      </c>
-      <c r="C98" t="n">
-        <v>590</v>
-      </c>
-      <c r="D98" t="n">
-        <v>600</v>
-      </c>
-      <c r="E98" t="n">
-        <v>590</v>
-      </c>
-      <c r="F98" t="n">
-        <v>558.7241</v>
-      </c>
-      <c r="G98" t="n">
-        <v>610.55</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>581</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>600</v>
-      </c>
-      <c r="C99" t="n">
-        <v>600</v>
-      </c>
-      <c r="D99" t="n">
-        <v>602</v>
-      </c>
-      <c r="E99" t="n">
-        <v>600</v>
-      </c>
-      <c r="F99" t="n">
-        <v>346.144</v>
-      </c>
-      <c r="G99" t="n">
-        <v>610.4</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>581</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>598</v>
-      </c>
-      <c r="C100" t="n">
-        <v>598</v>
-      </c>
-      <c r="D100" t="n">
-        <v>598</v>
-      </c>
-      <c r="E100" t="n">
-        <v>597</v>
-      </c>
-      <c r="F100" t="n">
-        <v>897.7381</v>
-      </c>
-      <c r="G100" t="n">
-        <v>610.1833333333333</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>581</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>591</v>
-      </c>
-      <c r="C101" t="n">
-        <v>590</v>
-      </c>
-      <c r="D101" t="n">
-        <v>591</v>
-      </c>
-      <c r="E101" t="n">
-        <v>590</v>
-      </c>
-      <c r="F101" t="n">
-        <v>913.1299</v>
-      </c>
-      <c r="G101" t="n">
-        <v>609.8833333333333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>581</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>591</v>
-      </c>
-      <c r="C102" t="n">
-        <v>591</v>
-      </c>
-      <c r="D102" t="n">
-        <v>591</v>
-      </c>
-      <c r="E102" t="n">
-        <v>591</v>
-      </c>
-      <c r="F102" t="n">
-        <v>369</v>
-      </c>
-      <c r="G102" t="n">
-        <v>609.6</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>581</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>598</v>
-      </c>
-      <c r="C103" t="n">
-        <v>598</v>
-      </c>
-      <c r="D103" t="n">
-        <v>598</v>
-      </c>
-      <c r="E103" t="n">
-        <v>598</v>
-      </c>
-      <c r="F103" t="n">
-        <v>150</v>
-      </c>
-      <c r="G103" t="n">
-        <v>609.4</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>581</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>598</v>
-      </c>
-      <c r="C104" t="n">
-        <v>598</v>
-      </c>
-      <c r="D104" t="n">
-        <v>598</v>
-      </c>
-      <c r="E104" t="n">
-        <v>598</v>
-      </c>
-      <c r="F104" t="n">
-        <v>219.5999</v>
-      </c>
-      <c r="G104" t="n">
-        <v>609.1666666666666</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>581</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>598</v>
-      </c>
-      <c r="C105" t="n">
-        <v>598</v>
-      </c>
-      <c r="D105" t="n">
-        <v>598</v>
-      </c>
-      <c r="E105" t="n">
-        <v>598</v>
-      </c>
-      <c r="F105" t="n">
-        <v>19.557</v>
-      </c>
-      <c r="G105" t="n">
-        <v>608.9333333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>581</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>598</v>
-      </c>
-      <c r="C106" t="n">
-        <v>598</v>
-      </c>
-      <c r="D106" t="n">
-        <v>598</v>
-      </c>
-      <c r="E106" t="n">
-        <v>598</v>
-      </c>
-      <c r="F106" t="n">
-        <v>359.5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>608.5166666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>581</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>591</v>
-      </c>
-      <c r="C107" t="n">
-        <v>591</v>
-      </c>
-      <c r="D107" t="n">
-        <v>591</v>
-      </c>
-      <c r="E107" t="n">
-        <v>591</v>
-      </c>
-      <c r="F107" t="n">
-        <v>32.9219</v>
-      </c>
-      <c r="G107" t="n">
-        <v>607.95</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>581</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>599</v>
-      </c>
-      <c r="C108" t="n">
-        <v>599</v>
-      </c>
-      <c r="D108" t="n">
-        <v>599</v>
-      </c>
-      <c r="E108" t="n">
-        <v>599</v>
-      </c>
-      <c r="F108" t="n">
-        <v>51.5381</v>
-      </c>
-      <c r="G108" t="n">
-        <v>607.5166666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>581</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>599</v>
-      </c>
-      <c r="C109" t="n">
-        <v>600</v>
-      </c>
-      <c r="D109" t="n">
-        <v>600</v>
-      </c>
-      <c r="E109" t="n">
-        <v>599</v>
-      </c>
-      <c r="F109" t="n">
-        <v>540</v>
-      </c>
-      <c r="G109" t="n">
-        <v>607.1166666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>581</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4935,14 +4277,16 @@
         <v>606.8833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>600</v>
+      </c>
       <c r="K110" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4976,14 +4320,16 @@
         <v>606.6666666666666</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>600</v>
+      </c>
       <c r="K111" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5017,14 +4363,16 @@
         <v>606.4833333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>600</v>
+      </c>
       <c r="K112" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5058,14 +4406,16 @@
         <v>606.2</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>600</v>
+      </c>
       <c r="K113" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5099,14 +4449,16 @@
         <v>605.9</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>600</v>
+      </c>
       <c r="K114" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5140,14 +4492,16 @@
         <v>605.5666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>600</v>
+      </c>
       <c r="K115" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5181,14 +4535,16 @@
         <v>604.95</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>600</v>
+      </c>
       <c r="K116" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5222,14 +4578,16 @@
         <v>604.4666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>602</v>
+      </c>
       <c r="K117" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5270,7 +4628,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5311,7 +4669,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5352,7 +4710,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5393,7 +4751,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5434,7 +4792,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5475,7 +4833,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5516,7 +4874,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5557,7 +4915,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5598,7 +4956,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5639,7 +4997,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5680,7 +5038,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5721,7 +5079,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5762,7 +5120,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5803,7 +5161,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5844,7 +5202,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5885,7 +5243,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5926,7 +5284,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5967,7 +5325,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6008,7 +5366,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6049,7 +5407,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6090,7 +5448,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6131,7 +5489,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6172,7 +5530,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6213,7 +5571,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6254,7 +5612,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6295,7 +5653,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6336,7 +5694,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6377,7 +5735,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6418,7 +5776,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6459,7 +5817,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6500,7 +5858,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6541,7 +5899,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6582,7 +5940,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6623,7 +5981,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6664,7 +6022,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6705,7 +6063,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6746,7 +6104,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6787,7 +6145,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6828,7 +6186,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6869,7 +6227,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6910,7 +6268,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6951,7 +6309,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6992,7 +6350,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7026,14 +6384,16 @@
         <v>596.3666666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>594</v>
+      </c>
       <c r="K161" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7067,14 +6427,16 @@
         <v>596.4333333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>588</v>
+      </c>
       <c r="K162" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7108,14 +6470,16 @@
         <v>596.3833333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>595</v>
+      </c>
       <c r="K163" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7149,14 +6513,16 @@
         <v>596.3333333333334</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>595</v>
+      </c>
       <c r="K164" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7197,7 +6563,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7238,7 +6604,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7279,7 +6645,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7320,7 +6686,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7361,7 +6727,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7402,7 +6768,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7443,7 +6809,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7484,7 +6850,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7525,7 +6891,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7566,7 +6932,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7607,7 +6973,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7648,7 +7014,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7689,7 +7055,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7730,7 +7096,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7771,7 +7137,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7812,7 +7178,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7853,7 +7219,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7894,7 +7260,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7935,7 +7301,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7976,7 +7342,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8017,7 +7383,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8058,7 +7424,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8099,7 +7465,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8140,7 +7506,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8181,7 +7547,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8222,7 +7588,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8263,7 +7629,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8304,7 +7670,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8345,7 +7711,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8386,7 +7752,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8427,7 +7793,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8468,7 +7834,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8509,7 +7875,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8550,7 +7916,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8591,7 +7957,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8632,7 +7998,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8673,7 +8039,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8714,7 +8080,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8751,54 +8117,60 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>635</v>
+      </c>
+      <c r="C204" t="n">
+        <v>636</v>
+      </c>
+      <c r="D204" t="n">
+        <v>636</v>
+      </c>
+      <c r="E204" t="n">
+        <v>635</v>
+      </c>
+      <c r="F204" t="n">
+        <v>780.076</v>
+      </c>
+      <c r="G204" t="n">
+        <v>606.6333333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>598</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1.087943201376936</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>635</v>
-      </c>
-      <c r="C204" t="n">
-        <v>636</v>
-      </c>
-      <c r="D204" t="n">
-        <v>636</v>
-      </c>
-      <c r="E204" t="n">
-        <v>635</v>
-      </c>
-      <c r="F204" t="n">
-        <v>780.076</v>
-      </c>
-      <c r="G204" t="n">
-        <v>606.6333333333333</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
-        <v>1</v>
+        <v>1.058545150501672</v>
       </c>
     </row>
     <row r="205">
@@ -8827,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -8932,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -9037,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -9107,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
@@ -9177,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -9282,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -9317,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -9387,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -9422,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -9527,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>

--- a/BackTest/2019-10-13 BackTest PPT.xlsx
+++ b/BackTest/2019-10-13 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14718.5158</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-14718.5158</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>575</v>
-      </c>
-      <c r="J3" t="n">
-        <v>575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,17 +517,15 @@
         <v>-14718.5158</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>575</v>
+      </c>
       <c r="J4" t="n">
         <v>575</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,9 +554,11 @@
         <v>-14618.5158</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>575</v>
+      </c>
       <c r="J5" t="n">
         <v>575</v>
       </c>
@@ -599,11 +595,19 @@
         <v>-14118.5158</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>578</v>
+      </c>
+      <c r="J6" t="n">
+        <v>575</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,11 +636,19 @@
         <v>-23243.7979</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>585</v>
+      </c>
+      <c r="J7" t="n">
+        <v>575</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -665,11 +677,19 @@
         <v>-22383.9345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>574</v>
+      </c>
+      <c r="J8" t="n">
+        <v>575</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -698,11 +718,19 @@
         <v>-20491.1941</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>578</v>
+      </c>
+      <c r="J9" t="n">
+        <v>575</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,11 +759,19 @@
         <v>-20580.4117</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>581</v>
+      </c>
+      <c r="J10" t="n">
+        <v>575</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +800,19 @@
         <v>-24962.2674</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>579</v>
+      </c>
+      <c r="J11" t="n">
+        <v>575</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +841,19 @@
         <v>-24962.2674</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>578</v>
+      </c>
+      <c r="J12" t="n">
+        <v>575</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,11 +882,19 @@
         <v>-23739.04760000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>578</v>
+      </c>
+      <c r="J13" t="n">
+        <v>575</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -863,11 +923,19 @@
         <v>-25716.99690000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>579</v>
+      </c>
+      <c r="J14" t="n">
+        <v>575</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -896,15 +964,19 @@
         <v>-25716.99690000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>578</v>
       </c>
       <c r="J15" t="n">
-        <v>578</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>575</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,15 +1005,17 @@
         <v>-25121.0825</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>578</v>
+      </c>
       <c r="J16" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -972,15 +1046,17 @@
         <v>-25668.5017</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>585</v>
+      </c>
       <c r="J17" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1011,11 +1087,19 @@
         <v>-30146.72890000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>582</v>
+      </c>
+      <c r="J18" t="n">
+        <v>575</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1044,11 +1128,19 @@
         <v>-30084.88080000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>573</v>
+      </c>
+      <c r="J19" t="n">
+        <v>575</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1077,11 +1169,19 @@
         <v>-30084.88080000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>580</v>
+      </c>
+      <c r="J20" t="n">
+        <v>575</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1113,8 +1213,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>575</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1143,11 +1249,19 @@
         <v>-30083.88080000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>580</v>
+      </c>
+      <c r="J22" t="n">
+        <v>575</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1179,8 +1293,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>575</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1209,11 +1329,19 @@
         <v>-30216.33510000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>583</v>
+      </c>
+      <c r="J24" t="n">
+        <v>575</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1245,8 +1373,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>575</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1409,19 @@
         <v>-31527.32980000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>584</v>
+      </c>
+      <c r="J26" t="n">
+        <v>575</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1450,19 @@
         <v>-31527.32980000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>579</v>
+      </c>
+      <c r="J27" t="n">
+        <v>575</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1491,19 @@
         <v>-31913.66610000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>579</v>
+      </c>
+      <c r="J28" t="n">
+        <v>575</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1374,11 +1532,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>578</v>
+      </c>
+      <c r="J29" t="n">
+        <v>575</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1407,11 +1573,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>580</v>
+      </c>
+      <c r="J30" t="n">
+        <v>575</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1440,11 +1614,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
+      <c r="J31" t="n">
+        <v>575</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1473,11 +1655,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>580</v>
+      </c>
+      <c r="J32" t="n">
+        <v>575</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1509,8 +1699,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>575</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1539,11 +1735,19 @@
         <v>-31912.666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>580</v>
+      </c>
+      <c r="J34" t="n">
+        <v>575</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1575,8 +1779,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>575</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1608,8 +1818,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>575</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1641,8 +1857,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>575</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1674,8 +1896,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>575</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1707,8 +1935,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>575</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1740,8 +1974,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>575</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1773,8 +2013,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>575</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1806,8 +2052,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>575</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1839,8 +2091,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>575</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1869,11 +2127,19 @@
         <v>-32473.1997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>578</v>
+      </c>
+      <c r="J44" t="n">
+        <v>575</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1905,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>575</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +2207,19 @@
         <v>-31574.1663</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>580</v>
+      </c>
+      <c r="J46" t="n">
+        <v>575</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1971,8 +2251,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>575</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2001,15 +2287,19 @@
         <v>-31678.4152</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>582</v>
       </c>
       <c r="J48" t="n">
-        <v>582</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>575</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2038,17 +2328,15 @@
         <v>-31518.4706</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2079,17 +2367,15 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2120,15 +2406,17 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>584</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>575</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +2449,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2200,11 +2488,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2238,8 +2526,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>575</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2268,15 +2562,15 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>580</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>575</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2307,12 +2601,12 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>582</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>575</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2346,12 +2640,12 @@
         <v>-36436.21260000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>582</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>575</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,12 +2679,12 @@
         <v>-33951.98090000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>575</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>575</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,12 +2718,12 @@
         <v>-33360.05070000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>576</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>575</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2463,12 +2757,12 @@
         <v>-32426.04450000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>577</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>575</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,12 +2796,12 @@
         <v>-32425.04450000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>579</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>575</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,12 +2835,14 @@
         <v>-32425.04450000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>583</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>575</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,12 +2876,14 @@
         <v>-32426.04450000001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>583</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>575</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,12 +2917,14 @@
         <v>-32426.04450000001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>581</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>575</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2658,12 +2958,14 @@
         <v>-32425.04450000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>581</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>575</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,12 +2999,14 @@
         <v>-32445.52960000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>582</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>575</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2736,12 +3040,14 @@
         <v>-34325.87210000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>581</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>575</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,12 +3081,14 @@
         <v>-33918.87210000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>577</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>575</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,12 +3122,14 @@
         <v>-35892.23670000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>579</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>575</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,12 +3163,14 @@
         <v>-35592.23670000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>578</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>575</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,12 +3204,14 @@
         <v>-35592.23670000001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>582</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>575</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,12 +3245,14 @@
         <v>-34405.11050000001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>582</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>575</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,12 +3286,14 @@
         <v>-34405.11050000001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>584</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>575</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,12 +3327,14 @@
         <v>-35884.55270000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>584</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>575</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,12 +3368,14 @@
         <v>-35884.55270000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>582</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>575</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,12 +3409,14 @@
         <v>-35884.55270000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>582</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>575</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,12 +3450,14 @@
         <v>-37625.17950000001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>582</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>575</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3165,12 +3491,14 @@
         <v>-36426.63420000001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>581</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>575</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,12 +3532,14 @@
         <v>-36665.87100000001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>586</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>575</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,12 +3573,14 @@
         <v>-35733.87100000001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>583</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>575</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,12 +3614,12 @@
         <v>-33410.45680000001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>589</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>575</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,12 +3653,12 @@
         <v>-34166.6545</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>590</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>575</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,12 +3692,12 @@
         <v>-35110.6545</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>589</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>575</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,12 +3731,12 @@
         <v>-34567.6545</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>588</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>575</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,12 +3770,12 @@
         <v>-40329.8294</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>589</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>575</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,12 +3809,12 @@
         <v>-39957.9227</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>584</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>575</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,12 +3848,12 @@
         <v>-40208.6606</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>589</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>575</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,12 +3887,12 @@
         <v>-39745.0829</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>588</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>575</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,12 +3926,12 @@
         <v>-39956.027</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>589</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>575</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,12 +3965,12 @@
         <v>-38803.7578</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>585</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>575</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,12 +4004,12 @@
         <v>-29890.3234</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>589</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>575</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>575</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3751,7 +4085,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>575</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,7 +4124,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>575</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>575</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,7 +4202,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>575</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3899,7 +4241,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>575</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,7 +4280,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>575</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,7 +4319,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>575</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,7 +4358,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>575</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,7 +4397,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>575</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,7 +4436,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>575</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,7 +4475,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>575</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4158,7 +4514,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>575</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4195,7 +4553,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>575</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,7 +4592,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>575</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,7 +4631,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>575</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,7 +4670,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>575</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,7 +4709,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>575</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,7 +4748,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>575</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,7 +4787,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>575</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,7 +4826,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>575</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4491,7 +4865,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>575</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,7 +4904,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>575</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4565,7 +4943,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>575</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,7 +4982,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>575</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,7 +5021,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>575</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,7 +5060,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>575</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4713,7 +5099,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>575</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4750,7 +5138,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>575</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,7 +5177,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>575</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4824,7 +5216,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>575</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4861,7 +5255,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>575</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,7 +5294,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>575</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,7 +5333,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>575</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,7 +5372,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>575</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5009,7 +5411,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>575</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,7 +5450,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>575</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,7 +5489,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>575</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5120,7 +5528,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>575</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5157,7 +5567,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>575</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>575</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,7 +5645,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>575</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,7 +5684,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>575</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,7 +5723,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>575</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,7 +5762,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>575</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5379,7 +5801,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>575</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5416,7 +5840,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>575</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,7 +5879,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>575</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5490,7 +5918,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>575</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,7 +5957,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>575</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,7 +5996,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>575</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5601,7 +6035,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>575</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,7 +6074,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>575</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5675,7 +6113,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>575</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,7 +6152,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>575</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5749,7 +6191,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>575</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5786,7 +6230,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>575</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5823,7 +6269,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>575</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,7 +6308,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>575</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5897,7 +6347,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>575</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5934,7 +6386,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>575</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,7 +6425,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>575</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,7 +6464,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>575</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,7 +6503,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>575</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6082,7 +6542,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>575</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,7 +6581,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>575</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6156,7 +6620,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>575</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6193,7 +6659,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>575</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,7 +6698,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>575</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,7 +6737,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>575</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6304,7 +6776,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>575</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6341,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>575</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6378,7 +6854,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>575</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6415,7 +6893,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>575</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6452,7 +6932,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>575</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,7 +6971,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>575</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,7 +7010,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>575</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6563,7 +7049,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>575</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,7 +7088,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>575</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,7 +7127,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>575</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,7 +7166,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>575</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,7 +7205,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>575</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,7 +7244,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>575</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,7 +7283,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>575</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,7 +7322,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>575</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6859,7 +7361,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>575</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6896,7 +7400,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>575</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,7 +7439,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>575</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,7 +7478,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>575</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7007,7 +7517,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>575</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,7 +7556,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>575</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,7 +7595,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>575</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7118,7 +7634,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>575</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7155,7 +7673,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>575</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,7 +7712,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>575</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7229,7 +7751,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>575</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7266,7 +7790,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>575</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7303,7 +7829,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>575</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,7 +7868,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>575</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,7 +7907,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>575</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,7 +7946,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>575</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7451,7 +7985,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>575</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7488,7 +8024,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>575</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7525,7 +8063,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>575</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7562,7 +8102,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>575</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,7 +8141,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>575</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7636,7 +8180,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>575</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,7 +8219,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>575</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,7 +8258,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>575</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7747,7 +8297,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>575</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7784,7 +8336,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>575</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,7 +8375,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>575</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,7 +8414,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>575</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7895,7 +8453,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>575</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,7 +8492,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>575</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,7 +8531,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>575</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8006,7 +8570,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>575</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,7 +8609,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>575</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,7 +8648,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>575</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +8687,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>575</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8154,7 +8726,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>575</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,7 +8765,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>575</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8228,7 +8804,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>575</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8265,7 +8843,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>575</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8302,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>575</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8339,7 +8921,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>575</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,7 +8960,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>575</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8413,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>575</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8450,7 +9038,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>575</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,7 +9077,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>575</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,7 +9116,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>575</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,7 +9155,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>575</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,7 +9194,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>575</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8635,7 +9233,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>575</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,7 +9272,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>575</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>575</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8746,7 +9350,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>575</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8783,7 +9389,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>575</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8820,7 +9428,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>575</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,7 +9467,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>575</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,7 +9506,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>575</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8931,7 +9545,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>575</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,7 +9584,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>575</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9005,7 +9623,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>575</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9042,7 +9662,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>575</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9079,7 +9701,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>575</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9116,7 +9740,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>575</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,7 +9779,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>575</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,7 +9818,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>575</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,7 +9857,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>575</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,7 +9896,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>575</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,7 +9935,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>575</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9338,7 +9974,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>575</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9375,7 +10013,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>575</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9412,7 +10052,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>575</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,7 +10091,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>575</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,7 +10130,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>575</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,7 +10169,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>575</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +10208,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>575</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9597,7 +10247,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>575</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,7 +10286,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>575</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,7 +10325,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>575</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,7 +10364,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>575</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9745,7 +10403,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>575</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9782,7 +10442,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>575</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9819,7 +10481,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>575</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9856,7 +10520,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>575</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,7 +10559,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>575</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9930,7 +10598,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>575</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,7 +10637,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>575</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10004,7 +10676,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>575</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,10 +10712,12 @@
         <v>64750.20858414</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>575</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10078,7 +10754,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>575</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,7 +10793,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>575</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,7 +10832,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>575</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10189,7 +10871,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>575</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10226,7 +10910,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>575</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,7 +10949,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>575</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,7 +10988,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>575</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,7 +11027,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>575</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,7 +11066,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>575</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,7 +11105,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>575</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10448,7 +11144,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>575</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10485,7 +11183,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>575</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10522,7 +11222,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>575</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10559,7 +11261,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>575</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10596,7 +11300,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>575</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,7 +11339,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>575</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10670,7 +11378,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>575</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10707,7 +11417,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>575</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10744,7 +11456,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>575</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10778,10 +11492,12 @@
         <v>104714.13828414</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>575</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10818,7 +11534,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>575</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10855,7 +11573,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>575</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10892,7 +11612,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>575</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10929,7 +11651,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>575</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,7 +11690,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>575</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,7 +11729,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>575</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11040,7 +11768,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>575</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11074,10 +11804,12 @@
         <v>101062.79578414</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>575</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11111,10 +11843,12 @@
         <v>99411.91878414</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>575</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11151,7 +11885,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>575</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,19 +11921,23 @@
         <v>99410.91878414</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>575</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+        <v>1.149782608695652</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1.017391304347826</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11222,15 +11962,11 @@
         <v>99385.91878414</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11259,15 +11995,11 @@
         <v>100241.18938414</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11296,15 +12028,11 @@
         <v>100213.00388414</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11337,11 +12065,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11370,15 +12094,11 @@
         <v>99204.71168414</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11407,15 +12127,11 @@
         <v>96352.22218414</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11448,11 +12164,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11481,15 +12193,11 @@
         <v>95059.50448414001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11522,11 +12230,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11559,11 +12263,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11592,15 +12292,11 @@
         <v>94005.74708414001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11633,11 +12329,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11670,11 +12362,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11703,15 +12391,11 @@
         <v>81803.28118414001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11744,11 +12428,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11777,15 +12457,11 @@
         <v>81803.28118414001</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11818,11 +12494,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11855,11 +12527,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11888,15 +12556,11 @@
         <v>86397.16768414002</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11929,11 +12593,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11962,15 +12622,11 @@
         <v>87108.00238414003</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11999,15 +12655,11 @@
         <v>86344.30938414003</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12036,15 +12688,11 @@
         <v>90079.86378414002</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12073,15 +12721,11 @@
         <v>89782.03238414002</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12110,15 +12754,11 @@
         <v>91538.17508414002</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12151,11 +12791,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12188,11 +12824,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12225,11 +12857,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12262,11 +12890,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12295,15 +12919,11 @@
         <v>90700.24628414004</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12336,11 +12956,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12373,11 +12989,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12410,11 +13022,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12447,11 +13055,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12484,11 +13088,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12521,11 +13121,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12558,11 +13154,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12591,15 +13183,11 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12628,15 +13216,11 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12665,15 +13249,11 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12702,15 +13282,11 @@
         <v>85156.87238414006</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12743,11 +13319,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12776,15 +13348,11 @@
         <v>85156.87238414006</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12813,15 +13381,11 @@
         <v>88114.95398414007</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12850,15 +13414,11 @@
         <v>85919.68328414008</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12887,15 +13447,11 @@
         <v>84942.31238414008</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12924,15 +13480,11 @@
         <v>90709.63968414009</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12961,15 +13513,11 @@
         <v>90709.63968414009</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12998,15 +13546,11 @@
         <v>91511.32528414008</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13035,15 +13579,11 @@
         <v>91361.32528414008</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13072,15 +13612,11 @@
         <v>91602.32528414008</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13109,15 +13645,11 @@
         <v>91602.32528414008</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13146,15 +13678,11 @@
         <v>100934.1289841401</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13183,15 +13711,11 @@
         <v>99692.96558414008</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13224,11 +13748,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13261,11 +13781,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13298,11 +13814,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13335,11 +13847,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13372,11 +13880,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13409,11 +13913,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13446,11 +13946,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +13979,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13520,11 +14012,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13557,11 +14045,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13594,11 +14078,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13627,15 +14107,11 @@
         <v>84126.31618414009</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13664,15 +14140,11 @@
         <v>84126.31618414009</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13701,15 +14173,11 @@
         <v>83738.46448414009</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13738,15 +14206,11 @@
         <v>83632.14858414009</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13775,15 +14239,11 @@
         <v>83632.14858414009</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13812,15 +14272,11 @@
         <v>88608.44078414008</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13849,15 +14305,11 @@
         <v>88608.44078414008</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13886,15 +14338,11 @@
         <v>88818.79068414008</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13923,15 +14371,11 @@
         <v>88820.44168414008</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13960,15 +14404,11 @@
         <v>88820.44168414008</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13997,15 +14437,11 @@
         <v>88244.20108414008</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14034,15 +14470,11 @@
         <v>88406.53158414007</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14071,15 +14503,11 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14108,15 +14536,11 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14145,15 +14569,11 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14182,15 +14602,11 @@
         <v>87559.48938414006</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14223,11 +14639,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14260,11 +14672,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14297,11 +14705,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14334,11 +14738,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14371,11 +14771,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14408,11 +14804,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14445,11 +14837,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14482,11 +14870,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14519,11 +14903,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14556,11 +14936,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14593,11 +14969,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14630,11 +15002,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14667,11 +15035,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14704,11 +15068,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14741,11 +15101,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14778,11 +15134,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14815,11 +15167,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14852,11 +15200,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14889,11 +15233,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14926,11 +15266,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14963,11 +15299,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15000,11 +15332,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15365,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15074,11 +15398,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15111,11 +15431,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15148,11 +15464,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15185,11 +15497,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15222,11 +15530,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15259,11 +15563,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15296,11 +15596,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15333,11 +15629,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15370,11 +15662,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15407,11 +15695,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15444,11 +15728,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15481,11 +15761,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15514,16 +15790,14 @@
         <v>100634.2332139001</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
       <c r="M411" t="inlineStr"/>
     </row>
     <row r="412">
@@ -15582,7 +15856,7 @@
         <v>100440.8346139</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15615,7 +15889,7 @@
         <v>101481.9363139</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15648,7 +15922,7 @@
         <v>101431.8725139</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15681,7 +15955,7 @@
         <v>103988.6456139001</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15747,7 +16021,7 @@
         <v>103988.6456139001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15780,7 +16054,7 @@
         <v>103988.6456139001</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15912,7 +16186,7 @@
         <v>108247.5035139</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15945,7 +16219,7 @@
         <v>108403.6762139</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16044,7 +16318,7 @@
         <v>106707.6262139</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16110,7 +16384,7 @@
         <v>106840.4978139</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16143,7 +16417,7 @@
         <v>106840.4978139</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16242,7 +16516,7 @@
         <v>99864.74631390003</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16770,7 +17044,7 @@
         <v>87274.47071390005</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16803,7 +17077,7 @@
         <v>87274.47071390005</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -18519,7 +18793,7 @@
         <v>87738.92082943006</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19047,7 +19321,7 @@
         <v>82156.12842943007</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19080,7 +19354,7 @@
         <v>82246.12842943007</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19146,7 +19420,7 @@
         <v>82712.14202943008</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19179,7 +19453,7 @@
         <v>82070.79752943007</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19410,7 +19684,7 @@
         <v>82409.67442943006</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19443,7 +19717,7 @@
         <v>82410.67442943006</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19476,7 +19750,7 @@
         <v>84209.78312943006</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19509,7 +19783,7 @@
         <v>85355.78312943006</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19542,7 +19816,7 @@
         <v>85355.78312943006</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19575,7 +19849,7 @@
         <v>85332.78312943006</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19608,7 +19882,7 @@
         <v>84463.96552943006</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19641,7 +19915,7 @@
         <v>85401.69552943006</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19674,7 +19948,7 @@
         <v>83079.40442943005</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19905,7 +20179,7 @@
         <v>85161.02192943005</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19938,7 +20212,7 @@
         <v>85262.74482943004</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19971,7 +20245,7 @@
         <v>83748.99572943004</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20004,7 +20278,7 @@
         <v>83748.99572943004</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20037,7 +20311,7 @@
         <v>82904.50962943005</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20268,7 +20542,7 @@
         <v>82473.22262943005</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20301,7 +20575,7 @@
         <v>82588.92262943005</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20367,7 +20641,7 @@
         <v>81276.50992943005</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20400,7 +20674,7 @@
         <v>81279.50992943005</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20433,7 +20707,7 @@
         <v>81099.50992943005</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20466,7 +20740,7 @@
         <v>81099.50992943005</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20499,7 +20773,7 @@
         <v>80822.06592943004</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20532,7 +20806,7 @@
         <v>80338.91172943004</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20565,7 +20839,7 @@
         <v>80338.91172943004</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20664,7 +20938,7 @@
         <v>76448.87174794004</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21027,7 +21301,7 @@
         <v>83257.00944794003</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21060,7 +21334,7 @@
         <v>91247.18062333003</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21093,7 +21367,7 @@
         <v>90747.67062333004</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21126,7 +21400,7 @@
         <v>90747.67062333004</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21159,7 +21433,7 @@
         <v>90306.85012333003</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21192,7 +21466,7 @@
         <v>90306.85012333003</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21225,7 +21499,7 @@
         <v>90624.31042333004</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21258,7 +21532,7 @@
         <v>89456.12862333003</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21291,7 +21565,7 @@
         <v>89090.88882333004</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21324,7 +21598,7 @@
         <v>89627.34642333003</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21357,7 +21631,7 @@
         <v>89630.34642333003</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21390,7 +21664,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21423,7 +21697,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21456,7 +21730,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21489,7 +21763,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21522,7 +21796,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21555,7 +21829,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21588,7 +21862,7 @@
         <v>89631.34642333003</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21621,7 +21895,7 @@
         <v>90719.46622333003</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21654,7 +21928,7 @@
         <v>95194.83882333004</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21687,7 +21961,7 @@
         <v>94383.64302333003</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21720,7 +21994,7 @@
         <v>92712.30412333003</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21753,7 +22027,7 @@
         <v>92712.30412333003</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21786,7 +22060,7 @@
         <v>91317.94082333003</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21819,7 +22093,7 @@
         <v>91347.34792333003</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21852,7 +22126,7 @@
         <v>91019.98602333003</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21885,7 +22159,7 @@
         <v>91519.98602333003</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21918,7 +22192,7 @@
         <v>91419.98602333003</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21951,7 +22225,7 @@
         <v>91419.98602333003</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21984,7 +22258,7 @@
         <v>91419.98602333003</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22017,7 +22291,7 @@
         <v>91420.98602333003</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22083,7 +22357,7 @@
         <v>91393.93482333003</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22116,7 +22390,7 @@
         <v>90893.93482333003</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22149,7 +22423,7 @@
         <v>92054.75382333003</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22182,7 +22456,7 @@
         <v>91661.75382333003</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22248,7 +22522,7 @@
         <v>91057.09592333002</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22490,6 +22764,6 @@
       <c r="M622" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-13 BackTest PPT.xlsx
+++ b/BackTest/2019-10-13 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14718.5158</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>-14718.5158</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>575</v>
-      </c>
-      <c r="J4" t="n">
-        <v>575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>-14618.5158</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>575</v>
-      </c>
-      <c r="J5" t="n">
-        <v>575</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>-14118.5158</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>578</v>
-      </c>
-      <c r="J6" t="n">
-        <v>575</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,2021 +616,1667 @@
         <v>-23243.7979</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>574</v>
+      </c>
+      <c r="C8" t="n">
+        <v>578</v>
+      </c>
+      <c r="D8" t="n">
+        <v>578</v>
+      </c>
+      <c r="E8" t="n">
+        <v>574</v>
+      </c>
+      <c r="F8" t="n">
+        <v>859.8634</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-22383.9345</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>575</v>
+      </c>
+      <c r="C9" t="n">
+        <v>581</v>
+      </c>
+      <c r="D9" t="n">
+        <v>581</v>
+      </c>
+      <c r="E9" t="n">
+        <v>573</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1892.7404</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-20491.1941</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>579</v>
+      </c>
+      <c r="C10" t="n">
+        <v>579</v>
+      </c>
+      <c r="D10" t="n">
+        <v>579</v>
+      </c>
+      <c r="E10" t="n">
+        <v>579</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89.2176</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-20580.4117</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>577</v>
+      </c>
+      <c r="C11" t="n">
+        <v>578</v>
+      </c>
+      <c r="D11" t="n">
+        <v>578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>577</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4381.8557</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-24962.2674</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>578</v>
+      </c>
+      <c r="C12" t="n">
+        <v>578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>578</v>
+      </c>
+      <c r="E12" t="n">
+        <v>578</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-24962.2674</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>578</v>
+      </c>
+      <c r="C13" t="n">
+        <v>579</v>
+      </c>
+      <c r="D13" t="n">
+        <v>579</v>
+      </c>
+      <c r="E13" t="n">
+        <v>578</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1223.2198</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-23739.04760000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>580</v>
+      </c>
+      <c r="C14" t="n">
+        <v>578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>580</v>
+      </c>
+      <c r="E14" t="n">
+        <v>578</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1977.9493</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-25716.99690000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>578</v>
+      </c>
+      <c r="C15" t="n">
+        <v>578</v>
+      </c>
+      <c r="D15" t="n">
+        <v>578</v>
+      </c>
+      <c r="E15" t="n">
+        <v>578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3593.915</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-25716.99690000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>580</v>
+      </c>
+      <c r="C16" t="n">
         <v>585</v>
       </c>
-      <c r="J7" t="n">
+      <c r="D16" t="n">
+        <v>585</v>
+      </c>
+      <c r="E16" t="n">
+        <v>580</v>
+      </c>
+      <c r="F16" t="n">
+        <v>595.9144</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-25121.0825</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>582</v>
+      </c>
+      <c r="C17" t="n">
+        <v>582</v>
+      </c>
+      <c r="D17" t="n">
+        <v>582</v>
+      </c>
+      <c r="E17" t="n">
+        <v>582</v>
+      </c>
+      <c r="F17" t="n">
+        <v>547.4192</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-25668.5017</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>577</v>
+      </c>
+      <c r="C18" t="n">
+        <v>573</v>
+      </c>
+      <c r="D18" t="n">
+        <v>577</v>
+      </c>
+      <c r="E18" t="n">
+        <v>573</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4478.2272</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-30146.72890000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>580</v>
+      </c>
+      <c r="C19" t="n">
+        <v>580</v>
+      </c>
+      <c r="D19" t="n">
+        <v>580</v>
+      </c>
+      <c r="E19" t="n">
+        <v>580</v>
+      </c>
+      <c r="F19" t="n">
+        <v>61.8481</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-30084.88080000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>580</v>
+      </c>
+      <c r="C20" t="n">
+        <v>580</v>
+      </c>
+      <c r="D20" t="n">
+        <v>580</v>
+      </c>
+      <c r="E20" t="n">
+        <v>580</v>
+      </c>
+      <c r="F20" t="n">
+        <v>115.9793</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-30084.88080000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>580</v>
+      </c>
+      <c r="C21" t="n">
+        <v>580</v>
+      </c>
+      <c r="D21" t="n">
+        <v>580</v>
+      </c>
+      <c r="E21" t="n">
+        <v>580</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.2326</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-30084.88080000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>584</v>
+      </c>
+      <c r="C22" t="n">
+        <v>584</v>
+      </c>
+      <c r="D22" t="n">
+        <v>584</v>
+      </c>
+      <c r="E22" t="n">
+        <v>584</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-30083.88080000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>580</v>
+      </c>
+      <c r="C23" t="n">
+        <v>583</v>
+      </c>
+      <c r="D23" t="n">
+        <v>583</v>
+      </c>
+      <c r="E23" t="n">
+        <v>578</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1475.2233</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-31559.10410000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>579</v>
+      </c>
+      <c r="C24" t="n">
+        <v>584</v>
+      </c>
+      <c r="D24" t="n">
+        <v>584</v>
+      </c>
+      <c r="E24" t="n">
+        <v>579</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1342.769</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-30216.33510000001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>581</v>
+      </c>
+      <c r="C25" t="n">
+        <v>584</v>
+      </c>
+      <c r="D25" t="n">
+        <v>584</v>
+      </c>
+      <c r="E25" t="n">
+        <v>580</v>
+      </c>
+      <c r="F25" t="n">
+        <v>684.8015</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-30216.33510000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>580</v>
+      </c>
+      <c r="C26" t="n">
+        <v>579</v>
+      </c>
+      <c r="D26" t="n">
+        <v>580</v>
+      </c>
+      <c r="E26" t="n">
+        <v>579</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1310.9947</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-31527.32980000001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>579</v>
+      </c>
+      <c r="C27" t="n">
+        <v>579</v>
+      </c>
+      <c r="D27" t="n">
+        <v>579</v>
+      </c>
+      <c r="E27" t="n">
+        <v>579</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1396.9018</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-31527.32980000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>578</v>
+      </c>
+      <c r="C28" t="n">
+        <v>578</v>
+      </c>
+      <c r="D28" t="n">
+        <v>578</v>
+      </c>
+      <c r="E28" t="n">
+        <v>578</v>
+      </c>
+      <c r="F28" t="n">
+        <v>386.3363</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-31913.66610000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>580</v>
+      </c>
+      <c r="C29" t="n">
+        <v>580</v>
+      </c>
+      <c r="D29" t="n">
+        <v>580</v>
+      </c>
+      <c r="E29" t="n">
+        <v>580</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-31913.666</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>580</v>
+      </c>
+      <c r="C30" t="n">
+        <v>580</v>
+      </c>
+      <c r="D30" t="n">
+        <v>580</v>
+      </c>
+      <c r="E30" t="n">
+        <v>580</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.3497</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-31913.666</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>580</v>
+      </c>
+      <c r="C31" t="n">
+        <v>580</v>
+      </c>
+      <c r="D31" t="n">
+        <v>580</v>
+      </c>
+      <c r="E31" t="n">
+        <v>580</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1079.6502</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-31913.666</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>580</v>
+      </c>
+      <c r="C32" t="n">
+        <v>580</v>
+      </c>
+      <c r="D32" t="n">
+        <v>580</v>
+      </c>
+      <c r="E32" t="n">
+        <v>580</v>
+      </c>
+      <c r="F32" t="n">
+        <v>142.3507</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-31913.666</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>580</v>
+      </c>
+      <c r="C33" t="n">
+        <v>580</v>
+      </c>
+      <c r="D33" t="n">
+        <v>580</v>
+      </c>
+      <c r="E33" t="n">
+        <v>580</v>
+      </c>
+      <c r="F33" t="n">
+        <v>429</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-31913.666</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>582</v>
+      </c>
+      <c r="C34" t="n">
+        <v>582</v>
+      </c>
+      <c r="D34" t="n">
+        <v>582</v>
+      </c>
+      <c r="E34" t="n">
+        <v>582</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-31912.666</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>580</v>
+      </c>
+      <c r="C35" t="n">
+        <v>579</v>
+      </c>
+      <c r="D35" t="n">
+        <v>580</v>
+      </c>
+      <c r="E35" t="n">
+        <v>579</v>
+      </c>
+      <c r="F35" t="n">
+        <v>631.8011</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-32544.46710000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>579</v>
+      </c>
+      <c r="C36" t="n">
+        <v>578</v>
+      </c>
+      <c r="D36" t="n">
+        <v>579</v>
+      </c>
+      <c r="E36" t="n">
+        <v>578</v>
+      </c>
+      <c r="F36" t="n">
+        <v>51.1265</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-32595.5936</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>578</v>
+      </c>
+      <c r="C37" t="n">
+        <v>576</v>
+      </c>
+      <c r="D37" t="n">
+        <v>578</v>
+      </c>
+      <c r="E37" t="n">
+        <v>576</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1912.2057</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-34507.79930000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>581</v>
+      </c>
+      <c r="C38" t="n">
+        <v>581</v>
+      </c>
+      <c r="D38" t="n">
+        <v>581</v>
+      </c>
+      <c r="E38" t="n">
+        <v>581</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-34506.79930000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>581</v>
+      </c>
+      <c r="C39" t="n">
+        <v>582</v>
+      </c>
+      <c r="D39" t="n">
+        <v>582</v>
+      </c>
+      <c r="E39" t="n">
+        <v>581</v>
+      </c>
+      <c r="F39" t="n">
+        <v>180</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-34326.79930000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>581</v>
+      </c>
+      <c r="C40" t="n">
+        <v>581</v>
+      </c>
+      <c r="D40" t="n">
+        <v>581</v>
+      </c>
+      <c r="E40" t="n">
+        <v>581</v>
+      </c>
+      <c r="F40" t="n">
+        <v>124</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-34450.79930000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>581</v>
+      </c>
+      <c r="C41" t="n">
+        <v>582</v>
+      </c>
+      <c r="D41" t="n">
+        <v>582</v>
+      </c>
+      <c r="E41" t="n">
+        <v>581</v>
+      </c>
+      <c r="F41" t="n">
+        <v>618.6617</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-33832.13760000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>582</v>
+      </c>
+      <c r="C42" t="n">
+        <v>583</v>
+      </c>
+      <c r="D42" t="n">
+        <v>583</v>
+      </c>
+      <c r="E42" t="n">
+        <v>582</v>
+      </c>
+      <c r="F42" t="n">
+        <v>715.4213</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-33116.71630000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>578</v>
+      </c>
+      <c r="C43" t="n">
+        <v>578</v>
+      </c>
+      <c r="D43" t="n">
+        <v>578</v>
+      </c>
+      <c r="E43" t="n">
+        <v>578</v>
+      </c>
+      <c r="F43" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-33215.9163</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>583</v>
+      </c>
+      <c r="C44" t="n">
+        <v>584</v>
+      </c>
+      <c r="D44" t="n">
+        <v>584</v>
+      </c>
+      <c r="E44" t="n">
+        <v>583</v>
+      </c>
+      <c r="F44" t="n">
+        <v>742.7166</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-32473.1997</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>580</v>
+      </c>
+      <c r="C45" t="n">
+        <v>580</v>
+      </c>
+      <c r="D45" t="n">
+        <v>580</v>
+      </c>
+      <c r="E45" t="n">
+        <v>580</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.9342</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-32502.1339</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>580</v>
+      </c>
+      <c r="C46" t="n">
+        <v>582</v>
+      </c>
+      <c r="D46" t="n">
+        <v>584</v>
+      </c>
+      <c r="E46" t="n">
+        <v>580</v>
+      </c>
+      <c r="F46" t="n">
+        <v>927.9675999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-31574.1663</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>579</v>
+      </c>
+      <c r="C47" t="n">
+        <v>582</v>
+      </c>
+      <c r="D47" t="n">
+        <v>582</v>
+      </c>
+      <c r="E47" t="n">
+        <v>578</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1931.1447</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-31574.1663</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>578</v>
+      </c>
+      <c r="C48" t="n">
+        <v>578</v>
+      </c>
+      <c r="D48" t="n">
+        <v>578</v>
+      </c>
+      <c r="E48" t="n">
+        <v>578</v>
+      </c>
+      <c r="F48" t="n">
+        <v>104.2489</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-31678.4152</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>583</v>
+      </c>
+      <c r="C49" t="n">
+        <v>583</v>
+      </c>
+      <c r="D49" t="n">
+        <v>583</v>
+      </c>
+      <c r="E49" t="n">
+        <v>583</v>
+      </c>
+      <c r="F49" t="n">
+        <v>159.9446</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-31518.4706</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>583</v>
+      </c>
+      <c r="C50" t="n">
+        <v>584</v>
+      </c>
+      <c r="D50" t="n">
+        <v>584</v>
+      </c>
+      <c r="E50" t="n">
+        <v>583</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2132.2859</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-29386.18470000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>584</v>
+      </c>
+      <c r="C51" t="n">
+        <v>584</v>
+      </c>
+      <c r="D51" t="n">
+        <v>584</v>
+      </c>
+      <c r="E51" t="n">
+        <v>584</v>
+      </c>
+      <c r="F51" t="n">
+        <v>282.0034</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-29386.18470000001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>582</v>
+      </c>
+      <c r="C52" t="n">
+        <v>582</v>
+      </c>
+      <c r="D52" t="n">
+        <v>582</v>
+      </c>
+      <c r="E52" t="n">
+        <v>582</v>
+      </c>
+      <c r="F52" t="n">
+        <v>865.7</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-30251.88470000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>581</v>
+      </c>
+      <c r="C53" t="n">
+        <v>581</v>
+      </c>
+      <c r="D53" t="n">
+        <v>581</v>
+      </c>
+      <c r="E53" t="n">
+        <v>581</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3499.27</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-33751.15470000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>580</v>
+      </c>
+      <c r="C54" t="n">
+        <v>580</v>
+      </c>
+      <c r="D54" t="n">
+        <v>580</v>
+      </c>
+      <c r="E54" t="n">
+        <v>580</v>
+      </c>
+      <c r="F54" t="n">
+        <v>648.939</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-34400.0937</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>580</v>
+      </c>
+      <c r="C55" t="n">
+        <v>582</v>
+      </c>
+      <c r="D55" t="n">
+        <v>582</v>
+      </c>
+      <c r="E55" t="n">
+        <v>580</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1231.6453</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-33168.44840000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>582</v>
+      </c>
+      <c r="C56" t="n">
+        <v>582</v>
+      </c>
+      <c r="D56" t="n">
+        <v>582</v>
+      </c>
+      <c r="E56" t="n">
+        <v>582</v>
+      </c>
+      <c r="F56" t="n">
+        <v>59</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-33168.44840000001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>580</v>
+      </c>
+      <c r="C57" t="n">
         <v>575</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="D57" t="n">
+        <v>580</v>
+      </c>
+      <c r="E57" t="n">
+        <v>575</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3267.7642</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-36436.21260000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>582</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>574</v>
-      </c>
-      <c r="C8" t="n">
-        <v>578</v>
-      </c>
-      <c r="D8" t="n">
-        <v>578</v>
-      </c>
-      <c r="E8" t="n">
-        <v>574</v>
-      </c>
-      <c r="F8" t="n">
-        <v>859.8634</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-22383.9345</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>574</v>
-      </c>
-      <c r="J8" t="n">
-        <v>575</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>575</v>
-      </c>
-      <c r="C9" t="n">
-        <v>581</v>
-      </c>
-      <c r="D9" t="n">
-        <v>581</v>
-      </c>
-      <c r="E9" t="n">
-        <v>573</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1892.7404</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-20491.1941</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>578</v>
-      </c>
-      <c r="J9" t="n">
-        <v>575</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>579</v>
-      </c>
-      <c r="D10" t="n">
-        <v>579</v>
-      </c>
-      <c r="E10" t="n">
-        <v>579</v>
-      </c>
-      <c r="F10" t="n">
-        <v>89.2176</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-20580.4117</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>581</v>
-      </c>
-      <c r="J10" t="n">
-        <v>575</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>577</v>
-      </c>
-      <c r="C11" t="n">
-        <v>578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>578</v>
-      </c>
-      <c r="E11" t="n">
-        <v>577</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4381.8557</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-24962.2674</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>579</v>
-      </c>
-      <c r="J11" t="n">
-        <v>575</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>578</v>
-      </c>
-      <c r="C12" t="n">
-        <v>578</v>
-      </c>
-      <c r="D12" t="n">
-        <v>578</v>
-      </c>
-      <c r="E12" t="n">
-        <v>578</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-24962.2674</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>578</v>
-      </c>
-      <c r="J12" t="n">
-        <v>575</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>578</v>
-      </c>
-      <c r="C13" t="n">
-        <v>579</v>
-      </c>
-      <c r="D13" t="n">
-        <v>579</v>
-      </c>
-      <c r="E13" t="n">
-        <v>578</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1223.2198</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-23739.04760000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>578</v>
-      </c>
-      <c r="J13" t="n">
-        <v>575</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>580</v>
-      </c>
-      <c r="C14" t="n">
-        <v>578</v>
-      </c>
-      <c r="D14" t="n">
-        <v>580</v>
-      </c>
-      <c r="E14" t="n">
-        <v>578</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1977.9493</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-25716.99690000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>579</v>
-      </c>
-      <c r="J14" t="n">
-        <v>575</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>578</v>
-      </c>
-      <c r="C15" t="n">
-        <v>578</v>
-      </c>
-      <c r="D15" t="n">
-        <v>578</v>
-      </c>
-      <c r="E15" t="n">
-        <v>578</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3593.915</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-25716.99690000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>578</v>
-      </c>
-      <c r="J15" t="n">
-        <v>575</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>580</v>
-      </c>
-      <c r="C16" t="n">
-        <v>585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>585</v>
-      </c>
-      <c r="E16" t="n">
-        <v>580</v>
-      </c>
-      <c r="F16" t="n">
-        <v>595.9144</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-25121.0825</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>578</v>
-      </c>
-      <c r="J16" t="n">
-        <v>575</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>582</v>
-      </c>
-      <c r="C17" t="n">
-        <v>582</v>
-      </c>
-      <c r="D17" t="n">
-        <v>582</v>
-      </c>
-      <c r="E17" t="n">
-        <v>582</v>
-      </c>
-      <c r="F17" t="n">
-        <v>547.4192</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-25668.5017</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>585</v>
-      </c>
-      <c r="J17" t="n">
-        <v>575</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>577</v>
-      </c>
-      <c r="C18" t="n">
-        <v>573</v>
-      </c>
-      <c r="D18" t="n">
-        <v>577</v>
-      </c>
-      <c r="E18" t="n">
-        <v>573</v>
-      </c>
-      <c r="F18" t="n">
-        <v>4478.2272</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-30146.72890000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>582</v>
-      </c>
-      <c r="J18" t="n">
-        <v>575</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>580</v>
-      </c>
-      <c r="C19" t="n">
-        <v>580</v>
-      </c>
-      <c r="D19" t="n">
-        <v>580</v>
-      </c>
-      <c r="E19" t="n">
-        <v>580</v>
-      </c>
-      <c r="F19" t="n">
-        <v>61.8481</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-30084.88080000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>573</v>
-      </c>
-      <c r="J19" t="n">
-        <v>575</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>580</v>
-      </c>
-      <c r="C20" t="n">
-        <v>580</v>
-      </c>
-      <c r="D20" t="n">
-        <v>580</v>
-      </c>
-      <c r="E20" t="n">
-        <v>580</v>
-      </c>
-      <c r="F20" t="n">
-        <v>115.9793</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-30084.88080000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>580</v>
-      </c>
-      <c r="J20" t="n">
-        <v>575</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>580</v>
-      </c>
-      <c r="C21" t="n">
-        <v>580</v>
-      </c>
-      <c r="D21" t="n">
-        <v>580</v>
-      </c>
-      <c r="E21" t="n">
-        <v>580</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13.2326</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-30084.88080000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>575</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>584</v>
-      </c>
-      <c r="C22" t="n">
-        <v>584</v>
-      </c>
-      <c r="D22" t="n">
-        <v>584</v>
-      </c>
-      <c r="E22" t="n">
-        <v>584</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-30083.88080000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>580</v>
-      </c>
-      <c r="J22" t="n">
-        <v>575</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>580</v>
-      </c>
-      <c r="C23" t="n">
-        <v>583</v>
-      </c>
-      <c r="D23" t="n">
-        <v>583</v>
-      </c>
-      <c r="E23" t="n">
-        <v>578</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1475.2233</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-31559.10410000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>575</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>579</v>
-      </c>
-      <c r="C24" t="n">
-        <v>584</v>
-      </c>
-      <c r="D24" t="n">
-        <v>584</v>
-      </c>
-      <c r="E24" t="n">
-        <v>579</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1342.769</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-30216.33510000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>583</v>
-      </c>
-      <c r="J24" t="n">
-        <v>575</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>581</v>
-      </c>
-      <c r="C25" t="n">
-        <v>584</v>
-      </c>
-      <c r="D25" t="n">
-        <v>584</v>
-      </c>
-      <c r="E25" t="n">
-        <v>580</v>
-      </c>
-      <c r="F25" t="n">
-        <v>684.8015</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-30216.33510000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>575</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>580</v>
-      </c>
-      <c r="C26" t="n">
-        <v>579</v>
-      </c>
-      <c r="D26" t="n">
-        <v>580</v>
-      </c>
-      <c r="E26" t="n">
-        <v>579</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1310.9947</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-31527.32980000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>584</v>
-      </c>
-      <c r="J26" t="n">
-        <v>575</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>579</v>
-      </c>
-      <c r="C27" t="n">
-        <v>579</v>
-      </c>
-      <c r="D27" t="n">
-        <v>579</v>
-      </c>
-      <c r="E27" t="n">
-        <v>579</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1396.9018</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-31527.32980000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>579</v>
-      </c>
-      <c r="J27" t="n">
-        <v>575</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>578</v>
-      </c>
-      <c r="C28" t="n">
-        <v>578</v>
-      </c>
-      <c r="D28" t="n">
-        <v>578</v>
-      </c>
-      <c r="E28" t="n">
-        <v>578</v>
-      </c>
-      <c r="F28" t="n">
-        <v>386.3363</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-31913.66610000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>579</v>
-      </c>
-      <c r="J28" t="n">
-        <v>575</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>580</v>
-      </c>
-      <c r="C29" t="n">
-        <v>580</v>
-      </c>
-      <c r="D29" t="n">
-        <v>580</v>
-      </c>
-      <c r="E29" t="n">
-        <v>580</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-31913.666</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>578</v>
-      </c>
-      <c r="J29" t="n">
-        <v>575</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>580</v>
-      </c>
-      <c r="C30" t="n">
-        <v>580</v>
-      </c>
-      <c r="D30" t="n">
-        <v>580</v>
-      </c>
-      <c r="E30" t="n">
-        <v>580</v>
-      </c>
-      <c r="F30" t="n">
-        <v>20.3497</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-31913.666</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>580</v>
-      </c>
-      <c r="J30" t="n">
-        <v>575</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>580</v>
-      </c>
-      <c r="C31" t="n">
-        <v>580</v>
-      </c>
-      <c r="D31" t="n">
-        <v>580</v>
-      </c>
-      <c r="E31" t="n">
-        <v>580</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1079.6502</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-31913.666</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>580</v>
-      </c>
-      <c r="J31" t="n">
-        <v>575</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>580</v>
-      </c>
-      <c r="C32" t="n">
-        <v>580</v>
-      </c>
-      <c r="D32" t="n">
-        <v>580</v>
-      </c>
-      <c r="E32" t="n">
-        <v>580</v>
-      </c>
-      <c r="F32" t="n">
-        <v>142.3507</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-31913.666</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>580</v>
-      </c>
-      <c r="J32" t="n">
-        <v>575</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>580</v>
-      </c>
-      <c r="C33" t="n">
-        <v>580</v>
-      </c>
-      <c r="D33" t="n">
-        <v>580</v>
-      </c>
-      <c r="E33" t="n">
-        <v>580</v>
-      </c>
-      <c r="F33" t="n">
-        <v>429</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-31913.666</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>575</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>582</v>
-      </c>
-      <c r="C34" t="n">
-        <v>582</v>
-      </c>
-      <c r="D34" t="n">
-        <v>582</v>
-      </c>
-      <c r="E34" t="n">
-        <v>582</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-31912.666</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>580</v>
-      </c>
-      <c r="J34" t="n">
-        <v>575</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>580</v>
-      </c>
-      <c r="C35" t="n">
-        <v>579</v>
-      </c>
-      <c r="D35" t="n">
-        <v>580</v>
-      </c>
-      <c r="E35" t="n">
-        <v>579</v>
-      </c>
-      <c r="F35" t="n">
-        <v>631.8011</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-32544.46710000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>575</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>579</v>
-      </c>
-      <c r="C36" t="n">
-        <v>578</v>
-      </c>
-      <c r="D36" t="n">
-        <v>579</v>
-      </c>
-      <c r="E36" t="n">
-        <v>578</v>
-      </c>
-      <c r="F36" t="n">
-        <v>51.1265</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-32595.5936</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>575</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>578</v>
-      </c>
-      <c r="C37" t="n">
-        <v>576</v>
-      </c>
-      <c r="D37" t="n">
-        <v>578</v>
-      </c>
-      <c r="E37" t="n">
-        <v>576</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1912.2057</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-34507.79930000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>575</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>581</v>
-      </c>
-      <c r="C38" t="n">
-        <v>581</v>
-      </c>
-      <c r="D38" t="n">
-        <v>581</v>
-      </c>
-      <c r="E38" t="n">
-        <v>581</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-34506.79930000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>575</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>581</v>
-      </c>
-      <c r="C39" t="n">
-        <v>582</v>
-      </c>
-      <c r="D39" t="n">
-        <v>582</v>
-      </c>
-      <c r="E39" t="n">
-        <v>581</v>
-      </c>
-      <c r="F39" t="n">
-        <v>180</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-34326.79930000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>575</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>581</v>
-      </c>
-      <c r="C40" t="n">
-        <v>581</v>
-      </c>
-      <c r="D40" t="n">
-        <v>581</v>
-      </c>
-      <c r="E40" t="n">
-        <v>581</v>
-      </c>
-      <c r="F40" t="n">
-        <v>124</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-34450.79930000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>575</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>581</v>
-      </c>
-      <c r="C41" t="n">
-        <v>582</v>
-      </c>
-      <c r="D41" t="n">
-        <v>582</v>
-      </c>
-      <c r="E41" t="n">
-        <v>581</v>
-      </c>
-      <c r="F41" t="n">
-        <v>618.6617</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-33832.13760000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>575</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>582</v>
-      </c>
-      <c r="C42" t="n">
-        <v>583</v>
-      </c>
-      <c r="D42" t="n">
-        <v>583</v>
-      </c>
-      <c r="E42" t="n">
-        <v>582</v>
-      </c>
-      <c r="F42" t="n">
-        <v>715.4213</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-33116.71630000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>575</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>578</v>
-      </c>
-      <c r="C43" t="n">
-        <v>578</v>
-      </c>
-      <c r="D43" t="n">
-        <v>578</v>
-      </c>
-      <c r="E43" t="n">
-        <v>578</v>
-      </c>
-      <c r="F43" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-33215.9163</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>575</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>583</v>
-      </c>
-      <c r="C44" t="n">
-        <v>584</v>
-      </c>
-      <c r="D44" t="n">
-        <v>584</v>
-      </c>
-      <c r="E44" t="n">
-        <v>583</v>
-      </c>
-      <c r="F44" t="n">
-        <v>742.7166</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-32473.1997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>578</v>
-      </c>
-      <c r="J44" t="n">
-        <v>575</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>580</v>
-      </c>
-      <c r="C45" t="n">
-        <v>580</v>
-      </c>
-      <c r="D45" t="n">
-        <v>580</v>
-      </c>
-      <c r="E45" t="n">
-        <v>580</v>
-      </c>
-      <c r="F45" t="n">
-        <v>28.9342</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-32502.1339</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>575</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>580</v>
-      </c>
-      <c r="C46" t="n">
-        <v>582</v>
-      </c>
-      <c r="D46" t="n">
-        <v>584</v>
-      </c>
-      <c r="E46" t="n">
-        <v>580</v>
-      </c>
-      <c r="F46" t="n">
-        <v>927.9675999999999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-31574.1663</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>580</v>
-      </c>
-      <c r="J46" t="n">
-        <v>575</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>579</v>
-      </c>
-      <c r="C47" t="n">
-        <v>582</v>
-      </c>
-      <c r="D47" t="n">
-        <v>582</v>
-      </c>
-      <c r="E47" t="n">
-        <v>578</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1931.1447</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-31574.1663</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>575</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>578</v>
-      </c>
-      <c r="C48" t="n">
-        <v>578</v>
-      </c>
-      <c r="D48" t="n">
-        <v>578</v>
-      </c>
-      <c r="E48" t="n">
-        <v>578</v>
-      </c>
-      <c r="F48" t="n">
-        <v>104.2489</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-31678.4152</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>582</v>
-      </c>
-      <c r="J48" t="n">
-        <v>575</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>583</v>
-      </c>
-      <c r="C49" t="n">
-        <v>583</v>
-      </c>
-      <c r="D49" t="n">
-        <v>583</v>
-      </c>
-      <c r="E49" t="n">
-        <v>583</v>
-      </c>
-      <c r="F49" t="n">
-        <v>159.9446</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-31518.4706</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>575</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>583</v>
-      </c>
-      <c r="C50" t="n">
-        <v>584</v>
-      </c>
-      <c r="D50" t="n">
-        <v>584</v>
-      </c>
-      <c r="E50" t="n">
-        <v>583</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2132.2859</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-29386.18470000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>575</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>584</v>
-      </c>
-      <c r="C51" t="n">
-        <v>584</v>
-      </c>
-      <c r="D51" t="n">
-        <v>584</v>
-      </c>
-      <c r="E51" t="n">
-        <v>584</v>
-      </c>
-      <c r="F51" t="n">
-        <v>282.0034</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-29386.18470000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>575</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>582</v>
-      </c>
-      <c r="C52" t="n">
-        <v>582</v>
-      </c>
-      <c r="D52" t="n">
-        <v>582</v>
-      </c>
-      <c r="E52" t="n">
-        <v>582</v>
-      </c>
-      <c r="F52" t="n">
-        <v>865.7</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-30251.88470000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>575</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>581</v>
-      </c>
-      <c r="C53" t="n">
-        <v>581</v>
-      </c>
-      <c r="D53" t="n">
-        <v>581</v>
-      </c>
-      <c r="E53" t="n">
-        <v>581</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3499.27</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-33751.15470000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>575</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>580</v>
-      </c>
-      <c r="C54" t="n">
-        <v>580</v>
-      </c>
-      <c r="D54" t="n">
-        <v>580</v>
-      </c>
-      <c r="E54" t="n">
-        <v>580</v>
-      </c>
-      <c r="F54" t="n">
-        <v>648.939</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-34400.0937</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>575</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>580</v>
-      </c>
-      <c r="C55" t="n">
-        <v>582</v>
-      </c>
-      <c r="D55" t="n">
-        <v>582</v>
-      </c>
-      <c r="E55" t="n">
-        <v>580</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1231.6453</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-33168.44840000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>575</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>582</v>
-      </c>
-      <c r="C56" t="n">
-        <v>582</v>
-      </c>
-      <c r="D56" t="n">
-        <v>582</v>
-      </c>
-      <c r="E56" t="n">
-        <v>582</v>
-      </c>
-      <c r="F56" t="n">
-        <v>59</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-33168.44840000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>575</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>580</v>
-      </c>
-      <c r="C57" t="n">
-        <v>575</v>
-      </c>
-      <c r="D57" t="n">
-        <v>580</v>
-      </c>
-      <c r="E57" t="n">
-        <v>575</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3267.7642</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-36436.21260000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>575</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2679,12 +2305,12 @@
         <v>-33951.98090000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>575</v>
       </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,12 +2344,12 @@
         <v>-33360.05070000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>576</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2757,12 +2383,12 @@
         <v>-32426.04450000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>577</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2796,12 +2422,12 @@
         <v>-32425.04450000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>579</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,9 +2466,7 @@
       <c r="I62" t="n">
         <v>583</v>
       </c>
-      <c r="J62" t="n">
-        <v>575</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,9 +2505,7 @@
       <c r="I63" t="n">
         <v>583</v>
       </c>
-      <c r="J63" t="n">
-        <v>575</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,9 +2544,7 @@
       <c r="I64" t="n">
         <v>581</v>
       </c>
-      <c r="J64" t="n">
-        <v>575</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,9 +2583,7 @@
       <c r="I65" t="n">
         <v>581</v>
       </c>
-      <c r="J65" t="n">
-        <v>575</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,9 +2622,7 @@
       <c r="I66" t="n">
         <v>582</v>
       </c>
-      <c r="J66" t="n">
-        <v>575</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,9 +2661,7 @@
       <c r="I67" t="n">
         <v>581</v>
       </c>
-      <c r="J67" t="n">
-        <v>575</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,9 +2700,7 @@
       <c r="I68" t="n">
         <v>577</v>
       </c>
-      <c r="J68" t="n">
-        <v>575</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3127,9 +2739,7 @@
       <c r="I69" t="n">
         <v>579</v>
       </c>
-      <c r="J69" t="n">
-        <v>575</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,9 +2778,7 @@
       <c r="I70" t="n">
         <v>578</v>
       </c>
-      <c r="J70" t="n">
-        <v>575</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3209,9 +2817,7 @@
       <c r="I71" t="n">
         <v>582</v>
       </c>
-      <c r="J71" t="n">
-        <v>575</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,9 +2856,7 @@
       <c r="I72" t="n">
         <v>582</v>
       </c>
-      <c r="J72" t="n">
-        <v>575</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3291,9 +2895,7 @@
       <c r="I73" t="n">
         <v>584</v>
       </c>
-      <c r="J73" t="n">
-        <v>575</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,9 +2934,7 @@
       <c r="I74" t="n">
         <v>584</v>
       </c>
-      <c r="J74" t="n">
-        <v>575</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3373,9 +2973,7 @@
       <c r="I75" t="n">
         <v>582</v>
       </c>
-      <c r="J75" t="n">
-        <v>575</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,9 +3012,7 @@
       <c r="I76" t="n">
         <v>582</v>
       </c>
-      <c r="J76" t="n">
-        <v>575</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3455,9 +3051,7 @@
       <c r="I77" t="n">
         <v>582</v>
       </c>
-      <c r="J77" t="n">
-        <v>575</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,9 +3090,7 @@
       <c r="I78" t="n">
         <v>581</v>
       </c>
-      <c r="J78" t="n">
-        <v>575</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3537,9 +3129,7 @@
       <c r="I79" t="n">
         <v>586</v>
       </c>
-      <c r="J79" t="n">
-        <v>575</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,9 +3168,7 @@
       <c r="I80" t="n">
         <v>583</v>
       </c>
-      <c r="J80" t="n">
-        <v>575</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,12 +3202,12 @@
         <v>-33410.45680000001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>589</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,12 +3241,12 @@
         <v>-34166.6545</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>590</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,12 +3280,12 @@
         <v>-35110.6545</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>589</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3322,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>575</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>575</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>575</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>575</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +3470,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>575</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +3507,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>575</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,12 +3541,12 @@
         <v>-38803.7578</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>585</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,12 +3580,12 @@
         <v>-29890.3234</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>589</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>575</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4085,9 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>575</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,9 +3696,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>575</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,9 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>575</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4202,9 +3770,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>575</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,9 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>575</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +3844,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>575</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4319,9 +3881,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>575</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>575</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4397,9 +3955,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>575</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,9 +3992,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>575</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,9 +4029,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>575</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,9 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>575</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,9 +4103,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>575</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,9 +4140,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>575</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4631,9 +4177,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>575</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,9 +4214,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>575</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4709,9 +4251,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>575</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,9 +4288,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>575</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4787,9 +4325,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>575</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,9 +4362,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>575</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4865,9 +4399,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>575</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4904,9 +4436,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>575</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,20 +4470,16 @@
         <v>22426.36968414</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>575</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4979,17 +4505,11 @@
         <v>14733.50038414</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>575</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5018,17 +4538,11 @@
         <v>13499.32628414</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>575</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5057,17 +4571,11 @@
         <v>7715.561284139997</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>575</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5096,17 +4604,11 @@
         <v>-303.3640158600028</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>575</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5135,17 +4637,11 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>575</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5174,17 +4670,11 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>575</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5213,17 +4703,11 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>575</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5252,17 +4736,11 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>575</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5291,17 +4769,11 @@
         <v>10657.70548414</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>575</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5330,17 +4802,11 @@
         <v>11557.20148414</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>575</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5369,17 +4835,11 @@
         <v>11034.29288414</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>575</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5408,17 +4868,11 @@
         <v>10934.29288414</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>575</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +4904,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>575</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5486,17 +4934,11 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>575</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5525,17 +4967,11 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>575</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5564,17 +5000,11 @@
         <v>8935.115684139995</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>575</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +5036,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>575</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5069,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>575</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5684,14 +5102,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>575</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5723,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>575</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +5168,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>575</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5801,14 +5201,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>575</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5840,14 +5234,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>575</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5267,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>575</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5918,14 +5300,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>575</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5333,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>575</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5996,14 +5366,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>575</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6035,14 +5399,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>575</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5432,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>575</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5465,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>575</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5498,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>575</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +5531,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>575</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6230,14 +5564,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>575</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6269,14 +5597,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>575</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +5630,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>575</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6347,14 +5663,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>575</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6386,14 +5696,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>575</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +5729,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>575</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>575</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +5795,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>575</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>575</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +5861,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>575</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +5894,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>575</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +5927,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>575</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +5960,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>575</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +5993,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>575</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +6026,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>575</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +6059,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>575</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>575</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +6125,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>575</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6158,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>575</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6971,14 +6191,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>575</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6224,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>575</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6257,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>575</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6290,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>575</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +6323,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>575</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7166,14 +6356,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>575</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +6389,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>575</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6422,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>575</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6455,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>575</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7322,14 +6488,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>575</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +6521,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>575</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6554,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>575</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +6587,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>575</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +6620,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>575</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +6653,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>575</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +6686,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>575</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +6719,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>575</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +6752,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>575</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>575</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>575</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>575</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>575</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>575</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>575</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>575</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>575</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>575</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>575</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>575</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>575</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>575</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>575</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>575</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>575</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>575</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>575</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>575</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>575</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>575</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>575</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>575</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8570,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>575</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>575</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +7610,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>575</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>575</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +7676,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>575</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>575</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>575</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>575</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>575</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>575</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>575</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>575</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9038,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>575</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>575</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +8006,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>575</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +8039,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>575</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9194,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>575</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9233,14 +8105,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>575</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9272,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>575</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9311,14 +8171,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>575</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9350,14 +8204,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>575</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9389,14 +8237,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>575</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9428,14 +8270,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>575</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9467,14 +8303,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>575</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9506,14 +8336,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>575</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9545,14 +8369,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>575</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9584,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>575</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9623,14 +8435,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>575</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9662,14 +8468,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>575</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9701,14 +8501,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>575</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9740,14 +8534,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>575</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9779,14 +8567,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>575</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9818,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>575</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9857,14 +8633,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>575</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9896,14 +8666,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>575</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9935,14 +8699,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>575</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9974,14 +8732,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>575</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10013,14 +8765,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>575</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10052,14 +8798,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>575</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10091,14 +8831,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>575</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10130,14 +8864,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>575</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10169,14 +8897,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>575</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10208,14 +8930,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>575</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10247,14 +8963,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>575</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10286,14 +8996,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>575</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10325,14 +9029,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>575</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10364,14 +9062,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>575</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10403,14 +9095,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>575</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10442,14 +9128,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>575</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10481,14 +9161,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>575</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10520,14 +9194,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>575</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10559,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>575</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10595,17 +9257,11 @@
         <v>36062.35018414</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>575</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10634,17 +9290,11 @@
         <v>60886.67548414</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>575</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10673,17 +9323,11 @@
         <v>63970.13258414</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>575</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10712,17 +9356,11 @@
         <v>64750.20858414</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>575</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10751,17 +9389,11 @@
         <v>78014.18758413999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>575</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10790,17 +9422,11 @@
         <v>90870.95918414</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>575</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10829,17 +9455,11 @@
         <v>84156.62678414</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>575</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10868,17 +9488,11 @@
         <v>80359.03848413999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>575</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10907,17 +9521,11 @@
         <v>73807.15878413999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>575</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10946,17 +9554,11 @@
         <v>73808.15878413999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>575</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10985,17 +9587,11 @@
         <v>83471.48008413998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>575</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11024,17 +9620,11 @@
         <v>82703.33698413998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>575</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11066,14 +9656,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>575</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11105,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>575</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11144,14 +9722,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>575</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11183,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>575</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11222,14 +9788,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>575</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11261,14 +9821,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>575</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11300,14 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>575</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11339,14 +9887,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>575</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11378,14 +9920,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>575</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11417,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>575</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11456,14 +9986,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>575</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11495,14 +10019,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>575</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11534,14 +10052,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>575</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11573,14 +10085,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>575</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11612,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>575</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11651,14 +10151,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>575</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11690,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>575</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11729,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>575</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11768,14 +10250,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>575</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11807,14 +10283,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>575</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11846,14 +10316,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>575</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11885,14 +10349,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>575</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11921,23 +10379,15 @@
         <v>99410.91878414</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>575</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
-        <v>1.149782608695652</v>
-      </c>
-      <c r="M294" t="n">
-        <v>1.017391304347826</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11995,7 +10445,7 @@
         <v>100241.18938414</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12028,7 +10478,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12094,7 +10544,7 @@
         <v>99204.71168414</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12193,7 +10643,7 @@
         <v>95059.50448414001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12292,7 +10742,7 @@
         <v>94005.74708414001</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12391,7 +10841,7 @@
         <v>81803.28118414001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12457,7 +10907,7 @@
         <v>81803.28118414001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12556,7 +11006,7 @@
         <v>86397.16768414002</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12622,7 +11072,7 @@
         <v>87108.00238414003</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12655,7 +11105,7 @@
         <v>86344.30938414003</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12688,7 +11138,7 @@
         <v>90079.86378414002</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12721,7 +11171,7 @@
         <v>89782.03238414002</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12754,7 +11204,7 @@
         <v>91538.17508414002</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12919,7 +11369,7 @@
         <v>90700.24628414004</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13183,7 +11633,7 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13216,7 +11666,7 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13249,7 +11699,7 @@
         <v>85356.87238414006</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13282,7 +11732,7 @@
         <v>85156.87238414006</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13348,7 +11798,7 @@
         <v>85156.87238414006</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13381,7 +11831,7 @@
         <v>88114.95398414007</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13414,7 +11864,7 @@
         <v>85919.68328414008</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13447,7 +11897,7 @@
         <v>84942.31238414008</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13480,7 +11930,7 @@
         <v>90709.63968414009</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13513,7 +11963,7 @@
         <v>90709.63968414009</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13546,7 +11996,7 @@
         <v>91511.32528414008</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13579,7 +12029,7 @@
         <v>91361.32528414008</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13612,7 +12062,7 @@
         <v>91602.32528414008</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13645,7 +12095,7 @@
         <v>91602.32528414008</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13678,7 +12128,7 @@
         <v>100934.1289841401</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13711,7 +12161,7 @@
         <v>99692.96558414008</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -14107,7 +12557,7 @@
         <v>84126.31618414009</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14140,7 +12590,7 @@
         <v>84126.31618414009</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14173,7 +12623,7 @@
         <v>83738.46448414009</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14206,7 +12656,7 @@
         <v>83632.14858414009</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14239,7 +12689,7 @@
         <v>83632.14858414009</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14272,7 +12722,7 @@
         <v>88608.44078414008</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14305,7 +12755,7 @@
         <v>88608.44078414008</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14338,7 +12788,7 @@
         <v>88818.79068414008</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14371,7 +12821,7 @@
         <v>88820.44168414008</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14404,7 +12854,7 @@
         <v>88820.44168414008</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14437,7 +12887,7 @@
         <v>88244.20108414008</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14470,7 +12920,7 @@
         <v>88406.53158414007</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14503,7 +12953,7 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14536,7 +12986,7 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14569,7 +13019,7 @@
         <v>87957.18738414007</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14602,7 +13052,7 @@
         <v>87559.48938414006</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -16021,7 +14471,7 @@
         <v>103988.6456139001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16054,7 +14504,7 @@
         <v>103988.6456139001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16186,7 +14636,7 @@
         <v>108247.5035139</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16219,7 +14669,7 @@
         <v>108403.6762139</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16318,7 +14768,7 @@
         <v>106707.6262139</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16384,7 +14834,7 @@
         <v>106840.4978139</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16417,7 +14867,7 @@
         <v>106840.4978139</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -17044,7 +15494,7 @@
         <v>87274.47071390005</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17077,7 +15527,7 @@
         <v>87274.47071390005</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -22764,6 +21214,6 @@
       <c r="M622" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-13 BackTest PPT.xlsx
+++ b/BackTest/2019-10-13 BackTest PPT.xlsx
@@ -1342,10 +1342,14 @@
         <v>-31913.666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>578</v>
+      </c>
+      <c r="J29" t="n">
+        <v>578</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1378,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>578</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1418,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>580</v>
+      </c>
+      <c r="J31" t="n">
+        <v>578</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,10 +1459,14 @@
         <v>-31913.666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>580</v>
+      </c>
+      <c r="J32" t="n">
+        <v>580</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1496,19 @@
         <v>-31913.666</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>580</v>
+      </c>
+      <c r="J33" t="n">
+        <v>580</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1537,19 @@
         <v>-31912.666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>580</v>
+      </c>
+      <c r="J34" t="n">
+        <v>580</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1578,19 @@
         <v>-32544.46710000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>582</v>
+      </c>
+      <c r="J35" t="n">
+        <v>580</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1619,19 @@
         <v>-32595.5936</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>579</v>
+      </c>
+      <c r="J36" t="n">
+        <v>580</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1660,19 @@
         <v>-34507.79930000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>578</v>
+      </c>
+      <c r="J37" t="n">
+        <v>580</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1701,19 @@
         <v>-34506.79930000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>576</v>
+      </c>
+      <c r="J38" t="n">
+        <v>580</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1742,19 @@
         <v>-34326.79930000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>581</v>
+      </c>
+      <c r="J39" t="n">
+        <v>580</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1783,19 @@
         <v>-34450.79930000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>582</v>
+      </c>
+      <c r="J40" t="n">
+        <v>580</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1824,19 @@
         <v>-33832.13760000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>581</v>
+      </c>
+      <c r="J41" t="n">
+        <v>580</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1865,19 @@
         <v>-33116.71630000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>582</v>
+      </c>
+      <c r="J42" t="n">
+        <v>580</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1906,19 @@
         <v>-33215.9163</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>583</v>
+      </c>
+      <c r="J43" t="n">
+        <v>580</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1947,19 @@
         <v>-32473.1997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>578</v>
+      </c>
+      <c r="J44" t="n">
+        <v>580</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1988,19 @@
         <v>-32502.1339</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>584</v>
+      </c>
+      <c r="J45" t="n">
+        <v>580</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2029,19 @@
         <v>-31574.1663</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>580</v>
+      </c>
+      <c r="J46" t="n">
+        <v>580</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2070,19 @@
         <v>-31574.1663</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>582</v>
+      </c>
+      <c r="J47" t="n">
+        <v>580</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2111,19 @@
         <v>-31678.4152</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>582</v>
+      </c>
+      <c r="J48" t="n">
+        <v>580</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2152,19 @@
         <v>-31518.4706</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>578</v>
+      </c>
+      <c r="J49" t="n">
+        <v>580</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2193,19 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>583</v>
+      </c>
+      <c r="J50" t="n">
+        <v>580</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2234,19 @@
         <v>-29386.18470000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>584</v>
+      </c>
+      <c r="J51" t="n">
+        <v>580</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2275,19 @@
         <v>-30251.88470000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>584</v>
+      </c>
+      <c r="J52" t="n">
+        <v>580</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2316,19 @@
         <v>-33751.15470000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>582</v>
+      </c>
+      <c r="J53" t="n">
+        <v>580</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2357,19 @@
         <v>-34400.0937</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>581</v>
+      </c>
+      <c r="J54" t="n">
+        <v>580</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2398,19 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>580</v>
+      </c>
+      <c r="J55" t="n">
+        <v>580</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2439,19 @@
         <v>-33168.44840000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>582</v>
+      </c>
+      <c r="J56" t="n">
+        <v>580</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2271,10 +2485,12 @@
       <c r="I57" t="n">
         <v>582</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>580</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2310,7 +2526,9 @@
       <c r="I58" t="n">
         <v>575</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>580</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2349,7 +2567,9 @@
       <c r="I59" t="n">
         <v>576</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>580</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,7 +2608,9 @@
       <c r="I60" t="n">
         <v>577</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>580</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2427,7 +2649,9 @@
       <c r="I61" t="n">
         <v>579</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>580</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,7 +2690,9 @@
       <c r="I62" t="n">
         <v>583</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>580</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2505,7 +2731,9 @@
       <c r="I63" t="n">
         <v>583</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>580</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2544,7 +2772,9 @@
       <c r="I64" t="n">
         <v>581</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>580</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,7 +2813,9 @@
       <c r="I65" t="n">
         <v>581</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>580</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,7 +2854,9 @@
       <c r="I66" t="n">
         <v>582</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>580</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,7 +2895,9 @@
       <c r="I67" t="n">
         <v>581</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>580</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,7 +2936,9 @@
       <c r="I68" t="n">
         <v>577</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>580</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2739,7 +2977,9 @@
       <c r="I69" t="n">
         <v>579</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>580</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2778,7 +3018,9 @@
       <c r="I70" t="n">
         <v>578</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>580</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,7 +3059,9 @@
       <c r="I71" t="n">
         <v>582</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>580</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,7 +3100,9 @@
       <c r="I72" t="n">
         <v>582</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>580</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,7 +3141,9 @@
       <c r="I73" t="n">
         <v>584</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>580</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2934,7 +3182,9 @@
       <c r="I74" t="n">
         <v>584</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>580</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,7 +3223,9 @@
       <c r="I75" t="n">
         <v>582</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>580</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,7 +3264,9 @@
       <c r="I76" t="n">
         <v>582</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>580</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,7 +3305,9 @@
       <c r="I77" t="n">
         <v>582</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>580</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,7 +3346,9 @@
       <c r="I78" t="n">
         <v>581</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>580</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,7 +3387,9 @@
       <c r="I79" t="n">
         <v>586</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>580</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,7 +3428,9 @@
       <c r="I80" t="n">
         <v>583</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>580</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,7 +3469,9 @@
       <c r="I81" t="n">
         <v>589</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>580</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,7 +3510,9 @@
       <c r="I82" t="n">
         <v>590</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>580</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,7 +3551,9 @@
       <c r="I83" t="n">
         <v>589</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>580</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,10 +3587,14 @@
         <v>-34567.6545</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>588</v>
+      </c>
+      <c r="J84" t="n">
+        <v>580</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,10 +3628,14 @@
         <v>-40329.8294</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>589</v>
+      </c>
+      <c r="J85" t="n">
+        <v>580</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,10 +3669,14 @@
         <v>-39957.9227</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>584</v>
+      </c>
+      <c r="J86" t="n">
+        <v>580</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,7 +3713,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>580</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,10 +3749,14 @@
         <v>-39745.0829</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>588</v>
+      </c>
+      <c r="J88" t="n">
+        <v>580</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,7 +3793,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>580</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,7 +3834,9 @@
       <c r="I90" t="n">
         <v>585</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>580</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,12 +3870,12 @@
         <v>-29890.3234</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>589</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>580</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,7 +3912,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>580</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,7 +3951,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>580</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,7 +3990,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>580</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,7 +4029,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>580</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,7 +4068,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>580</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3807,7 +4107,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>580</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,7 +4146,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>580</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3881,7 +4185,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>580</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3918,7 +4224,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>580</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3955,7 +4263,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>580</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,7 +4302,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>580</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,7 +4341,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>580</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4066,7 +4380,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>580</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,7 +4419,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>580</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,7 +4458,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>580</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,7 +4497,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>580</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4214,7 +4536,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>580</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,7 +4575,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>580</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,7 +4614,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>580</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4325,7 +4653,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>580</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,7 +4692,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>580</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,7 +4731,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>580</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4436,7 +4770,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>580</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,16 +4806,20 @@
         <v>22426.36968414</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>580</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4505,11 +4845,17 @@
         <v>14733.50038414</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>580</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4884,17 @@
         <v>13499.32628414</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>580</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4571,11 +4923,17 @@
         <v>7715.561284139997</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>580</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +4962,17 @@
         <v>-303.3640158600028</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>580</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4637,11 +5001,17 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>580</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4670,11 +5040,17 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>580</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +5079,17 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>580</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +5118,17 @@
         <v>9876.459284139997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>580</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4769,11 +5157,17 @@
         <v>10657.70548414</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>580</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +5196,17 @@
         <v>11557.20148414</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>580</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +5235,17 @@
         <v>11034.29288414</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>580</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +5274,17 @@
         <v>10934.29288414</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>580</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>580</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4934,11 +5352,17 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>580</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +5391,17 @@
         <v>8843.292884139995</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>580</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +5430,17 @@
         <v>8935.115684139995</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>580</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5036,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>580</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5069,8 +5511,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>580</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5102,8 +5550,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>580</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5135,8 +5589,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>580</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5168,8 +5628,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>580</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5201,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>580</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5234,8 +5706,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>580</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5267,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>580</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5300,8 +5784,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>580</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5333,8 +5823,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>580</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5366,8 +5862,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>580</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5399,8 +5901,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>580</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5432,8 +5940,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>580</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5465,8 +5979,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>580</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +6018,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>580</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>580</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5564,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>580</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5597,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>580</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5630,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>580</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5663,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>580</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5696,8 +6252,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>580</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5729,8 +6291,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>580</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5762,8 +6330,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>580</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5795,8 +6369,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>580</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5828,8 +6408,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>580</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5861,8 +6447,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>580</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5894,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>580</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5927,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>580</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5960,8 +6564,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>580</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5993,8 +6603,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>580</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6026,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>580</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>580</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>580</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6125,8 +6759,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>580</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6158,8 +6798,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>580</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6191,8 +6837,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>580</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6224,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>580</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6257,8 +6915,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>580</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6290,8 +6954,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>580</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6323,8 +6993,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>580</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6356,8 +7032,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>580</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6389,8 +7071,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>580</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6422,8 +7110,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>580</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6455,8 +7149,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>580</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6488,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>580</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6521,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>580</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6554,8 +7266,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>580</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6587,8 +7305,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>580</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6620,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>580</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6653,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>580</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6686,8 +7422,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>580</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6719,8 +7461,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>580</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6752,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>580</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6785,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>580</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6818,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>580</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6851,8 +7617,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>580</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6884,8 +7656,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>580</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6917,8 +7695,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>580</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6950,8 +7734,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>580</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6983,8 +7773,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>580</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7016,8 +7812,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>580</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7049,8 +7851,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>580</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7082,8 +7890,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>580</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7115,8 +7929,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>580</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7148,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>580</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7181,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>580</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>580</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>580</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7280,8 +8124,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>580</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7313,8 +8163,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>580</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7346,8 +8202,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>580</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7379,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>580</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7412,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>580</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7445,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>580</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7478,8 +8358,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>580</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7511,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>580</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7544,8 +8436,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>580</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7577,8 +8475,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>580</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7610,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>580</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7643,8 +8553,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>580</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7676,8 +8592,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>580</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7709,8 +8631,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>580</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7742,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>580</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7775,8 +8709,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>580</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7808,8 +8748,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>580</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7841,8 +8787,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>580</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7874,8 +8826,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>580</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7907,8 +8865,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>580</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7940,8 +8904,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>580</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7973,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>580</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8006,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>580</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8039,8 +9021,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>580</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8072,8 +9060,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>580</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8105,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>580</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8138,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>580</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8171,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>580</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8204,8 +9216,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>580</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8237,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>580</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8270,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>580</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8303,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>580</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8336,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>580</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8369,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>580</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8402,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>580</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8435,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>580</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8468,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>580</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8501,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>580</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8534,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>580</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8567,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>580</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8600,8 +9684,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>580</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8633,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>580</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8666,8 +9762,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>580</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8699,8 +9801,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>580</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8732,8 +9840,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>580</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8765,8 +9879,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>580</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8798,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>580</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8831,8 +9957,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>580</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8864,8 +9996,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>580</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8897,8 +10035,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>580</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8930,8 +10074,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>580</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8963,8 +10113,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>580</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8996,8 +10152,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>580</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9029,8 +10191,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>580</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9062,8 +10230,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>580</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9095,8 +10269,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>580</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9128,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>580</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9161,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>580</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9194,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>580</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9227,8 +10425,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>580</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +10461,17 @@
         <v>36062.35018414</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>580</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9290,11 +10500,17 @@
         <v>60886.67548414</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>580</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +10539,17 @@
         <v>63970.13258414</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>580</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9356,11 +10578,17 @@
         <v>64750.20858414</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>580</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +10617,17 @@
         <v>78014.18758413999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>580</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +10656,17 @@
         <v>90870.95918414</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>580</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9455,11 +10695,17 @@
         <v>84156.62678414</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>580</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9488,11 +10734,17 @@
         <v>80359.03848413999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>580</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +10773,17 @@
         <v>73807.15878413999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>580</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9554,11 +10812,17 @@
         <v>73808.15878413999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>580</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +10851,17 @@
         <v>83471.48008413998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>580</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +10890,17 @@
         <v>82703.33698413998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>580</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9656,8 +10932,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>580</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9689,8 +10971,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>580</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9722,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>580</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9755,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>580</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9788,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>580</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9818,15 +11124,23 @@
         <v>93428.67588413997</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>580</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>1.131206896551724</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1.020942408376963</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10016,7 +11330,7 @@
         <v>104714.13828414</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10049,7 +11363,7 @@
         <v>100574.67178414</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10082,7 +11396,7 @@
         <v>98144.24148413999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10115,7 +11429,7 @@
         <v>98136.24148413999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10148,7 +11462,7 @@
         <v>98111.07638413999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10280,7 +11594,7 @@
         <v>101062.79578414</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10313,7 +11627,7 @@
         <v>99411.91878414</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10346,7 +11660,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10379,7 +11693,7 @@
         <v>99410.91878414</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10412,7 +11726,7 @@
         <v>99385.91878414</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10445,7 +11759,7 @@
         <v>100241.18938414</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10478,7 +11792,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10511,7 +11825,7 @@
         <v>100213.00388414</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10544,7 +11858,7 @@
         <v>99204.71168414</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10577,7 +11891,7 @@
         <v>96352.22218414</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10610,7 +11924,7 @@
         <v>94512.93328414</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10676,7 +11990,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10709,7 +12023,7 @@
         <v>94859.00448414001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10742,7 +12056,7 @@
         <v>94005.74708414001</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10775,7 +12089,7 @@
         <v>81222.01018414</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
